--- a/selenium-scraper/output.xlsx
+++ b/selenium-scraper/output.xlsx
@@ -12,14 +12,17 @@
     <sheet name="Dateline NBC" r:id="rId6" sheetId="4"/>
     <sheet name="Front Burner" r:id="rId7" sheetId="5"/>
     <sheet name="SmartLess" r:id="rId8" sheetId="6"/>
-    <sheet name="Conan O’Brien Needs A Friend" r:id="rId9" sheetId="7"/>
-    <sheet name="Economist Podcasts" r:id="rId10" sheetId="8"/>
+    <sheet name="This American Life" r:id="rId9" sheetId="7"/>
+    <sheet name="Les Pires Moments de l'Histoire" r:id="rId10" sheetId="8"/>
+    <sheet name="Planet Money" r:id="rId11" sheetId="9"/>
+    <sheet name="Conan O’Brien Needs A Friend" r:id="rId12" sheetId="10"/>
+    <sheet name="Economist Podcasts" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="2128">
   <si>
     <t>name</t>
   </si>
@@ -36,7 +39,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRsIRoSCDf9z7Nz7mRdmaRiQJ3obsPPD4NVH3XwX5S6zPQISHw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDEQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDEQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Daily</t>
@@ -45,7 +48,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTjZt805JMihjChbsRmtabBwt86kFvGcdEdzg2Fg-rP_hPUo6We</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS81NG5BR2NJbA?sa=X&amp;ved=0CDIQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS81NG5BR2NJbA?sa=X&amp;ved=0CDIQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Dateline NBC</t>
@@ -54,7 +57,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQJ36WL9MOyebS0jX3DVPcib5FBanzh2LMhOisp4KC79gnlVlE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CDMQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CDMQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Front Burner</t>
@@ -63,7 +66,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRjpkNpLjD9ZArJ21ChivYR6dAuxkWJnCwJRTT5g1lKv0r_I2s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZnJvbnRidXJuZXIueG1s?sa=X&amp;ved=0CDQQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZnJvbnRidXJuZXIueG1s?sa=X&amp;ved=0CDQQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>SmartLess</t>
@@ -72,7 +75,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTfZhOivQnalj2VkmUKTPpWr21gIccs7dJZL3gLbbnGn70Tugc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CDUQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CDUQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>This American Life</t>
@@ -81,7 +84,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRjQL2U1_KuAjPambMQJ_IrNNlLBgTorCY6Z4oVXHsbiHiXS30s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CDYQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CDYQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Les Pires Moments de l'Histoire</t>
@@ -90,7 +93,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcS5CdeAg4etnJz4lUL2HJygXg9A8t4bI_q62EmJZpVuEMQo04_c</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CDcQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CDcQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Planet Money</t>
@@ -99,7 +102,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSl9IqyvZ8Bkh8VxHvIdYGNEknYTYgNbFaTr17nKO60IWq2YZjS</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CDgQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CDgQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Conan O’Brien Needs A Friend</t>
@@ -108,7 +111,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRjDk1NRD4OiBn4oIGtGcBMe5ATIlgeZXfRlVTu14pKk7dzUsjX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CDkQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CDkQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Economist Podcasts</t>
@@ -117,7 +120,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTYK5Ymy5OwEFRn06zfAOTDJ8_mzCsGT2G-VqJkcj6GyoRoSCzA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYWNhc3QuY29tL3RoZWVjb25vbWlzdGFsbGF1ZGlv?sa=X&amp;ved=0CDoQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYWNhc3QuY29tL3RoZWVjb25vbWlzdGFsbGF1ZGlv?sa=X&amp;ved=0CDoQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Behind the Bastards</t>
@@ -126,7 +129,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSv4MtGLXqcUw7gnetojTlfVeMQAl00_g8RtiILyLqLck4eGDlf</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDsQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDsQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>TED Talks Daily</t>
@@ -135,7 +138,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQvWRhYcJbWw4w6a9CFskUnb0-McmhM1QTyfq0omvEuVZyrA6Y</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CDwQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CDwQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The World at Six</t>
@@ -144,7 +147,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTIbIVOuuXaMpZY6nXCDr5F8rb9JHbe3DD4Wg6HNKPebqMYguFr</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvdzYueG1s?sa=X&amp;ved=0CD0Qjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvdzYueG1s?sa=X&amp;ved=0CD0Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Huberman Lab</t>
@@ -153,7 +156,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQvN3x-B_kb4p-hCjCere_kvoUCBeAfAt_TFJUkqXqZCEzwvZU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CD4Qjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CD4Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>CANADALAND</t>
@@ -162,7 +165,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQlt2Vp1I67Eey6Ys0B9gGCIBGRzNdUFKdTRcu1-QX_9UAfdAE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzMGNlYWUzM2ZlMzc0MDAxMjI4MjhjNg?sa=X&amp;ved=0CD8Qjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzMGNlYWUzM2ZlMzc0MDAxMjI4MjhjNg?sa=X&amp;ved=0CD8Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Today, Explained</t>
@@ -171,7 +174,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTnhNn5zq2UTzFQYTnVsSUOAj52_sLgqJf45qh_bOisNHHu81k</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RvZGF5LWV4cGxhaW5lZA?sa=X&amp;ved=0CEAQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RvZGF5LWV4cGxhaW5lZA?sa=X&amp;ved=0CEAQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Canadian True Crime</t>
@@ -180,7 +183,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSeNN7MpzxuiIzJztTswCVbUrfWuGaP6NnLq2oPpKY3PK2Yyyfi</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CEEQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CEEQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>La Poche Bleue</t>
@@ -189,7 +192,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTvQ9cbma0uLnJlqUZj2tcBifzzNFfnapgQ5WeN184SHIxPSYHY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvNzFmOTFiMjItMGY1NC00OGYyLTliZDctYWE1YzAwMWY1ZmFhLzRmYmQzODJiLTMyMjItNDRlNy05OGZiLWFjMzAwMTM2M2FjNi8xNTZmNTk0Yy1hNzIxLTQ2ZjgtYTA4MS1hYzMwMDEzNjNhZDQvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEIQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvNzFmOTFiMjItMGY1NC00OGYyLTliZDctYWE1YzAwMWY1ZmFhLzRmYmQzODJiLTMyMjItNDRlNy05OGZiLWFjMzAwMTM2M2FjNi8xNTZmNTk0Yy1hNzIxLTQ2ZjgtYTA4MS1hYzMwMDEzNjNhZDQvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEIQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>32 Thoughts: The Podcast</t>
@@ -198,7 +201,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5ltKCZkfJMSd6EKIh-lAHfMEVmaXx4fI8udjghw7e35zdXY0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9mWXFGcjVoXw?sa=X&amp;ved=0CEMQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9mWXFGcjVoXw?sa=X&amp;ved=0CEMQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Big Story</t>
@@ -207,154 +210,154 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTVCjcDz6oeyc4lHvxNYnLT7AzClEjRR8HTXaVAr4tRxYAzE98</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9Pa2F4NDRibw?sa=X&amp;ved=0CEQQjs4CKAFqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9Pa2F4NDRibw?sa=X&amp;ved=0CEQQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQayqj3ATkQO3j3azMgU3v8vloQJ0ezuibPL7PjiQmpX48i7Kvo</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEkQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CEoQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CEsQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CEwQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CE0Qjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CE4Qjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CE8Qjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFAQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEkQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CEoQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CEsQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CEwQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CE0Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CE4Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CE8Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFAQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Under the Influence with Terry O'Reilly</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly91bmRlcnRoZWluZmx1ZW5jZS5hcG9zdHJvcGhlcG9kY2FzdHMuY2EvZmVlZA?sa=X&amp;ved=0CFEQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly91bmRlcnRoZWluZmx1ZW5jZS5hcG9zdHJvcGhlcG9kY2FzdHMuY2EvZmVlZA?sa=X&amp;ved=0CFEQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Freakonomics Radio</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ZOGxGYk9UNA?sa=X&amp;ved=0CFIQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ZOGxGYk9UNA?sa=X&amp;ved=0CFIQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Lex Fridman Podcast</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CFMQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CFMQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Radiolab</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL3JhZGlvbGFi?sa=X&amp;ved=0CFQQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL3JhZGlvbGFi?sa=X&amp;ved=0CFQQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>2 Bears, 1 Cave with Tom Segura &amp; Bert Kreischer</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CFUQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CFUQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Revisionist History</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmV2aXNpb25pc3RoaXN0b3J5?sa=X&amp;ved=0CFYQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmV2aXNpb25pc3RoaXN0b3J5?sa=X&amp;ved=0CFYQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Ologies with Alie Ward</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CFcQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CFcQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Ideas</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvaWRlYXMueG1s?sa=X&amp;ved=0CFgQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvaWRlYXMueG1s?sa=X&amp;ved=0CFgQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Darknet Diaries</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CFkQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CFkQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Casefile True Crime</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5NDA4NzIucnNz?sa=X&amp;ved=0CFoQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5NDA4NzIucnNz?sa=X&amp;ved=0CFoQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Ezra Klein Show</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS84MkZJMzVQeA?sa=X&amp;ved=0CFsQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS84MkZJMzVQeA?sa=X&amp;ved=0CFsQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>فنجان مع عبدالرحمن أبومالح</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTBhYTM2MGMtZDlmYS00YzY4LTk3NDMtYWFjODAwM2MxZDk3L2ExYmI1NTVlLWE1NzItNDIxMS1hZWJlLWFhZDQwMGI5NjRiMS9mNjlhMDZlMS1kOWE5LTRkMzMtYWE2My1hYWQ0MDBiOTY0YmYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFwQjs4CKAJqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTBhYTM2MGMtZDlmYS00YzY4LTk3NDMtYWFjODAwM2MxZDk3L2ExYmI1NTVlLWE1NzItNDIxMS1hZWJlLWFhZDQwMGI5NjRiMS9mNjlhMDZlMS1kOWE5LTRkMzMtYWE2My1hYWQ0MDBiOTY0YmYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFwQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Maintenance Phase</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CGEQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CGEQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>We Can Do Hard Things</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vd2NkaHQ?sa=X&amp;ved=0CGIQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vd2NkaHQ?sa=X&amp;ved=0CGIQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>StarTalk Radio</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS80VDM5X2pBag?sa=X&amp;ved=0CGMQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS80VDM5X2pBag?sa=X&amp;ved=0CGMQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Science Vs</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CGQQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CGQQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Mindset Mentor</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CGUQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CGYQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CGcQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CGUQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CGYQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CGcQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Diary Of A CEO with Steven Bartlett</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CGgQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CGgQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Art of Manliness</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9henkzM0c4Xw?sa=X&amp;ved=0CGkQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9henkzM0c4Xw?sa=X&amp;ved=0CGkQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Life Kit</t>
@@ -363,7 +366,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcT6MZvbfnorhcfDfaYvuGPdRoNR9q5cksKA5r1HSTKXOWU1BOYX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CGoQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CGoQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Ramsey Show</t>
@@ -372,7 +375,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsoDpE2a7nGGM92r2xKEYJ3E1cdHUzSpveFsNRyDO-l4LRsKSX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CGsQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CGsQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>7 Good Minutes</t>
@@ -381,7 +384,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSVTPAyrcDAearNg0xnrtlIGv3np014iTawe3tul0qFaijuYQA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CGwQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CGwQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The School of Greatness</t>
@@ -390,7 +393,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSSnxZB6Rsy7G_nfPokcO7MgSKtZt_kIeE6dK3MlfydQw5Qw-U</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CG0Qjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CG0Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Sans Filtre Podcast</t>
@@ -399,7 +402,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRZIS6DvNPQpz_AAJn3WfU16bmikrJRz-WIS66favPWmvlj8ww</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS94bHR4c2s5Rw?sa=X&amp;ved=0CG4Qjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS94bHR4c2s5Rw?sa=X&amp;ved=0CG4Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Duolingo French Podcast</t>
@@ -408,7 +411,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcR6olwUkpYecy_cE0mrPBIyAn_V6FWzjnp3iJ19YGMXw_hxgFr8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mcnBvZGNhc3QubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CG8Qjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mcnBvZGNhc3QubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CG8Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Where Should We Begin? with Esther Perel</t>
@@ -417,7 +420,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSZVUvVSa8NcK3i098meMWUffu06qNQ_W_t8LIYfYP22Uj_H0ud</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0CHAQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0CHAQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Drôlement inspirant</t>
@@ -426,7 +429,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQMbSXepG3NyIIRkG8KvqF1Dcurz0INZLe0Br44H5GFgGNI7rm7</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CHEQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CHEQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>Speak Better English with Harry</t>
@@ -435,7 +438,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcT-oy9XyC4QDbQKjPpBtgFKLQ_RhZk1zec3GE4C94OMX5Eurac</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS80NDI1NDMucnNz?sa=X&amp;ved=0CHIQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS80NDI1NDMucnNz?sa=X&amp;ved=0CHIQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>VOA Learning English Podcast - VOA Learning English</t>
@@ -444,7 +447,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQYYowmuD9n5cd9NDVjOB7s56wYBHjAHW-OeXPXcXOrCPvtoyKJ</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZWFybmluZ2VuZ2xpc2gudm9hbmV3cy5jb20vcG9kY2FzdC8_em9uZUlkPTE2ODk?sa=X&amp;ved=0CHMQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZWFybmluZ2VuZ2xpc2gudm9hbmV3cy5jb20vcG9kY2FzdC8_em9uZUlkPTE2ODk?sa=X&amp;ved=0CHMQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>All Ears English Podcast</t>
@@ -453,7 +456,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSCamMpOOraqRqQuKauYtoYAGS3KwvvkMez3Oq7CAQfpqRLHZk</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vYWxsZWFyc2VuZ2xpc2g?sa=X&amp;ved=0CHQQjs4CKANqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vYWxsZWFyc2VuZ2xpc2g?sa=X&amp;ved=0CHQQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>All-In with Chamath, Jason, Sacks &amp; Friedberg</t>
@@ -462,13 +465,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSpCGpcwaxhoub04Dn4Lz-qpA8mcOTdNJFPphtB3BEgI6ijTZe_</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CHkQjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CHkQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQmrWCZTfSvtUuVI5Tuk08MR7TeikwgrzYPfZhN_Q34SjPYRFi7</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CHoQjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CHoQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>On Purpose with Jay Shetty</t>
@@ -477,7 +480,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTu2mP3ppWuVxptsPZyrLAsEuu4dvcu05fVqdxXgcov1NIthN8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CHsQjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CHsQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>The Tim Ferriss Show</t>
@@ -486,37 +489,37 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTfmVd8QV1OQTPXDbiPVTORVWlnAO7jslfZLOlF9MSDW-kodns</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RpbS1mZXJyaXNzLXNob3c?sa=X&amp;ved=0CHwQjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RpbS1mZXJyaXNzLXNob3c?sa=X&amp;ved=0CHwQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT2-oXPgTiz0UgcyaRuQfwDm7dy1dct8k47x8Fs4o_14i4O8p_s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CH0Qjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CH0Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSaGTGsPno4Jqgil6P2mBlbggtOBOiwkRxuQ6-2NSCsEF4wGJST</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CH4Qjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CH8Qjs4CKARqFwoTCNCL_7r8t4IDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIABEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CH4Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CH8Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIABEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQEqGuBiqSCTDRUqEb9PAWDKHCQW4Y_RB1DE3KfkuCcohzXzS8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CIEBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CIEBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTf_i3TiDDeuEiuNUdeHdjXcap5mwJ5AmPMGgkMC3Ar23KaM8s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CIIBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CIIBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Indicator from Planet Money</t>
@@ -525,7 +528,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRsFT2qLgsPp33JSPgNoGms5pWHwCKO5inOjdMiEQc4-WxSM08</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMyNS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIMBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMyNS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIMBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Canadian Investor</t>
@@ -534,7 +537,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQo4IW3vt7UnNlu_jg8IWU0G6phduty8d_H1akDfz_rVT8U394</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZDc1ZDJmZjQtYTRkZC00YTE5LWJjYjEtYWQzNTAxM2RmYzgzLzMzYTllNzBmLTU1YjEtNGY3OS04NmE5LWFkMzUwMTNlOTY3Mi80YWQwYThiYy1mNWRkLTRjNjMtYjZhZi1hZDM1MDEzZTk2ODAvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CIQBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZDc1ZDJmZjQtYTRkZC00YTE5LWJjYjEtYWQzNTAxM2RmYzgzLzMzYTllNzBmLTU1YjEtNGY3OS04NmE5LWFkMzUwMTNlOTY3Mi80YWQwYThiYy1mNWRkLTRjNjMtYjZhZi1hZDM1MDEzZTk2ODAvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CIQBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Jocko Podcast</t>
@@ -543,7 +546,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRP_ucEBbkznDfTGiSa8ml679nyvKiO09kiJpVMEIK7RcvxHECL</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tLzY0YTg5Zjg4LWEyNDUtNDA5OC04ZDhkLTQ5NjMyNWVjNGY3NA?sa=X&amp;ved=0CIUBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tLzY0YTg5Zjg4LWEyNDUtNDA5OC04ZDhkLTQ5NjMyNWVjNGY3NA?sa=X&amp;ved=0CIUBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>How I Built This with Guy Raz</t>
@@ -552,7 +555,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcT-F2U-kXQma7v3jy8KvKMpKVvdYDx4bOKUO2uwrEt0-oa47bI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMxMy9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIYBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMxMy9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIYBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>We Regret To Inform You: The Rejection Podcast</t>
@@ -561,7 +564,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZAp4PnoLiJMq3r94Pp663TvfTz5S_UKo8zCfCGbmWwCoYRx8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzU3OWY5YTc0LTViOWYtNDUwOC1iNjg3LTE1ODczZGFkNmQxMQ?sa=X&amp;ved=0CIcBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzU3OWY5YTc0LTViOWYtNDUwOC1iNjg3LTE1ODczZGFkNmQxMQ?sa=X&amp;ved=0CIcBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>We Study Billionaires - The Investor’s Podcast Network</t>
@@ -570,7 +573,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQYHVcazkreKTBKdsIBt5hTxAOFfJ_17LeZVpyFLxxg3bDQrouj</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RoZS1pbnZlc3RvcnMtcG9kY2FzdA?sa=X&amp;ved=0CIgBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RoZS1pbnZlc3RvcnMtcG9kY2FzdA?sa=X&amp;ved=0CIgBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Motley Fool Money</t>
@@ -579,7 +582,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcR9bQRXmqIk4-GFtmd5BWk4RApT4kU20HVRrJg7_9o5pAptHG8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mb29sLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIkBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mb29sLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIkBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>THE ED MYLETT SHOW</t>
@@ -588,7 +591,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQTfjESLmT9jHuhnlCSypbPDAHyZAbzbzya1cZyhFE9pFkHlaA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9KMlpERlhvSQ?sa=X&amp;ved=0CIoBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9KMlpERlhvSQ?sa=X&amp;ved=0CIoBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Prof G Pod with Scott Galloway</t>
@@ -597,7 +600,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRZWd33vmGTD4UJcjZNFFRV87X9CgvDkj2zyr9Xb6nq1ahu51nc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vV1dPNjY1NTg2OTIzNg?sa=X&amp;ved=0CIsBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vV1dPNjY1NTg2OTIzNg?sa=X&amp;ved=0CIsBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Rational Reminder Podcast</t>
@@ -606,7 +609,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQY8Q7Qme12WzOkp7njNvj2rUxCPb8dOJbNhY0Jc40K8O5iRps</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yYXRpb25hbHJlbWluZGVyLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIwBEI7OAigEahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yYXRpb25hbHJlbWluZGVyLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIwBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Morbid</t>
@@ -615,7 +618,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSE25ePzLSmlWrYNZGS6z_5M2QjPkLAla7ciGDowtkCZCBQ3ts</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5OTcyMjAucnNz?sa=X&amp;ved=0CJEBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5OTcyMjAucnNz?sa=X&amp;ved=0CJEBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Office Ladies</t>
@@ -624,16 +627,16 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBSJmZNjtN2fg-ZXuGqQ549ZUFOxw9zfQu9ZAOY26YjawilOc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9QeEVXX2lwSw?sa=X&amp;ved=0CJIBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CJMBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9QeEVXX2lwSw?sa=X&amp;ved=0CJIBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CJMBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRAZQaGlaVMOduPaX_5uVPNFYjSBpo88CScQs1ojspNXqRhPBc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CJQBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CJQBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Debaters</t>
@@ -642,34 +645,34 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSNrO952e8eFWXNGTVyxDtX5q9GD3d0q3WZOD_opgWrvjI7GrM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZGViYXRlcnMueG1s?sa=X&amp;ved=0CJUBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CJYBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CJcBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CJgBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZGViYXRlcnMueG1s?sa=X&amp;ved=0CJUBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CJYBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CJcBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CJgBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Les Grosses Têtes</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cucnRsLmZyL3BvZGNhc3QvbGVzLWdyb3NzZXMtdGV0ZXMueG1s?sa=X&amp;ved=0CJkBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cucnRsLmZyL3BvZGNhc3QvbGVzLWdyb3NzZXMtdGV0ZXMueG1s?sa=X&amp;ved=0CJkBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Bad Friends</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9PbzlMWDVGSQ?sa=X&amp;ved=0CJoBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9PbzlMWDVGSQ?sa=X&amp;ved=0CJoBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Monday Morning Podcast</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvODg1YWNlODMtMDI3YS00N2FkLWFkNjctYWNhNzAwMmYxZGY4L2NhYTkyYmIxLTczY2MtNGFiYy04YjZkLWFjYTgwMDVkMGQyMy80NzFmYzQ0NC0xMzc4LTQyNjgtODZlYS1hY2E4MDA1ZDBkM2IvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CJsBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvODg1YWNlODMtMDI3YS00N2FkLWFkNjctYWNhNzAwMmYxZGY4L2NhYTkyYmIxLTczY2MtNGFiYy04YjZkLWFjYTgwMDVkMGQyMy80NzFmYzQ0NC0xMzc4LTQyNjgtODZlYS1hY2E4MDA1ZDBkM2IvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CJsBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Armchair Expert with Dax Shepard</t>
@@ -678,7 +681,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSaBfNdNt6vW9VGhrCsForS1L9nogdEUO2uKyFbgIYKRdfsrk0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNDEyMy9yc3M?sa=X&amp;ved=0CJwBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNDEyMy9yc3M?sa=X&amp;ved=0CJwBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>This Past Weekend w/ Theo Von</t>
@@ -687,7 +690,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQJUv2cJnTwJhCde5x2iTR2pPy5XqGn1NLBIKkz6dojvxrbmu8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNjQwNS9yc3M?sa=X&amp;ved=0CJ0BEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNjQwNS9yc3M?sa=X&amp;ved=0CJ0BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>My Brother, My Brother And Me</t>
@@ -696,7 +699,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRSiekbNygVIBzORsZ4AtOXa5Gf5EvOb796KgOo56OCnrp8Pz8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS93alF2WXRkbA?sa=X&amp;ved=0CJ4BEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS93alF2WXRkbA?sa=X&amp;ved=0CJ4BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Last Podcast On The Left</t>
@@ -705,7 +708,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgDss0_NDGwTEtbTQfIgflOMsOWAryHoum0bQ9Trdry7HMQw0m</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kQ1hNSXBKeg?sa=X&amp;ved=0CJ8BEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kQ1hNSXBKeg?sa=X&amp;ved=0CJ8BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Fly on the Wall with Dana Carvey and David Spade</t>
@@ -714,7 +717,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjKYspDyKViU1RfevzJ4L2vxNJxXYbQJlKCtHORDR2LwdqdFY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZmx5LW9uLXRoZS13YWxs?sa=X&amp;ved=0CKABEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZmx5LW9uLXRoZS13YWxs?sa=X&amp;ved=0CKABEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Nadie Sabe Nada</t>
@@ -723,7 +726,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQr_uwoAzpQBf5wAn_9V5jADZ-DKsp7o3mUuDdLqD40EQiq3uw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mYXBpLXRvcC5wcmlzYXNkLmNvbS9wb2RjYXN0L3BsYXlzZXIvbmFkaWVfc2FiZV9uYWRhL2l0dW5lc3RmcC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKEBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mYXBpLXRvcC5wcmlzYXNkLmNvbS9wb2RjYXN0L3BsYXlzZXIvbmFkaWVfc2FiZV9uYWRhL2l0dW5lc3RmcC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKEBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Jokes In Hindi</t>
@@ -732,7 +735,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSEJ_pkRJZn0mxYcMR2Z8LqvJHkqKpfuEwDM1ukWGigKzoKw8s-</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy8zYTc3ZjczOC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CKIBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy8zYTc3ZjczOC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CKIBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>A Piada do Dia</t>
@@ -741,7 +744,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcS6hi09LgAFq05kbG637WJ-gT71ohx6MWvWHXRSBIq1idyP5SSm</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tL2EzNzMzZjE4LWZlYzktNDUwOS05MTk3LWZmZDhjNDM0MTdlZQ?sa=X&amp;ved=0CKMBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tL2EzNzMzZjE4LWZlYzktNDUwOS05MTk3LWZmZDhjNDM0MTdlZQ?sa=X&amp;ved=0CKMBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Wait Wait... Don't Tell Me!</t>
@@ -750,13 +753,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQ5nfp_HPdtVsgPTrHAsLMRlPeJAbyYMxnj2xe2sDy7y87qloo</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM0NDA5ODUzOS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKQBEI7OAigFahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM0NDA5ODUzOS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKQBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSfD4UaounFa36jK9J4lGtMB31AxDcQH81mhPUFPZyXP6necHM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CKkBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CKkBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>99% Invisible</t>
@@ -765,7 +768,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSoBnUkR9-ZlpSg0UHRIcVk9-e0RreQqFCVzzkohMUR-0_muMno</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9CcWJzeFZmTw?sa=X&amp;ved=0CKoBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9CcWJzeFZmTw?sa=X&amp;ved=0CKoBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Fresh Air</t>
@@ -774,16 +777,16 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSvadpfP2DBC56HWMEhNZX6tb8vP9mA8DNHls74qKd3kXKvLjI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM4MTQ0NDkwOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKsBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CKwBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM4MTQ0NDkwOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKsBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CKwBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Q with Tom Power</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvcXBvZGNhc3QueG1s?sa=X&amp;ved=0CK0BEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvcXBvZGNhc3QueG1s?sa=X&amp;ved=0CK0BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Myths and Legends</t>
@@ -792,25 +795,25 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR2gducdpG-mZVa41IjU0SmsPvTOm4kI38DilMAmKWYTHEHuJk0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwOTQ2MjYucnNz?sa=X&amp;ved=0CK4BEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwOTQ2MjYucnNz?sa=X&amp;ved=0CK4BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Moth</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnRoZW1vdGgub3JnL3RoZW1vdGhwb2RjYXN0?sa=X&amp;ved=0CK8BEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnRoZW1vdGgub3JnL3RoZW1vdGhwb2RjYXN0?sa=X&amp;ved=0CK8BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOGQzMzVjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLABEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOGQzMzVjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLABEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Avec son Sam</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9iYWxhZG9xdWViZWMuY2EvYXZlY3NvbnNhbXBvZGNhc3QvcnNz?sa=X&amp;ved=0CLEBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9iYWxhZG9xdWViZWMuY2EvYXZlY3NvbnNhbXBvZGNhc3QvcnNz?sa=X&amp;ved=0CLEBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Magnus Archives</t>
@@ -819,7 +822,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTOnCexkbwapn5Rzo8pTHLvyuraLc2PvhOmFtYUDDbSDfa0FhM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2I2MDg1YmNkLTM1NDItNGE0My1iNmE4LTAyMWUzZmQyNTFiOA?sa=X&amp;ved=0CLIBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2I2MDg1YmNkLTM1NDItNGE0My1iNmE4LTAyMWUzZmQyNTFiOA?sa=X&amp;ved=0CLIBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>A Hot Dog Is a Sandwich</t>
@@ -828,7 +831,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5os3kO_5MA54N1OdIDySOY8g6eUx8Z4bLlkP7Q27US-dpJ-E</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaG90LWRvZw?sa=X&amp;ved=0CLMBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaG90LWRvZw?sa=X&amp;ved=0CLMBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Bald and the Beautiful with Trixie and Katya</t>
@@ -837,7 +840,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTVf_jwqiER5W_7WEpgXtTWpnQsHS4LDbNwjswqeUgUAEwUm9-w</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNjk1OTY4OTU4NA?sa=X&amp;ved=0CLQBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNjk1OTY4OTU4NA?sa=X&amp;ved=0CLQBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The New Yorker Radio Hour</t>
@@ -846,7 +849,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcS6i6mNNxBpP-bw-gdg8hx6LN5TX4Oyn3-cheGaziOznKfU62Pj</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL25ld3lvcmtlcnJhZGlvaG91cg?sa=X&amp;ved=0CLUBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL25ld3lvcmtlcnJhZGlvaG91cg?sa=X&amp;ved=0CLUBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Little Stories for Tiny People: Anytime and bedtime stories for kids</t>
@@ -855,7 +858,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRtra2nAriI_UUZ0njfAaEfNdoRiffoidejd9ijG_cmC_DXxJ8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cubGl0dGxlc3Rvcmllc3RpbnlwZW9wbGUuY29tL3BvZGNhc3QueG1s?sa=X&amp;ved=0CLYBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cubGl0dGxlc3Rvcmllc3RpbnlwZW9wbGUuY29tL3BvZGNhc3QueG1s?sa=X&amp;ved=0CLYBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Let's Not Meet: A True Horror Podcast</t>
@@ -864,7 +867,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQa3LSdkpCNBd01_L_YXDRI5BgB0JOb-YH8VOtFbHdZn9zcFo8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwMzc1ODIucnNz?sa=X&amp;ved=0CLcBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwMzc1ODIucnNz?sa=X&amp;ved=0CLcBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Joe Rogan Experience Experience</t>
@@ -873,7 +876,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsaByGyu7GuvmOXBFBHgDnBZQ5yxXIN0fZjwNW4fn4SnQgW1sM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9qcmVlcG9kY2FzdC5wb2RiZWFuLmNvbS9mZWVkLnhtbA?sa=X&amp;ved=0CLgBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9qcmVlcG9kY2FzdC5wb2RiZWFuLmNvbS9mZWVkLnhtbA?sa=X&amp;ved=0CLgBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Stories of Mahabharata</t>
@@ -882,7 +885,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTZBQI5V6RzUZ1Mm24yRbj-RbDZ-nNxdlkqolDmqZuSfQG2uRhJ</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxYTU0OTVmZDIwZmI2MDAxOTdjODJmZA?sa=X&amp;ved=0CLkBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxYTU0OTVmZDIwZmI2MDAxOTdjODJmZA?sa=X&amp;ved=0CLkBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Le Petit Prince</t>
@@ -891,7 +894,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTn6q2_evzT9QNG9PMF8O7HYkDtbY00rtHPg9ookK0G8vfTx9M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9lZjEzMDcwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLoBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9lZjEzMDcwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLoBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Alessandro Barbero Podcast - La Storia</t>
@@ -900,7 +903,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTDYaWZyhxr2OUHVV8zoPfuAF1u4FHnahDL3ynxqP5FKPq3mU49</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNDg2MDUyNy9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CLsBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNDg2MDUyNy9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CLsBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Rintik Sedu</t>
@@ -909,37 +912,37 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTjqVuvFEx14WQ4l1DtvgFrBPe2eYRAY0CDF30KI8JMymfvnyI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOTRlYWMwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLwBEI7OAigGahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOTRlYWMwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLwBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiIrnAB0ib0cvmizw-YeHo7tUXIUPZTM-8dSQFv85z6wtUPFeT</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CMEBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CMEBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Distorsion</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9kaXN0b3JzaW9ucG9kY2FzdC5jb20vcG9kY2FzdHMueG1s?sa=X&amp;ved=0CMIBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9kaXN0b3JzaW9ucG9kY2FzdC5jb20vcG9kY2FzdHMueG1s?sa=X&amp;ved=0CMIBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSUemYfblAl1vXufDXFscnhjmgpRk89fO-MHGGtERiUggpM1mE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CMMBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CMMBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSEL3C2OjylEP-9zU8HlV4f47Q8F1H5p4ZMtdzAQUlxXlwZ78WR</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CMQBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CMQBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Roz &amp; Mocha</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS92X0JWYnU2dg?sa=X&amp;ved=0CMUBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS92X0JWYnU2dg?sa=X&amp;ved=0CMUBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Waveform: The MKBHD Podcast</t>
@@ -948,7 +951,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTf-9sNvJYKUKzelCETNNFiC1QQxVrlMQufTtgY3qvqeLeh_xs</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNDQxODM2NDA0NQ?sa=X&amp;ved=0CMYBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNDQxODM2NDA0NQ?sa=X&amp;ved=0CMYBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Pivot</t>
@@ -957,7 +960,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSDz8YiQ5B3yIvFMLJG8qAgnYvWseoiDhudtOSVAhCXT_iOqDX9</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcGl2b3Q?sa=X&amp;ved=0CMcBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcGl2b3Q?sa=X&amp;ved=0CMcBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Hard Fork</t>
@@ -966,7 +969,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSJ2VUCC2f2ZrmFmFYQh4ymm1WM1M2WbQKLp3J07OOPYqm0bRab</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9sMmk5WW5UZA?sa=X&amp;ved=0CMgBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9sMmk5WW5UZA?sa=X&amp;ved=0CMgBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Vergecast</t>
@@ -975,7 +978,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRgeaiUpHH6TzifX__lDsX7o25yqnZ3JC8mp92qTfX7nWHL_CPl</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vdmVyZ2VjYXN0?sa=X&amp;ved=0CMkBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vdmVyZ2VjYXN0?sa=X&amp;ved=0CMkBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>This Week in Tech (Audio)</t>
@@ -984,7 +987,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQlXtaMDRfwvLEvYHbCQVdO9LIdlceIwPG7GOUsTN9qGNPJpmUV</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50d2l0LnR2L3R3aXQueG1s?sa=X&amp;ved=0CMoBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50d2l0LnR2L3R3aXQueG1s?sa=X&amp;ved=0CMoBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Spark</t>
@@ -993,7 +996,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRK14hh8d8dP_AKXiIogts1kVDx7494oyxFZACu7MAhngliPmI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvc3BhcmsueG1s?sa=X&amp;ved=0CMsBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvc3BhcmsueG1s?sa=X&amp;ved=0CMsBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Acquired</t>
@@ -1002,7 +1005,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQNaetRQ37fiF6NSln-MEiMpyDPNUjGfnFWbkNtfrM-R2c1cNUk</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50cmFuc2lzdG9yLmZtL2FjcXVpcmVk?sa=X&amp;ved=0CMwBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50cmFuc2lzdG9yLmZtL2FjcXVpcmVk?sa=X&amp;ved=0CMwBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Gaana Music</t>
@@ -1011,7 +1014,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSVdQcprzJ5G2PTM4d5aK3LOXJMWsMotxKW9U7VXhWxTjNLUpI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5odWJob3BwZXIuY29tLzcwMjQ4YWUyOTczZGMzZWIwOGU3MjZjMTFhZjc3NWFlLnJzcw?sa=X&amp;ved=0CM0BEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5odWJob3BwZXIuY29tLzcwMjQ4YWUyOTczZGMzZWIwOGU3MjZjMTFhZjc3NWFlLnJzcw?sa=X&amp;ved=0CM0BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Новости со Стасом</t>
@@ -1020,7 +1023,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQIh-x7xe-pG1qE3QHO1CVMN3ipAdSKCGCjj6i0Qcz2yQWMFS5s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RzYXN0LnJ1L2ZlZWQvcG9kY2FzdC8?sa=X&amp;ved=0CM4BEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RzYXN0LnJ1L2ZlZWQvcG9kY2FzdC8?sa=X&amp;ved=0CM4BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Elon Musk Podcast</t>
@@ -1029,7 +1032,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSw5XYRWOoHvhT7GMmdCSFMtQgXOyxjlCqEmVt7FhCjbn888os</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9kYTMyOTZkNC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CM8BEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9kYTMyOTZkNC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CM8BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Nature Podcast</t>
@@ -1038,7 +1041,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRHaAFgl3zP5pI9MS3R2GmdYLxXlcNSFsU-J4ksV-NWNGaWNdg</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzAxODVjZWE1LTllM2ItNGI4Mi1hODg3LTI2ZjkxZjkyNzY1Zg?sa=X&amp;ved=0CNABEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzAxODVjZWE1LTllM2ItNGI4Mi1hODg3LTI2ZjkxZjkyNzY1Zg?sa=X&amp;ved=0CNABEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Иммигранткаст</t>
@@ -1047,7 +1050,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYZouLghJ42fMIUw28y1v433MS4ic2dBA0UwJw_5pv1BMWn2M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvMjY4Mzg3Ny9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNEBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvMjY4Mzg3Ny9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNEBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Naked Science</t>
@@ -1056,7 +1059,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcS_IyinV33axMKenCd3ckqk9wbnpoPw5edZDSe3U9YLXZkB0ONz</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9zeU92Q2xfbg?sa=X&amp;ved=0CNIBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9zeU92Q2xfbg?sa=X&amp;ved=0CNIBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Decoder with Nilay Patel</t>
@@ -1065,7 +1068,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcR0d0eDeXTGrcjJCmc_cuiHzNkCS3aYsQVm4yEoTol_fGu2qnwb</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmVjb2RlZGVjb2Rl?sa=X&amp;ved=0CNMBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmVjb2RlZGVjb2Rl?sa=X&amp;ved=0CNMBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Запуск завтра</t>
@@ -1074,46 +1077,46 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTDw47JBDyUHYCWApGqtw4zGJG7Zj1rDqzVoOrXr5qMcUnWmpY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly96YXB1c2t6YXZ0cmEubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CNQBEI7OAigHahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly96YXB1c2t6YXZ0cmEubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CNQBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSj_sj9v4ZJWSTPnheykXuT9p8uV91s4WDbB9FiRjBM1Tgix2M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CNkBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CNoBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CNkBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CNoBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRiGZTi8LguxQXLTzkM0OXc0grjGFXxgCbTITrgOQXZxAiamK4L</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CNsBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CNwBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CN0BEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CNsBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNwBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CN0BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTdfXN6UB_opbj_Mb_F6k65FyGOlJvJJ8PDz1vtWqBmQ4Ui9CSn</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CN4BEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CN4BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTHD1NmlvX1UP7rqjXvmZk27cji0AmmsASp7v7iripFJAklglI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CN8BEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CN8BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTblyadYoRzQ03KDmRxWIpT0KyOsz6JuyeoS64C8Lr9gfbAcsE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0COABEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0COABEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Nothing much happens: bedtime stories to help you sleep</t>
@@ -1122,7 +1125,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR87wEwWxAU7spytG73MqqJh41XLgZpo3IuyJ4lWUcRSvkwKjU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZmRjMmFkMTMtZDE5OS00ZTk3LWIyZGItYTU5MzAwY2I2Y2MyLzQ2MTJiMTM4LTE5OGMtNDRlZi05OGYzLWE5YWQwMGY2MTU5Mi9iMmRhOWQ4OS1mMjU1LTQ1OTMtOGRlNy1hOWFkMDBmNjE1OWMvcG9kY2FzdC5yc3M?sa=X&amp;ved=0COEBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZmRjMmFkMTMtZDE5OS00ZTk3LWIyZGItYTU5MzAwY2I2Y2MyLzQ2MTJiMTM4LTE5OGMtNDRlZi05OGYzLWE5YWQwMGY2MTU5Mi9iMmRhOWQ4OS1mMjU1LTQ1OTMtOGRlNy1hOWFkMDBmNjE1OWMvcG9kY2FzdC5yc3M?sa=X&amp;ved=0COEBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Get Sleepy: Sleep meditation and stories</t>
@@ -1131,13 +1134,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRn0BHIDUd73SkWWF8jFQxvgZtgTpbayCyR2FIXfMLK4bnocyPa</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9JWHhCQnZLeg?sa=X&amp;ved=0COIBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9JWHhCQnZLeg?sa=X&amp;ved=0COIBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQzqvSll0hNOHa_E2GwbItRTr2cV4WKdoQKU-uRG5FUHNJ-y2TU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0COMBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0COMBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>The Peter Attia Drive</t>
@@ -1146,7 +1149,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSV7yOBCmGuKgGsQMuumgQsUCbzoFXDW-ArdUsR6bu4Y0j3Das</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wZXRlcmF0dGlhZHJpdmUubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0COQBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wZXRlcmF0dGlhZHJpdmUubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0COQBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Sex With Emily</t>
@@ -1155,7 +1158,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlHtLb_RHSJE3w6AHwmCTi5EXVCEgE7C0ShoSsGVZh5jNshKAx</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxNTRhZWRiZDJiMDBjMDAxMzE1NThiMQ?sa=X&amp;ved=0COUBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxNTRhZWRiZDJiMDBjMDAxMzE1NThiMQ?sa=X&amp;ved=0COUBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Ten Percent Happier with Dan Harris</t>
@@ -1164,7 +1167,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS34rdkkaNIoasAjwIWabbYKW1GW1jEGZmM4M9JVhSlWfQ9jdg</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3Rlbi1wZXJjZW50LWhhcHBpZXI?sa=X&amp;ved=0COYBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3Rlbi1wZXJjZW50LWhhcHBpZXI?sa=X&amp;ved=0COYBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Sawbones: A Marital Tour of Misguided Medicine</t>
@@ -1173,7 +1176,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSz4oIwALqstbCfcPMucKRiv2OPTSzPzHZALhJA9WUQYqIJqbw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS95MUxGX3NuMg?sa=X&amp;ved=0COcBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS95MUxGX3NuMg?sa=X&amp;ved=0COcBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Feel Better, Live More with Dr Rangan Chatterjee</t>
@@ -1182,7 +1185,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRRuDRAJjV7HNcB5qioOG0fypM3FXf-Uufku9PQ258hvn-KxLS5</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2JlZWU4OGY2LTIzMDktNDAzNC1hZWQxLTk0OWRjNTdmOTc3OQ?sa=X&amp;ved=0COgBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2JlZWU4OGY2LTIzMDktNDAzNC1hZWQxLTk0OWRjNTdmOTc3OQ?sa=X&amp;ved=0COgBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Sleep With Me</t>
@@ -1191,7 +1194,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRkhO6xdxuK_UiulUdPF0lbMO3IWTbHxgyL0HolsPvWBUJC4PNL</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLnNsZWVwd2l0aG1lcG9kY2FzdC5jb20v?sa=X&amp;ved=0COkBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLnNsZWVwd2l0aG1lcG9kY2FzdC5jb20v?sa=X&amp;ved=0COkBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>XXX Academy</t>
@@ -1200,7 +1203,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSM0VsXI5NZekKUeZA3dvOMBa6puw-mYdxqfQo52vvVwgmfd9-B</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9mOTEyYWJjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0COoBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9mOTEyYWJjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0COoBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Психология с Александрой Яковлевой</t>
@@ -1209,7 +1212,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTM2BWw8l96X-7XFw-l8zAeYlyDblZLED7G8ZyElJI8wZXRIpU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9NaWZfRTB0MQ?sa=X&amp;ved=0COsBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9NaWZfRTB0MQ?sa=X&amp;ved=0COsBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>Не учи меня жить</t>
@@ -1218,7 +1221,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRv2IkiOK9-XYJjDrM1Cuclu-ohsz8xllGGuQiTudymY7JyKS16</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnNvdW5kY2xvdWQuY29tL3VzZXJzL3NvdW5kY2xvdWQ6dXNlcnM6NjkzMTczMDg0L3NvdW5kcy5yc3M?sa=X&amp;ved=0COwBEI7OAigIahcKEwjQi_-6_LeCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnNvdW5kY2xvdWQuY29tL3VzZXJzL3NvdW5kY2xvdWQ6dXNlcnM6NjkzMTczMDg0L3NvdW5kcy5yc3M?sa=X&amp;ved=0COwBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
   </si>
   <si>
     <t>episodeTitle</t>
@@ -2030,7 +2033,23 @@
 See omnystudio.com/listener for privacy information.</t>
   </si>
   <si>
+    <t>The Supreme Court Tests Its Own Limits on Guns</t>
+  </si>
+  <si>
     <t>The Trumps Take the Stand</t>
+  </si>
+  <si>
+    <t>27 min</t>
+  </si>
+  <si>
+    <t>A critical gun case was argued before the Supreme Court this week. But instead of opening further freedoms for gun owners — as the court, with its conservative supermajority, did in a blockbuster decision last year — justices seemed ready to rule that the government may disarm people under restraining orders for domestic violence.
+Adam Liptak, who covers the Supreme Court for The Times, explains why.
+Guest: Adam Liptak, who covers the Supreme Court for The New York Times and writes Sidebar, a column on legal developments.
+Background reading:
+ * The Supreme Court seemed likely to uphold a law disarming domestic abusers.
+ * But a decision on the case is not expected until June.
+ * What has the Supreme Court said on guns?
+For more information on today’s episode, visit nytimes.com/thedaily. Transcripts of each episode will be made available by the next workday.</t>
   </si>
   <si>
     <t>The Growing Republican Battle Over War Funding</t>
@@ -2104,7 +2123,7 @@
   <si>
     <t>The mass shooting in Maine last week, which killed 18 people, was the country’s deadliest of the year. It may have also been one of the most avoidable.
 More than five months earlier, the Army Reserve and a Maine sheriff’s department had been made aware of a reservist’s deteriorating mental health. Just six weeks before the killings, he had punched a friend and said he was going to carry out a shooting spree.
-Nicholas Bogel-Boroughs, a national reporter for The Times, explains why so many warnings failed to stop the shooting.
+Nicholas Bogel-Burroughs, a national reporter for The Times, explains why so many warnings failed to stop the shooting.
 Guest: Nicholas Bogel-Burroughs, a national correspondent for The New York Times.
 Background reading:
  * The Army Reserve and a Maine sheriff’s department knew of a reservist’s deteriorating mental health five months before America’s deadliest mass shooting this year.
@@ -2177,7 +2196,7 @@
 Background reading:
  * On Tuesday morning, few meteorologists were talking about Otis. By Wednesday morning, the “catastrophic storm” had left a trail of destruction in Mexico and drawn attention from around the globe. What happened?
  * The hurricane, one of the more powerful Category 5 storms to batter the region, created what one expert called a “nightmare scenario” for a popular tourist coastline.
-For more information on today’s episode, visit nytimes.com/thedaily. Transcripts of each episode will be made available by the next workday.</t>
+For more information on today’s episode, visit nytimes.com/thedaily. Transcripts of each episode will be made ava…</t>
   </si>
   <si>
     <t>The House Finally Has a Speaker</t>
@@ -2355,9 +2374,6 @@
     <t>The New Supreme Court Cases to Watch</t>
   </si>
   <si>
-    <t>27 min</t>
-  </si>
-  <si>
     <t>For years, Israel’s leaders believed that they could coexist with Hamas. After this weekend’s massacre, that belief is over.
 Steven Erlanger, a former Jerusalem bureau chief at The New York Times, explains what Israel’s plan to destroy Hamas will mean for Palestinians and Israelis.
 Guest: Steven Erlanger, the chief diplomatic correspondent in Europe for The New York Times.
@@ -3205,18 +3221,6 @@
 For more information on today’s episode, visit nytimes.com/thedaily. Transcripts of each episode will be made available by the next workday.</t>
   </si>
   <si>
-    <t>The Sunday Read: ‘The Moral Crisis of America’s Doctors’</t>
-  </si>
-  <si>
-    <t>When China suddenly dismantled its lockdowns and other Covid precautions last December, officials in Beijing and many investors expected the economy to spring back to life. It hasn’t worked out that way.
-Daisuke Wakabayashi, an Asia business correspondent for The Times, explains why China’s economic rebound hit a wall, and what it says about the country’s next chapter.
-Guest: Daisuke Wakabayashi, an Asia business correspondent for The New York Times.
-Background reading:
- * Policymakers and investors expected China’s economy to rev up again after Beijing abruptly dropped Covid precautions, but recent data shows alarming signs of a slowdown.
- * Nanchang’s skyscrapers represented urban transformation, but the city added apartments faster than its population grew. The result: vacant homes and offices.
-For more information on today’s episode, visit nytimes.com/thedaily. Transcripts of each episode will be made available by the next workday.</t>
-  </si>
-  <si>
     <t>The Case of the Man with No Name</t>
   </si>
   <si>
@@ -3859,7 +3863,19 @@
     <t>When a soldier who just returned from Afghanistan is gunned down on the side of the road in Kentucky; detectives quickly uncover a secret that could solve the case. Andrea Canning reports.</t>
   </si>
   <si>
+    <t>Did an ex-RCMP boss have secrets for sale?</t>
+  </si>
+  <si>
     <t>A carbon tax carve-out, or cold feet?</t>
+  </si>
+  <si>
+    <t>Inside the trial of former RCMP intelligence director Cameron Ortis, who’s facing allegations he tried to sell secrets to some of the very people police were targeting.
+What sensitive documents do police say Ortis exposed?
+For transcripts of Front Burner, please visit: https://www.cbc.ca/radio/frontburner/transcripts
+Transcripts of each episode will be made available by the next workday.
+How are an encrypted phone dealer and international money laundering network involved?
+What’s behind the defence’s bombshell claim that Ortis was acting on foreign intel?
+CBC Parliamentary reporter Catharine Tunney returns to explain.</t>
   </si>
   <si>
     <t>Whose Police?</t>
@@ -4699,12 +4715,6 @@
 For transcripts of this series, please visit: https://www.cbc.ca/rad…</t>
   </si>
   <si>
-    <t>Sex, music and cringe – HBO’s The Idol</t>
-  </si>
-  <si>
-    <t>As Canada’s top consumer watchdog, CBC Marketplace looks out for your health, your safety and your money. Hosts Asha Tomlinson and David Common bring you inside eight action-packed investigations, uncovering the truth about popular products and services — and pushing hard for accountability. CBC Marketplace has your back. More episodes are available at: https://link.chtbl.com/PQR2eJr0</t>
-  </si>
-  <si>
     <t>"Marshawn Lynch"</t>
   </si>
   <si>
@@ -4872,9 +4882,6 @@
   </si>
   <si>
     <t>"Andy Richter: LIVE in Chicago”</t>
-  </si>
-  <si>
-    <t>1 hr 8 min</t>
   </si>
   <si>
     <t>All’s well that end-swell with the illustrious Paul Giamatti. Moth protection, boxing tips, the Hummus Diet, and everything in-between (colonoscopies need not apply)… we all get naughty with Mr. Giamatti. Stay tuned, Listener: it’s another honeymoon with your sweetie SmartLess.
@@ -4994,6 +5001,9 @@
   </si>
   <si>
     <t>"Pedro Pascal"</t>
+  </si>
+  <si>
+    <t>1 hr 8 min</t>
   </si>
   <si>
     <t>“When’s the last time you dealt with a parabola?” is one of the many questions we explore with the lovely Jennifer Garner. So grab your scrunchy, sit back, and relax, because the rocks are singing Dolly Parton songs tonight… on an all new episode of SmartLess.
@@ -5578,6 +5588,1204 @@
 See Privacy Policy at https://art19.com/privacy and California Privacy Notice at https://art19.com/privacy#do-not-sell-my-info.</t>
   </si>
   <si>
+    <t>319: And the Call Was Coming from the Basement</t>
+  </si>
+  <si>
+    <t>812: The Bear at the End of the Tunnel</t>
+  </si>
+  <si>
+    <t>For the lead up to Halloween, scary stories that are all true. Zombie raccoons, haunted houses—real haunted houses!—and things that go "EEEEK!!!" in the night. Plus, a story by David Sedaris in which he walks among the dead.
+ * Ira and Albert Donnay read a true ghost story that appeared in a medical journal in 1921. A "Mrs. H" and her family moved into an old rambling house and strange apparitions started appearing, until her brother-in-law figured out the real cause of the ghostly presences. (6 minutes)
+ * Act One: Some of the scariest stories happen when fluffy, innocent creatures turn murderously evil. Producer Alex Blumberg tells one such story, about a raccoon gone bad. (13 minutes)
+ * Act Two: Writer Bill Eville and his brother are picked up on the side of the road late at night, and not taken to their destination. (10 minutes)
+ * Act Three: We set up a special 800-number for listeners to call with their true-life scary stories. More than 500 people called. The scariest stories we got all had one thing in common. (9 minutes)
+ * Act Four: One Halloween, David Sedaris decides to skip all the fake monsters and ghosts and zombies and visit the real thing: dead people, in a morgue. (14 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>477: Getting Away With It</t>
+  </si>
+  <si>
+    <t>People who have a good, long time to think about what they’re doing, look hard at what’s ahead of them, and decide to keep moving forward anyway.
+ * Prologue: Brothers Wes and Jeff spent a winter tagging black bears in Bryce Canyon National Park. One of the bears they needed to tag decided to hibernate at the end of an usually long tunnel. Wes and Jeff try to figure out their next move. (5 minutes)
+ * Act One: The story of Wes and Jeff venturing into the bear den continues. (11 minutes)
+ * Act 2: Miki Meek reports on the situation for pregnant women in Idaho under the state’s new, post-Roe abortion laws, which are some of the most restrictive in the country. OB-GYNs say the state is in a crisis. Miki also talks to Idaho legislators who voted for the laws, some of whom now think there should be some changes to the laws. (42 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>811: The One Place I Can’t Go</t>
+  </si>
+  <si>
+    <t>People breaking the rules fully, completely, and with no bad consequences. Some justify this by saying they’re doing it for others, or for a greater good. Some really don’t care. And, unlike the mealy weaklings you usually hear on this program: none of these wrongdoers seems regretful about what they’ve done.
+ * Ira takes a flight with travel writer Ken Hegan, to witness Ken deploying a travel gadget that keeps the seat in front of him from reclining. This means more knee space for Ken — but does he get away with it, really? (6 minutes)
+ * Act One: A boy rides shotgun in a memorable car ride with his mother, and in the process learns how his father earns money for their family. This story appears in Domingo Martinez’s memoir, The Boy Kings of Texas, which was a finalist for the National Book Award. (17 min)
+ * Act Two: We asked listeners to call in with their stories of getting away with it, and got nearly 1000 messages. Here are a handful. (6 minutes)
+ * Act Three: Molly Shannon tells the story of when she and a friend evaded a whole lot of adults to travel half-way across the country, despite the fact that they were twelve years old and wearing tutus. Her story was recorded during a live taping of WTF with Marc Maron. (4 minutes)
+ * Act Four: Producer Alex Blumberg tells the story of how Oklahoma, against huge odds, came to have the first and best publicly-funded pre-school system in the country, and how one businessman joined the fight because a cardboard box full of evidence convinced him that pre-school was the smartest business decision the state could make. (21 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>810: Say It to My Face</t>
+  </si>
+  <si>
+    <t>Spots we’re avoiding in our private maps of the world.
+ * Prologue: Guest host Bim Adewunmi talks to her cousin Kamyl about a funny thing Kamyl did when she was small, regarding a dog named Foxy. (4 minutes)
+ * Act One: Comedian Atsuko Okatsuka moved suddenly from Japan to the U.S. when she was eight years old, and has long joked that it was because her grandmother kidnapped her from her dad. But she'd never talked to anyone in her family about what had actually happened. (31 minutes)
+ * Act Two: Producer Emmanuel Dzotsi has a tale about something he avoids at all costs, even though it seems to follow him everywhere he goes. (8 minutes)
+ * Act Three: Writer Tamsyn Muir spent her childhood craving a world that she could not find on earth. So as an adult, she just created it. And it was perfect. Until she became the one person who couldn't go there. (12 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>809: The Call</t>
+  </si>
+  <si>
+    <t>Friends and ex-friends finally talk about the one thing between them they've been avoiding.
+ * Prologue: Host Ira Glass tells a story he’s never told anyone before, about something someone said to him. (4 minutes)
+ * Act One: Gabe Mollica had something important he needed to discuss with his friend — stewed about it for eight years. But rather than go to that friend, he talked about it with everyone other than that one person. (28 minutes)
+ * Act Two: Jasmine and Gabbie are best friends. BFFs! But there’s something major that they’ve never been able to talk about. Something so important that it makes them wonder, who does this person even think I am? (23 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>808: The Rest of the Story</t>
+  </si>
+  <si>
+    <t>One call to a very unusual hotline, and everything that followed.
+ * Prologue: Ira talks about a priest who set up what may have been the first hotline in the United States. It was just him, answering a phone, trying to help strangers who called. (2 minutes)
+ * Act One: The Never Use Alone hotline was set up so that drug users can call if they are say, using heroin by themselves. Someone will stay on the line with them in case they overdose. We hear the recording of one call, from a woman named Kimber. (13 minutes)
+ * Act Two: An EMT learns he was connected to the call, in more ways than he realized. (16 minutes)
+ * Act Three: Jessie, who took the call, explains how she discovered the hotline. She keeps in touch with Kimber. Until one day, Kimber disappears. (16 minutes)
+ * Act Four: We learn what happened to Kimber after she called the line. (10 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>807: Eight Fights</t>
+  </si>
+  <si>
+    <t>Legendary radio broadcaster Paul Harvey had a popular show called “The Rest of the Story.” Today on our show, we do just that. We hear from people who, whether they want to or not, find themselves face-to-face with the rest of their stories.
+ * Prologue: Legendary broadcaster Paul Harvey had one of the most popular radio shows of all time. For 35 years he served up big twists and jaw dropping reveals all with his one-of-a-kind delivery. (7 minutes)
+ * Act One: Psychiatry used to be all talk. Then came a patient named Ray Osheroff. Producer Chris Benderev tells us what became of the man who changed therapy. (26 minutes)
+ * Act Two: Contributor Samuel James thought he knew what happened to his mother. But he was wrong. Then he was wrong again. (9 minutes)
+ * Act Three: A new resident in Berlin is greeted like a minor celebrity wherever she goes. The perks are nice, but does she really want to know why? Producer Bim Adewunmi has the rest of the story. (14 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>806: I Can't Quit You, Baby</t>
+  </si>
+  <si>
+    <t>Nadia's family is split between Russia and Ukraine, which is pretty common. And when Russia invaded Ukraine, it didn’t just start fighting on the battlefield. It sparked family conflict, too. An intimate story of the war from writer Masha Gessen.
+ * Prologue: An extended family, and eight fights. (1 minutes)
+ * Fight #1: Luka’s parents – Nadia and Karen – try to figure out where to take him once war breaks out. (6 minutes)
+ * Fight #2: Nadia and Karen have been arguing over Russian-ness since they needed to pick a school for Luka. (10 minutes)
+ * Fights #3 and #4: Nadia remembers the times that Luka’s father would suggest going to Crimea for vacation, as if it wasn’t Ukrainian land occupied by Russia. And she remembers a present that Karen once gave Luka––the sort which had to be smuggled into the country. (6 minutes)
+ * Fight #5: Nadia tells the story of her father, Alex, who lives near Bucha, and how differently he and she view the Russian atrocities there. (10 minutes)
+ * Fight #6: Nadia tells the story of her mother, who lives in Russia, and how she won’t do the one thing Nadia keeps asking her to do. (2 minutes)
+ * Fight #7: Karen sends Nadia a photo which drives them to a final showdown. (12 minutes)
+ * Fight #8: Nadia’s step-father works for the Russian government. How to manage that? (4 minutes)
+ * Epilogue: Nadia and Karen’s son, Luka, who most of these fights are about, gets the last word. (3 minutes)
+Transcripts are available at thisamericanlife.org</t>
+  </si>
+  <si>
+    <t>La chute de l'Empire romain - Partie 1</t>
+  </si>
+  <si>
+    <t>La chute de l'Empire romain - Partie 3</t>
+  </si>
+  <si>
+    <t>Faites connaissance avec les personnages qui ont façonné l'Empire romain, avant qu'ils ne prennent une solide débarque! Que ce soit l'empereur Commode le décapiteur d'autruches, Néron le tyran sanguinaire ou Caligula le despote débauché, Charles vous prouvera une fois de plus qu'on ne s'ennuie jamais en Rome antique.
+Produit en collaboration avec Radio-Canada OHdio.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Bonnie &amp; Clyde</t>
+  </si>
+  <si>
+    <t>Ça y est, l'Empire s'apprête à toucher le fond! Mais avant que tout s'écroule, Charles vous fera goûter au pire de l'Empire. Au menu, une pincée de déformations crâniennes, un soupçon de guerres gothiques et une bonne tasse d'invasions barbares. Bref, une délicieuse recette à saveur d'apocalypse.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Le top 10 des pires pharaons</t>
+  </si>
+  <si>
+    <t>N’y a-t-il rien de plus beau et pur que les amours adolescents? À moins que ces adolescents ne partent en cavale pour braquer des magasins et des banques, semant la terreur sur leur passage jusqu’à ce qu’ils soient brutalement fusillés à même la voiture qui leur servait de quartier général. À part ça, préparez-vous à une aventure tout en romance! Une production URBANIA.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Guy Fawkes : la conspiration des poudres</t>
+  </si>
+  <si>
+    <t>Est-ce possible pour Charles de résumer 3000 ans d’Égypte antique en incorporant 170 pharaons et 33 dynasties en un seul épisode? Mais bien sûr que non. Il est cependant tout à fait capable de trouver les 10 plus stupides du groupe pour en faire un palmarès rempli de meurtres, de trahisons et d’esclaves mourant sur des chantiers de construction. Une production URBANIA.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>L'incendie de Chicago</t>
+  </si>
+  <si>
+    <t>Quand on pense à Guy Fawkes, la plupart des gens imaginent une sorte d’antihéros excessivement cool avec un masque de polichinelle qui combat le fascisme et la monarchie en lançant des couteaux. Et si pendant tout ce temps, ce n’était en fait qu’un gros plouc avec un rôle mineur dans une attaque terroriste somme toute épouvantablement mal planifiée? Quel retournement! Une production URBANIA.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Le Canadien Pacifique</t>
+  </si>
+  <si>
+    <t>Dans les dernières années de « l’époque des cowboys », Chicago est la ville qui connaît la croissance la plus rapide au MONDE. Rien ne semble pouvoir l’arrêter. À part peut-être… la puissance destructrice d’un incendie apocalyptique qui menace de tout raser et d’à ce point ébranler les citoyennes et citoyens qu’ils se mettront à avoir des idées aussi absurdes que mélanger du popcorn cheddar à du popcorn au caramel et en faire la signature de la ville. Une production URBANIA.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les croisades</t>
+  </si>
+  <si>
+    <t>Fierté canadienne et emblème de la puissance économique du pays. Est-ce que quelqu’un sera vraiment surpris d’apprendre que ce titanesque projet de chemin de fer du 19e siècle a été élaboré dans la collusion la plus totale tout en exploitant un maximum d’immigrants jusqu’à leur mort? Un épisode qui nous rappelle qu’au Canada, on est capable d’être tout aussi pire qu’ailleurs, et ce, d’un océan à l’autre! Une production URBANIA.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les Olympiques d'Hitler</t>
+  </si>
+  <si>
+    <t>Charles réussira-t-il l’impossible? Saura-t-il résumer 200 ans de conflits médiévaux en un seul épisode? Une chose est sûre, vous aurez droit à un palmarès bourré de chevaliers éclopés et de pèlerins surexcités n’ayant qu’un objectif en tête : reprendre la Terre sainte. Et tous les moyens seront bons pour y arriver, surtout les plus stupides.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>L'Australie</t>
+  </si>
+  <si>
+    <t>Pour les athlètes, participer aux Olympiques, c’est le rêve d’une vie. Mais quand ces JO ont lieu en pleine Allemagne nazie et que l’hôte se nomme Adolf Hitler, on parle plutôt d’un cauchemar où seule l’intolérance finit malheureusement par se hisser sur la première marche du podium.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les asiles victoriens</t>
+  </si>
+  <si>
+    <t>Ah, l’Australie! Pays des kangourous, des surfeurs et des koalas. Le paradis? Pas si vite. Avec ses prisonniers cannibales, ses colons… colons et ses horribles bestioles venimeuses qui pullulent, l’île vous réserve beaucoup de (mauvaises) surprises.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les 300 Spartiates</t>
+  </si>
+  <si>
+    <t>En enfer, pas besoin de carte d’assurance maladie. Dans les hôpitaux psychiatriques de l’époque victorienne non plus. D’ailleurs, Charles vous y attend pour une effroyable visite guidée, à un moment de l’histoire où la folie se traitait par essai-horreur. De la lobotomie aux électrochocs en passant par les « tours à fous » : bienvenue à l’asile.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Gengis Khan</t>
+  </si>
+  <si>
+    <t>Depuis que les 300 Spartiates sont des vedettes d’Hollywood, on croit tout connaître de ceux qui ont bravement tenu tête à l’armée infinie de Xerxès, roi des Perses. On a tort. Charles revisite le fil des événements d’une histoire cousue de masculinité toxique, de petite cruauté ordinaire et de coups de fouet en continu. Du CrossFit pour les oreilles.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Henri VIII</t>
+  </si>
+  <si>
+    <t>Préparer sa monture et affûter sa collection de sabres avec soin, c’est bien. Mais avoir un chaudron assez grand pour faire bouillir ses ennemis, c’est mieux. Vous saurez pourquoi dans cet épisode mettant en vedette Gengis Khan où plusieurs protagonistes s’apprêtent à manger une volée, tout comme la prononciation de leurs noms.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les Allumetières</t>
+  </si>
+  <si>
+    <t>Charles brosse le portrait d’un roi qui avait manifestement un sérieux problème d’engagement, autant avec Rome qu’avec les femmes à qui il a fait perdre la tête. Littéralement. Ici, le démon du midi semble tout droit venu de l’enfer.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>L'inquisition espagnole</t>
+  </si>
+  <si>
+    <t>Après avoir épargné la Belle Province dans les deux premières saisons, Charles s’enflamme enfin pour l’horreur made in Québec. Un hommage aux ouvrières de l’Outaouais qui, il n’y a pas si longtemps, ont souffert le martyre pour que l’on puisse profiter de nos bougies parfumées à la vanille.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>La famine en Ukraine</t>
+  </si>
+  <si>
+    <t>Les foodies du xve siècle le confirment : la fourchette de l’hérétique est un ustensile qui ne va bien à aucune table. Vous saurez pourquoi dans cet épisode alors que Charles se penche sur un des plus célèbres pires moments de l’histoire, en retournant à l’expéditeur un bon nombre d’idées reçues.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les pires princes et princesses</t>
+  </si>
+  <si>
+    <t>Le communisme à la sauce URSS devait créer une société nouvelle, meilleure et égalitaire, mais quand on regarde ce qui s’est passé en Ukraine au début des années 30, on ne peut s’empêcher de penser que le gestionnaire du projet a mal fait son travail. Un épisode à écouter avec des collations à portée de main.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Le massacre de la St-Barthélémy</t>
+  </si>
+  <si>
+    <t>Ne les cherchez pas dans les contes de fées, les membres de la monarchie les plus odieux ont trouvé refuge à la table de Charles. Non, les princes ne sont pas tous charmants. Oui, les princesses préfèrent parfois dormir avec un poignard plutôt que sur un petit pois.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Léopold II au Congo</t>
+  </si>
+  <si>
+    <t>Intrigues politico-religieuses, propagande et funeste massacre. Voilà le cocktail explosif qui nous attend dans cet épisode auquel Charles a ajouté quelques glaçons empoisonnés.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>L'âge d'or de la piraterie</t>
+  </si>
+  <si>
+    <t>Léopold II a été roi des Belges. Il a aussi été à la tête d’un effroyable carnage passé sous le radar de l’histoire, mais pas sous celui de Charles. Récit d’une abomination dégoulinante de caoutchouc et de mains coupées.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Le Japon Féodal</t>
+  </si>
+  <si>
+    <t>Le doux son des vagues, l’air salin vivifiant, les hurlements de terreur, les cadavres qui flottent à perte de vue, les supplices de la cale! Retenez votre souffle et plongez avec Charles dans les eaux troubles et troublantes de la piraterie.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>La Chasse aux Sorcières</t>
+  </si>
+  <si>
+    <t>Dans cet épisode où les viscères sont à l’honneur, Charles décrypte l’époque Sengoku. Et de grâce, enlevez vos chaussures avant d’entrer dans l’antre des ninjas et des samouraïs : personne n’aime laisser du sang sur le carrelage.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les Pires Papes</t>
+  </si>
+  <si>
+    <t>Dans ce nouveau chapitre dérangeant, Charles s’affaire à reconstituer le casse-tête d’une époque où peur et superstitions menèrent femmes, hommes et enfants tout droit dans la fournaise du diable. Un aperçu de l’antichambre de l’enfer.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Vlad L'Empaleur</t>
+  </si>
+  <si>
+    <t>Dans ce répugnant épisode, Charles fait le décompte des dix plus exécrables successeurs de Saint-Pierre. Un topo riche en gorges coupées et en maladies vénériennes.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Les Vikings</t>
+  </si>
+  <si>
+    <t>17 min</t>
+  </si>
+  <si>
+    <t>Charles se penche sur la terrible légende de Vlad l’empaleur, le prince noir de Valachie qui aurait servi d’inspiration au personnage de Dracula. Portrait de l’homme dans l’ombre du vampire.
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>Raspoutine</t>
+  </si>
+  <si>
+    <t>Fuyez pauvres fous, Charles s’attaque à l’ère des vikings! Qui étaient ces terrifiants barbares du nord? Monstres ou héros? Pillards ou aventuriers? Compte rendu d’une époque rouge vif de sang.   
+ Hébergé par Acast. Visitez acast.com/privacy pour plus d'informations.</t>
+  </si>
+  <si>
+    <t>We dare researchers to leave the ivory tower</t>
+  </si>
+  <si>
+    <t>FTC Chair Lina Khan on Antitrust in the age of Amazon</t>
+  </si>
+  <si>
+    <t>The world of economics has these two different sides. One one side, there are the economists in their cozy armchairs and dusty libraries, high up in their ivory towers. On the other, there's the messy world we're all living in, where those economics are actually playing out.
+Sometimes, researchers will write about something that they themselves have never actually experienced. Sure, they've thought about it, theorized, come up with smart analyses...but that's not the same as getting out of that armchair and into the real world.
+So, in this episode, we play our own version of Never Have I Ever. We dare two researchers to go places and do things they have never done before, in hopes of learning something new about the economic world around us.
+(Okay, fine, it's maybe more like Truth or Dare...but go with us here.)
+Today's episode was hosted by Alexi Horowitz-Ghazi and produced by Emma Peaslee with help from Willa Rubin. It was edited by Sally Helm, fact checked by Sierra Juarez and engineered by Maggie Luthar. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Antitrust in America (classic)</t>
+  </si>
+  <si>
+    <t>When Lina Khan was in law school back in 2017, she wrote a law review article called 'Amazon's Antitrust Paradox,' that went kinda viral in policy circles. In it, she argued that antitrust enforcement in the U.S. was behind the times. For decades, regulators had focused narrowly on consumer welfare, and they'd bring companies to court only when they thought consumers were being harmed by things like rising prices. But in the age of digital platforms like Amazon and Facebook, Khan argued in the article, the time had come for a more proactive approach to antitrust.
+Just four years later, President Biden appointed Lina Khan to be the Chair of the Federal Trade Commission, one of the main government agencies responsible for enforcing antitrust in America, putting her in the rare position of putting some of her ideas into practice.
+Now, two years into the job, Khan has taken some big swings at big tech companies like Meta and Microsoft. But the FTC has also faced a couple of big losses in the courts. On today's show, a conversation with FTC Chair Lina Khan on what it's like to try to turn audacious theory into bureaucratic practice, the FTC's new lawsuit against Amazon, and what it all means for business as usual.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>All you can eat economics</t>
+  </si>
+  <si>
+    <t>Earlier this fall, the Federal Trade Commission filed a high-stakes lawsuit against Amazon.
+In that suit, the FTC claims Amazon is a monopoly, and it accuses the company of using anti-competitive tactics to hold onto its market power. It's a big case, with implications for consumers and businesses and digital marketplaces, and for antitrust law itself. That is the highly important but somewhat obscure body of law that deals with competition and big business.
+And so, this week on Planet Money, we are doing a deep dive on the history of antitrust. It begins with today's episode, a Planet Money double feature. Two classic episodes that tell the story of how the U.S. government's approach to big business and competition has changed over time.
+First, the story of a moment more than 100 years ago, when the government stepped into the free market in a big way to make competition work. It's the story of John D. Rockefeller and Standard Oil, and a muckraking journalist named Ida Tarbell.
+Then, we fast forward to a turning point that took antitrust in the other direction. This is the story of a lawyer named Robert Bork, who transformed the way courts would interpret antitrust law.
+These episodes were produced by Sally Helm with help from Alexi Horowitz Ghazi. They were edited by Bryant Urdstadt. Alex Goldmark is Planet Money's executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Cutting school... by 20%</t>
+  </si>
+  <si>
+    <t>You might expect to find economic concepts in the pages of an economics textbook. But you know where you can really see a lot of economic concepts in action? Buffets.
+Here at Planet Money we believe there's a lot of economics going on at the all-you-eat buffet, tucked in between the mountains of brisket and troughs of mashed potatoes. From classic concepts like adverse selection, sunk costs, diminishing marginal returns, to more exotic economic mysteries, like the flat rate pricing bias.
+Today on the show, we're headed to the place where the modern buffet may have been born: Las Vegas. Our mission? To feast ourselves on all the economics we can handle at the all-you-can-eat buffet. And along the way, an economist and fellow buffet-lover will teach us his hyper-rational strategy for optimizing his buffet experience.
+Today's show was produced by James Sneed and Nick Fountain with help from Emma Peaslee. It was edited by Jess Jiang, engineered by James Willetts, and fact-checked by Sierra Juarez. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>How unions are stopped before they start</t>
+  </si>
+  <si>
+    <t>Right now, a lot of school districts across the country are making a pretty giant change to the way public education usually works. Facing teacher shortages and struggling to fill vacant spots, they are finding a new recruitment tool: the four-day school week.
+Those districts are saying to teachers, "You can have three-day weekends all the time, and we won't cut your pay." As of this fall, around 900 school districts – that's about 7% of all districts in the U.S. – now have school weeks that are just four days long.
+And this isn't the first time a bunch of schools have scaled back to four days, so there is a lot of data to lean on to figure out how well it works. In this episode, teachers love the four-day school week, and it turns out even parents love it, too. But is it good for students?
+This episode was produced by Sam Yellowhorse Kesler with help from Willa Rubin. It was edited by Molly Messick and engineered by Maggie Luthar. Fact-checking by Sierra Juarez. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Indicator exploder: jobs and inflation</t>
+  </si>
+  <si>
+    <t>Union membership in the U.S. has been declining for decades. But, in 2022, support for unions among Americans was the highest it's been in decades. This dissonance is due, in part, to the difficulties of one important phase in the life cycle of a union: setting up a union in the first place. One place where that has been particularly clear is at the Volkswagen plant in Chattanooga, Tennessee.
+Back in 2008, Volkswagen announced that they would be setting up production in the United States after a 20-year absence. They planned to build a new auto manufacturing plant in Chattanooga.
+Volkswagen has plants all over the world, all of which have some kind of worker representation, and the company said that it wanted that for Chattanooga too. So, the United Auto Workers, the union that traditionally represents auto workers, thought they would be able to successfully unionize this plant.
+They were wrong.
+In this episode, we tell the story of the UAW's 10-year fight to unionize the Chattanooga plant. And, what other unions can learn from how badly that fight went for labor.
+This episode was hosted by Amanda Aronczyk and Nick Fountain. It was produced by Willa Rubin. It was engineered by Josephine Nyounai, fact-checked by Sierra Juarez, and edited by Keith Romer. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Maria Bamford gets personal (about) finance</t>
+  </si>
+  <si>
+    <t>When someone says "the economy is doing well"—what does that even mean? Like, for workers, for employers, for the country as a whole? According to what calculation? How do you put a number on it?
+The world of economics is filled with all sorts of "measuring sticks." GDP. Inflation. Unemployment. Consumer sentiment. Over time, all kinds of government agencies, universities and private companies have come up with different ways to measure facets of the economy. These measures factor into all kinds of huge decisions—things like government policy, business strategies, maybe even your personal career choices or investments.
+On today's show, we're going to lift the curtain on two of these yardsticks. We are going to meet the people tasked with sticking a number on two huge measures of our economic well being: the official U.S. government inflation report and the monthly unemployment and jobs numbers. Come along and see how the measures get made.
+This episode was hosted by Darian Woods, Stacey Vanek Smith, and Wailin Wong. It was produced by Julia Ritchey and Jess Kung with help from James Sneed. Engineering by Gilly Moon and James Willetts. It was fact-checked by Michael He and Corey Bridges, and edited by Kate Concannon and Viet Le. Alex Goldmark is Planet Money's executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Why the price of Coke didn't change for 70 years (classic)</t>
+  </si>
+  <si>
+    <t>Note: There is swearing in this episode.
+In 2017, The University of Minnesota asked comedian Maria Bamford to give their commencement speech. But the University may not have known what it was in for. In her speech, Bamford told the crowd of graduates how much the university offered to pay her (nothing), her counteroffer ($20,000), and the amount they settled on ($10,000), which (after taxes and fees, etc.) she gave away to students in the audience to pay down their student loans.
+Maria Bamford is a big believer in full disclosure of her finances, a philosophy she's adopted after decades in a Debtors Anonymous support group. In meetings, she learned important financial tips and tricks to go from thousands of dollars in debt to her current net worth of $3.5 million (a number which, true to her philosophy, she will share with anyone).
+She spoke with us about her financial issues, how she recovered, and why she believes in total financial transparency, even when it makes her look kinda bad.
+Disclaimer: Planet Money is not qualified or certified to give financial advice. And Maria is not a spokesperson for Debtors Anonymous in any way.
+This show was hosted by Kenny Malone and Mary Childs. It was produced by Emma Peaslee, edited by Jess Jiang, fact-checked by Sierra Juarez, and engineered by Neisha Heinis. Alex Goldmark is Planet Money's executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>A man, a plan, wind power, Uruguay</t>
+  </si>
+  <si>
+    <t>Prices go up. Occasionally, prices go down. But for 70 years, the price of a bottle of Coca-Cola didn't change. From 1886 until the late 1950s, a bottle of coke cost just a nickel.
+On today's show, we find out why. The answer includes a half a million vending machines, a 7.5 cent coin, and a company president who just wanted to get a couple of lawyers out of his office.
+This episode originally ran in 2012.
+This episode was hosted by David Kestenbaum. Alex Goldmark is Planet Money's executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>The flight attendants of CHAOS</t>
+  </si>
+  <si>
+    <t>In 2007, Uruguay had a massive problem with no obvious fix. The economy of this country of 3.5 million people was growing, but there wasn't enough energy to power all that growth.
+Ramón Méndez Galain was, at the time, a particle physicist, but he wanted to apply his scientific mind to this issue. He started researching different energy sources and eventually wrote up a plan for how Uruguay's power grid could transition to renewable energy. It would be better for the climate, and, he thought, in the long run it would be the most economical choice Uruguay could make.
+Méndez Galain shared his plan online and in a series of informal lectures. Then, one day he received a phone call from the office of the president of Uruguay, inviting him to put his plan into action.
+Countries all over the world have announced lofty goals to reduce the emissions that cause climate change. But Uruguay actually did it. In a typical year, 98% of Uruguay's grid is powered by green energy. How did it get there? It involved a scientist, an innovative approach to infrastructure funding, and a whole lot of wind.
+Today's show was hosted by Erika Beras and Amanda Aroncyzk. It was produced by Willa Rubin with help from Emma Peaslee. It was engineered by Maggie Luthar, fact-checked by Sierra Juarez and edited by Keith Romer. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>A trucker hat mystery, the curse of September and other listener questions</t>
+  </si>
+  <si>
+    <t>When contract negotiations between Alaska Airlines and their flight attendants' union broke down in 1993, the union had a choice to make.
+The union — The Association of Flight Attendants-CWA — knew that if they chose to strike, Alaska Airlines could use a plan. While Alaska Airlines technically couldn't fire someone on strike, they could permanently replace the striking flight attendants with new workers. Essentially, if the union went on strike, they could risk thousands of people's jobs. The flight attendants knew they needed a counter-strategy.
+They went with a strategy they called CHAOS: "Create Havoc Around Our System."
+The strategy had two phases. Phase one: The union kept Alaska guessing about when, where, and how a strike might happen. They kept everyone, even their own members, in the dark. And in turn, Alaska Airlines had to be prepared for a strike at any place and any time. Phase two was to go on strike in a targeted and strategic way.
+The havoc that the flight attendants created set off a sort-of labor-dispute arms race and would go on to inspire strikes today. And, it showed how powerful it can be to introduce a little chaos into negotiations.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>The natural disaster economist</t>
+  </si>
+  <si>
+    <t>Ba-dee-yah! Say do you remember? Ba-dee-yah! Questions in September!
+That's right - it's time for Listener Questions!
+Every so often, we like to hear from listeners about what's on their minds, and we try to get to the bottom of their economic mysteries. On today's show, we have questions like:
+Why is September historically the worst month for the stock market?
+How did the Bass Pro Shops hat get so popular in Ecuador?
+Are casinos banks?
+What is the Federal Reserve's new plan to make bank transfers faster?
+Today's show was hosted by Sarah Gonzalez and produced by James Sneed. The audio engineer for this episode was Josephine Nyounai. It was fact checked by Sierra Juarez and edited by Dave Blanchard. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>A black market, a currency crisis, and a tango competition in Argentina</t>
+  </si>
+  <si>
+    <t>There seems to be headlines about floods, wildfires, or hurricanes every week. Scientists say this might be the new normal — that climate change is making natural disasters more and more common.
+Tatyana Deryugina is a leading expert on the economics of natural disasters — how we respond to them, how they affect the economy, and how they change our lives. And back when Tatyana first started researching natural disasters she realized that there's a lot we don't know about their long-term economic consequences. Especially about how individuals and communities recover.
+Trying to understand those questions of how we respond to natural disasters is a big part of Tatyana's research. And her research has some surprising implications for how we should be responding to natural disasters.
+This episode was hosted and reported by Jeff Guo. It was produced by Emma Peaslee and edited by Jess Jiang. It was fact checked by Sierra Juarez and engineered by Josephine Nyounai. Alex Goldmark is our e…</t>
+  </si>
+  <si>
+    <t>"Based on a true story"</t>
+  </si>
+  <si>
+    <t>The Nobel-prize winning economist Simon Kuznets once analyzed the world's economies this way — he said there are four kinds of countries: developed, underdeveloped, Japan... and Argentina.
+If you want to understand what happens when inflation really goes off the rails, go to Argentina. Annual inflation there, over the past year, was 124 percent. Argentina's currency, the peso, is collapsing, its poverty rate is above 40 percent, and the country may be on the verge of electing a far right Libertarian president who promises to replace the peso with the dollar. Even in a country that is already deeply familiar with economic chaos, this is dramatic.
+In this episode, we travel to Argentina to try to understand: what is it like to live in an economy that's on the edge? With the help of our tango dancer guide, we meet all kinds of people who are living through record inflation and political upheaval. Because even as Argentina's economy tanks, its annual Mundial de Tango – the biggest ta…</t>
+  </si>
+  <si>
+    <t>How to launder $600 million on the internet</t>
+  </si>
+  <si>
+    <t>When a group of amateur investors rallied around the stock for GameStop back in 2021, the story blew up the internet. News outlets around the world, including us here at Planet Money, rushed in to explain why the stock for this retail video game company was suddenly skyrocketing, at times by as much as 1700% in value, and what that meant for the rest of us.
+When movie producer Aaron Ryder saw the GameStop story — an army of scrappy underdogs, banding together to strike back against a financial system they felt was rigged against them — he knew it had the makings for a great movie. The only problem: so did a bunch of other movie producers and Hollywood studios. So Aaron found himself in the middle of a fast and furious race to make the first Game Stop movie.
+On today's show, one producer's quest to claim the hottest ticket in Tinseltown and the whole hidden machinery dedicated to turning a news story into box office gold. You'll never read the word 'based on a true story' the same…</t>
+  </si>
+  <si>
+    <t>China's weakening economy in two Indicators</t>
+  </si>
+  <si>
+    <t>Erin Plante is a private detective who specializes in chasing down stolen cryptocurrency. In March of 2022, she got the biggest assignment of her career: Hackers had broken into an online game called Axie Infinity and made off with over $600 million worth of digital money.
+It was the largest crypto heist in history. And now it was Erin's job to find that money and get it back. Erin's investigation would lead her to face off against some of the world's most formidable digital money launderers, whose actions would soon raise alarms at the highest levels of government — even threaten the nuclear security of the entire planet.
+This episode was hosted by Jeff Guo and Keith Romer, produced by James Sneed, edited by Jess Jiang, fact-checked by Willa Rubin &amp; Sam Yellowhorse Kesler, and engineered by Maggie Luthar. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Is economists' favorite tool to crush inflation broken?</t>
+  </si>
+  <si>
+    <t>In China, data on the economy is sometimes difficult to come by. The Chinese government has put a pause on releasing some of its official economic data. But many of the stories emerging from the country paint a clear picture: the second largest economy in the world is struggling.
+Today, our friends at The Indicator share some of their recent reporting on China. First up, it's a special edition of the Beigie Awards focused entirely on China. What can the approach of the Federal Reserve's Beige Book - i.e. looking at anecdotes that tell us something about where the economy is headed - show us about China's economy?
+Then, we take a deep dive into one of the most alarming indicators in China: the skyrocketing urban youth unemployment rate.
+This episode was hosted by Darian Woods, Wailin Wong, and Robert Smith. The original Indicator episodes were produced by Corey Bridges with engineering by Robert Rodriguez. They were fact-checked by Cooper Katz McKim and Sierra Juarez. They were edite…</t>
+  </si>
+  <si>
+    <t>The prince of prints and his prints of Prince</t>
+  </si>
+  <si>
+    <t>When economists and policymakers talk about getting inflation under control, there's an assumption they often make: bringing inflation down will probably result in some degree of layoffs and job loss. But that is not the way things have played out since inflation spiked last year. Instead, so far, inflation has come down, and unemployment has stayed low.
+So where does the idea of this tradeoff – between inflation and unemployment – come from?
+That story starts in the 1940s, with a soft-spoken electrical engineer-turned-crocodile hunter-turned-economist named Bill Phillips. Phillips was consumed by the notion that there are underlying forces at work in the economy. He thought that if macroeconomists could only understand how those forces work, they could keep the economy stable.
+On today's show, how the Phillips Curve was born, why it went mainstream, and why universal truths remain elusive in macroeconomics.
+This episode was hosted by Willa Rubin and Nick Fountain, and produced…</t>
+  </si>
+  <si>
+    <t>How to fight a patent pirate</t>
+  </si>
+  <si>
+    <t>In 1981, photographer Lynn Goldsmith took a portrait of the musician Prince. It's a pretty standard headshot — it's in black-and-white, and Prince is staring down the camera lens.
+This was early in his career, when he was still building the pop icon reputation he would have today. And in 1984, shortly after Prince had released Purple Rain, he was chosen to grace the cover of Vanity Fair. The magazine commissioned pop culture icon Andy Warhol to make a portrait of Prince for the cover. He used Lynn Goldsmith's photo, created a silkscreen from it, added some artistic touches, and instead of black-and-white, colored the face purple and set it against a red background. Warhol was paid, Goldsmith was paid, and both were given credit.
+However, years later, after both Prince and Warhol had passed away, Goldsmith saw her portrait back out in the world again. But this time, the face was orange, and Goldsmith wasn't given money or credit. And what began as a typical question of payment for w…</t>
+  </si>
+  <si>
+    <t>Summer School 8: Graduation and the Guppy Tank</t>
+  </si>
+  <si>
+    <t>Back in the 1990s, Dr. Raghunath Mashelkar was in his office in New Delhi when he came across a puzzling story in the newspaper. Some university scientists in the U.S. had apparently filed a patent for using turmeric to help heal wounds. Mashelkar was shocked, because he knew that using turmeric that way was a well known remedy in traditional Indian medicine. And he knew that patents are for brand new inventions. So, he decided to do something about it – to go to battle against the turmeric patent.
+But as he would soon discover, turmeric wasn't the only piece of traditional or indigenous knowledge that had been claimed in Western patent offices. The practice even had its own menacing nickname - biopiracy. And what started out as a plan to rescue one Indian remedy from the clutches of the U.S. patent office, eventually turned into a much bigger mission – to build a new kind of digital fortress, strong enough to keep even the most rapacious of bio-pirates at bay.
+This episode was p…</t>
+  </si>
+  <si>
+    <t>The secret entrance that sidesteps Hollywood picket lines</t>
+  </si>
+  <si>
+    <t>Congratulations to the Planet Money Summer School Class of 2023!
+Today, you become masters of business administration... spelled with lower-case letters for legal purposes. Your diploma is waiting for you just across the stage.
+But first, there's one final skill to impart: the pitch. We wouldn't be doing our job as a half-baked parody of a business school if we didn't leave you with the confidence and opportunity to stand in front of an investor and ask for money. We understand what you ambitious business school graduates really want is the chance to launch something and get rich.
+So we're combining graduation with a little test of ideas, a showdown of startups, a competition of companies. We are going to put our own spin on a pitch competition like you see on Shark Tank. We hear from five listeners with real ideas for startups.
+Can they make a successful pitch? What will investors be looking for in their presentation? Can they come prepared with persuasive total addressable market…</t>
+  </si>
+  <si>
+    <t>Summer School 7: Negotiating and the empathetic nibble</t>
+  </si>
+  <si>
+    <t>Across Hollywood right now, writers and actors are picketing in front of studio lots. They're walking back and forth, holding up signs demanding concessions on things like pay, how many writers work on projects, and the use of AI in TV and movies.
+But, on some of these lots, there are these strange alternate entrances where there are no picketers. Here drivers can come and go as they please without ever encountering any sign of a strike.
+Behold the neutral gate. An entrance intended for people who work at these lots but don't work for production companies that are involved with these particular strikes. (Usually that means things like game shows or TV commercials.)
+But, as one group of picketers recently experienced, it's hard to know if these entrances are, in fact, only being used by neutral parties or if the entrances might be being abused.
+On today's episode, the question of whether one Hollywood production was taking advantage of the neutral gate, and what the fight over a dri…</t>
+  </si>
+  <si>
+    <t>Vacation, and why the U.S. takes so little of it</t>
+  </si>
+  <si>
+    <t>How do you get the best deal? How do you know you're getting the best deal? Whether you're talking down the price of a car or talking up your salary, you don't have to be a jerk to get what you want. Negotiations can be win-win – if you know what to ask for and how to grow the pie.
+We have three stories in today's episode about how to negotiate tactically. First, a hostage negotiator tries to buy a car. Will he get far? Then, one man's encounter at the airline ticket booth may inform how you respond to your next job offer. Finally, how to avoid a food fight and make a deal that benefits everybody.
+We'll learn about something called BATNA, or best alternative to a negotiated agreement, which can tell you when to stand firm and when to walk away. We'll find out how to shift our thinking about what success can look like in a negotiation, and shift your counterpart's thinking too.
+Come learn the techniques of expert negotiators in the penultimate episode of Planet Money Summer School,…</t>
+  </si>
+  <si>
+    <t>Summer School 6: Operations and 25,000 roses</t>
+  </si>
+  <si>
+    <t>Do you work more for more money? Or work less for more time? For some, this is the ultimate economic choice.
+Every single worker in the European Union is guaranteed four weeks of paid vacation. No matter how long they've been at a company. No matter how low paying the job is. Vacation is a right.
+In fact, all but one of the richest countries in the world guarantees paid vacation, except: the U.S.
+According to a 2019 study, people in Japan get 10 paid vacation days and 15 paid holidays; in Australia it's 20 paid vacation days and 8 paid holidays; and in Spain it's 25 paid vacation days and 14 paid holidays.
+And it's not just a rich country thing: Mexico, Afghanistan, Thailand, Tanzania - they all guarantee paid vacation from work, at least in the formal job sector.
+In the U.S: Zero paid vacation days and zero paid holidays. So, why is the United States the outlier? We go to several labor economists and historians, to find out what makes Americans different from Europeans. It's a wi…</t>
+  </si>
+  <si>
+    <t>The new Biden plan that could still erase your student loans</t>
+  </si>
+  <si>
+    <t>"It's difficult to control everything," says our guest professor for this week, Santiago Gallino. "What is not difficult is to plan for everything." Today we venture into the sphere of business that masters the planning, and backup planning: operations management.
+It's more than just predicting a bottleneck and imagining a solution, because there's always a bottleneck to clear. It's about modeling, and weighing the costs of messing up vs. missing out. For instance, take a newspaper vendor who has to decide how many newspapers to sell tomorrow morning. Do they buy fewer, knowing that they'll sell out–and then miss out on potential revenue from papers not sold? Or do they order more than they expect to sell, just in case–and eat the cost of a few unsold papers? This type of trade-off applies to all kinds of businesses, and Gallino talks us through how to choose.
+The only certainty in this life is uncertainty. But we are certain you will come out of this episode feeling better prepa…</t>
+  </si>
+  <si>
+    <t>Summer School 5: Tech and the innovator's dilemma</t>
+  </si>
+  <si>
+    <t>This summer, the Supreme Court struck down Biden's plan to forgive student loan debt for millions of borrowers. Except, on the same day Biden first announced that plan, he also unveiled another, the SAVE plan. And though SAVE sounded less significant than Biden's big forgiveness pledge, it's still alive and could erase even more student debt.
+SAVE is officially a loan repayment plan. But through a few seemingly minor yet powerful provisions, many more low-income borrowers will end up paying little or nothing until, eventually, their loans will be forgiven. Even many higher-income borrowers will see some of their debts erased.
+In this episode, we explain the history of income-driven repayment. And how borrowers could end up paying less than they might expect once payments resume in October. You can read more from NPR's Cory Turner's here.
+This episode was hosted by Cory Turner and Kenny Malone. It was produced by Emma Peaslee, and edited by Molly Messick. It was fact-checked by Sierr…</t>
+  </si>
+  <si>
+    <t>A tarot card reading for the U.S. economy</t>
+  </si>
+  <si>
+    <t>For anyone running a business, technology is both threat and opportunity. Today, we run through techniques entrepreneurs can use to take advantage of new tech or defend against the dangers. It's not just about the product you're selling. It's about consumer psychology, and ethics, and taking calculated risks to navigate uncertainty.
+But, since this is Planet Money Summer School and we want to set your business on the path to riches, we're going to talk about how to use tech to dream big. Maybe more than anything, technology creates opportunities for the little guys where the big established companies can't be so nimble or have too much to lose.
+Take the classic concept of the innovator's dilemma: a company that innovated and succeeded, now faces a choice about any disruptive new technology. Do they risk tossing out their existing advantage and switch to the new tech, or play it safe and risk becoming obsolete?
+Most new technologies don't end up disrupting an industry. So it is total…</t>
+  </si>
+  <si>
+    <t>Summer School 4: Marketing and the Ultimate Hose Nozzle</t>
+  </si>
+  <si>
+    <t>Predicting the future of the economy is always a dicey proposition. That is especially true after more than three years of pandemic-related economic weirdness. No one quite knows what will happen next.
+Will the Fed be able to pull off a soft landing and bring down inflation without causing either a recession or a big jump in unemployment? Or will we end up with a hard landing, in which inflation comes down, but at the price of the country's economic health? Or, a third possibility, will the Fed not successfully bring inflation down at all?
+On today's show, three economic experts explain what they look for when trying to make predictions about what might come next for the U.S. economy. And how those indicators lead them to very different conclusions. We will also consult a tarot card reader...to see if her reading of the future can help us know which outcome is the most likely.
+This episode was hosted by Keith Romer, Sarah Gonzalez, and Jeff Guo. It was produced by Sam Yellowhorse Ke…</t>
+  </si>
+  <si>
+    <t>Tackle your medical debt with Life Kit</t>
+  </si>
+  <si>
+    <t>In this session of Planet Money Summer School, we are getting the word out about your brand. How do you convince consumers to buy your product, even if they are only just hearing about it? It's time for sales and marketing!
+If you've watched a show like Mad Men or The Office, you know the importance of a strong pitch. It's precision-crafted to show how what you're selling can solve a problem your customer needs solved. Sometimes it even creates the need. Once you've got your sales pitch, it's time to get the word out: marketing. Where to spread that message? How to make it unforgettable? Instantly recognizable? What is going to be your Just do it? Your Think different? Your Where's the beef?
+In our case studies today, we look at a product so cleverly marketed, the company doesn't need to market it at all anymore and customers wait years to get it: the Birkin bag. And we hear lessons from some of the world's most time tested salespeople who can and do sell anything, literally. It's al…</t>
+  </si>
+  <si>
+    <t>Did two honesty researchers fabricate their data?</t>
+  </si>
+  <si>
+    <t>There's an estimated $195 billion of medical debt in America. But just because a medical bill comes in the mail doesn't mean you have to pay that exact price. In this special episode from our friends at Life Kit, you'll learn how to eliminate, reduce or negotiate a medical bill.
+If you liked this episode, you can check out more Life Kit here. They have episodes on how to choose a bank, and how to save money at the grocery store.
+This episode of Life Kit was produced by Sylvie Douglis. Their visuals editor is Beck Harlan, and their digital editor is Danielle Nett. Meghan Keane is their supervising editor, and Beth Donovan is their executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Summer School 3: Accounting and The Last Supper</t>
+  </si>
+  <si>
+    <t>Dan Ariely and Francesca Gino are two of the biggest stars in behavioral science. Both have conducted blockbuster research into how to make people more honest, research we've highlighted on Planet Money. The two worked together on a paper about how to "nudge" people to be more honest on things like forms or tax returns. Their trick: move the location where people attest that they have filled in a form honestly from the bottom of the form to the top.
+But recently, questions have arisen about whether the data Ariely and Gino relied on in their famous paper about honesty were fabricated — whether their research into honesty was itself built on lies. The blog Data Colada went looking for clues in the cells of the studies' Excel spreadsheets, the shapes of their data distributions, and even the fonts that were used.
+The Hartford, an insurance company that collaborated with Ariely on one implicated study, told NPR this week in a statement that it could confirm that the data it had provid…</t>
+  </si>
+  <si>
+    <t>Planet Money Paper Club</t>
+  </si>
+  <si>
+    <t>Usually, the first class that an MBA student takes is accounting. That involves, yes, equations and counting widgets...but it's more than that. Inside the simple act of accounting is a revolutionary way of thinking not just about a business, but about the world. A universe where all the forces are in balance. Accounting gives you a sixth sense–one that can help you determine whether your business will survive or fail.
+In this class, you'll learn the basics of accounting, and uncover its origins. We'll introduce you to the man who helped it spread around the world. He was a monk, a magician, and possibly the boyfriend of Leonardo da Vinci.
+Is accounting... sexy?
+Yes. Yes it is.
+Find all episodes of Planet Money Summer School here.
+This series is hosted by Robert Smith, and produced by Max Freedman. Our project manager is Julia Carney. This episode was edited by Sally Helm and engineered by Robert Rodriguez. The show is fact-checked by Sierra Juarez. Planet Money's executive produ…</t>
+  </si>
+  <si>
+    <t>Summer School 2: Competition and the cheaper sneaker</t>
+  </si>
+  <si>
+    <t>We here at Planet Money love economics papers. And that is also the case for so many of the economists we speak with. For them, new research can explain something they have always wondered about, or make them see something they have never noticed before. And it inspires their own work.
+So, to bring that same sense of discovery to you, the listener, today we are dedicating our show to a special experiment. A new way to share some of the most fascinating, clever and surprising economics papers in a segment we're calling: The Econ Paper Club.
+On today's show, we read the econ papers so you don't have to. We take a joyous romp through some of the most fascinating ideas floating around economics right now. And we find that some of those fascinating ideas are about some of the biggest things in life: the careers we choose, the expectations that come with parenting and what one eminent economist calls 'greedy jobs.'
+This episode was hosted by Erika Beras and Kenny Malone. It was produced b…</t>
+  </si>
+  <si>
+    <t>Surprise, you just signed a contract! How hidden contracts took over the internet</t>
+  </si>
+  <si>
+    <t>For episode 2 of Planet Money Summer School, we are talking strategy. You have your million dollar business idea, and maybe some money in your pocket to get it up and running. But now you enter into a crowded market. You have to deal with competition.
+So, what can you do to make sure your product is a success? That was the conundrum facing the Starbury. It was a basketball shoe with a celebrity endorsement, that had to go up against THE basketball shoe with THE celebrity endorsement: the Air Jordan. Our first story is about the ways in which the Starbury succeeded and failed in taking on a juggernaut.
+Then, we will hear a story about trying to avoid the dangers of "perfect" competition. Two companies making almost identical handbells learn that the key to their success lies in convincing customers how different they really are.
+Find all episodes of Planet Money Summer School here.
+The series is hosted by Robert Smith and produced by Max Freedman. Our project manager is Julia Carney…</t>
+  </si>
+  <si>
+    <t>Summer School 1: Planet Money goes to business school</t>
+  </si>
+  <si>
+    <t>When you make an account online or install an app, you are probably entering into a legally enforceable contract. Even if you never signed anything. These days, we enter into these contracts so often, it can feel like no big deal.
+But then there are the horror stories like Greg Selden's. He tried to sue AirBnB for racial discrimination while using their site. But he had basically signed away his ability to sue AirBnB when he made an account. That agreement was tucked away in a little red link, something most people might not even bother to click through.
+But, it wasn't always like this. On today's show, we go back in time to understand how the law of contracts got rewritten. And why today, you can accept a contract without even noticing it.
+This episode was hosted by Emma Peaslee and Jeff Guo, and was produced by James Sneed. It was edited by Jess Jiang and fact-checked by Sierra Juarez. It was engineered by James Willetts. Alex Goldmark is our Executive Producer.
+Help support Plan…</t>
+  </si>
+  <si>
+    <t>The quest to save macroeconomics from itself</t>
+  </si>
+  <si>
+    <t>Find all episodes of Planet Money Summer School here.
+Planet Money Summer School is back! It's the free economics class you can take from anywhere... for everyone! For Season 4 of Summer School, we are taking you to business school. It's time to get your MBA, the easy way!
+In this first class: Everyone has a million dollar business idea (e.g., "Shazam but for movies"), but not everyone has what it takes to be an entrepreneur. We have two stories about founders who learned the hard way what goes into starting a small business, and getting it up and running.
+First, a story about Frederick Hutson, who learned about pain points and unique value propositions when he founded a company to help inmates and their families share photos. Then, we take a trip to Columbia, Maryland with chefs RaeShawn and LaShone Middleton. Their steamed crab delivery service taught them the challenges of "bootstrapping" to grow their business. And throughout the episode, Columbia Business School professor Angel…</t>
+  </si>
+  <si>
+    <t>Two Indicators: After Affirmative Action &amp; why America overpays for subways</t>
+  </si>
+  <si>
+    <t>When it comes to big questions about the economy, we're still kind of in the dark ages. Why do some economies grow so much faster than others? How long is the next recession going to last? How do we stop inflation without wrecking the rest of the economy? These questions are the domain of macroeconomics. But even some macroeconomists themselves admit: While we have many theories about how the economy works, we have very few satisfying answers.
+Emi Nakamura wants to change all that. She's a superstar economist who is a pioneer in the field of "empirical macroeconomics." She finds clever ways of using data to untangle some of the oldest mysteries in macroeconomics, about the invisible hand, the consequences of government spending, and the inner workings of inflation.
+Recently we called her up to ask her why the economy is so difficult to understand in first place, and how she's trying to find answers anyway. She gets into all of that, and how Jeff Goldblum shaped her career as an econo…</t>
+  </si>
+  <si>
+    <t>Supply, demand, extinction</t>
+  </si>
+  <si>
+    <t>Two stories today.
+First, as we start to understand post-affirmative action America, we look to a natural experiment 25 years ago, when California ended the practice in public universities. It reshaped the makeup of the universities almost instantly. We find out what happened in the decades that followed.
+Then, we ask, why does it cost so much for America to build big things, like subways. Compared to other wealthy nations, the costs of infrastructure projects in the U.S. are astronomical. We take a trip to one of the most expensive subway stations in the world to get to the bottom of why American transit is so expensive to build.
+This episode was hosted by Adrian Ma and Darian Woods. It was produced by Corey Bridges, and engineered by Robert Rodriguez and Katherine Silva. It was fact-checked by Sierra Juarez. Viet Le is the Indicator's senior producer. And Kate Concannon edits the show. Alex Goldmark is our executive producer.
+Help support Planet Money and get bonus episodes by su…</t>
+  </si>
+  <si>
+    <t>Planet Money Live: Two Truths and a Lie</t>
+  </si>
+  <si>
+    <t>Back in the 90s, Ivan Lozano Ortega was in charge of Bogota's wildlife rescue center. And he kept getting calls from the airport to come deal with... frogs. Hundreds of brightly colored, poisonous frogs.
+Ivan had stumbled upon the poisonous frog black market. Tens of thousands of frogs were being poached out of the Colombian rainforest and sold to collectors all around the world by smugglers. And it put these endangered frogs at risk of going extinct.
+Today on the show, how Ivan tried to put an end to the poison frog black market, by breeding and selling frogs legally. And he learns that it's not so easy to get a frog out of hot water.
+This episode was hosted by Stan Alcorn and Sarah Gonzalez, and co-reported and written with Charlotte de Beauvoir. It was produced by Willa Rubin with help from Emma Peaslee. It was edited by Jess Jiang. It was fact-checked by Sierra Juarez. It was engineered by Josh Newell. Alex Goldmark is our executive producer.
+Help support Planet Money and get b…</t>
+  </si>
+  <si>
+    <t>Mike The Mover vs. The Furniture Police</t>
+  </si>
+  <si>
+    <t>The shocks of the pandemic economy gave us a bunch of enormous natural experiments, which helped to prove or disprove conventional economic thinking.
+Take, for example, the bullwhip effect, the idea that the further away from the customer you are in the supply chain, the more volatile your orders are likely to be. This theory played out at an enormous scale, in the pandemic. Consumers and companies overreacted to the risk of shortages by ordering more products and hoarding them, causing massive shifts in the supply chain – just like the theory says.
+And the pandemic gave us a lot of natural experiments like this. So, on this special live edition of Planet Money, we looked for other big economic lessons from the past three years, and we took this information and turned it into... a gameshow! It's Two Truths and a Lie: Econ Edition. We get into questions about the workforce and labor market during the pandemic, and how it affected how economists view the world.
+This episode was host…</t>
+  </si>
+  <si>
+    <t>Twins (classic)</t>
+  </si>
+  <si>
+    <t>In 1978, a young man named Mike Shanks started a moving business in the north end of Seattle. It was just him and a truck — a pretty small operation. Things were going great. Then one afternoon, he was pulled over and cited for moving without a permit.
+The investigators who cited him were part of a special unit tasked with enforcing utilities and transportation regulations. Mike calls them the furniture police. To legally be a mover, Mike needed a license. Otherwise, he'd face fines — and even potentially jail time. But soon he'd learn that getting that license was nearly impossible.
+Mike is the kind of guy who just can't back down from a fight. This run-in with the law would set him on a decade-long crusade against Washington's furniture moving industry, the furniture police, and the regulations themselves. It would turn him into a notorious semi-celebrity, bring him to courtrooms across the state, lead him to change his legal name to 'Mike The Mover,' and send him into the furt…</t>
+  </si>
+  <si>
+    <t>The 60-day job race</t>
+  </si>
+  <si>
+    <t>Twins are used to fielding all sorts of questions, like "Can you read each other's minds?" or "Can you feel each other's pain?" Two of our Planet Money reporters are twins, and they have heard them all.
+But it's not just strangers on the street who are fascinated by twins. Scientists have been studying twins since the 1800s, trying to get at one of humanity's biggest questions: How much of what we do and how we are is encoded in our genes? The answer to this has all kinds of implications, for everything from healthcare to education, criminal justice and government spending.
+Today on the show, we look at the history of twin studies. We ask what decades of studying twins has taught us. We look back at a twin study that asked whether genes influence antisocial behavior and rule-breaking. One of our reporters was a subject in it. And we find out: are twin studies still important for science?
+(Note: This episode originally ran in 2019.)
+Our show today was hosted by Sally Helm and Karen…</t>
+  </si>
+  <si>
+    <t>Two Indicators: The economics of innovation</t>
+  </si>
+  <si>
+    <t>People come from all over the world to work in U.S. tech. And during the tech boom years, the industry relied heavily on foreign workers. This is how we built Silicon Valley – with great minds coming from everywhere to work in the U.S.
+But when the industry started to shrink, all of these people who moved here for work are finding that linking their jobs to their residency is really complicated. That was the case for Aashka and Nilanjan. Aashka was a product engineer at Amazon, and Nilanjan worked in digital advertising for Google. They both lost their jobs in the layoffs each company announced earlier this year.
+When Aashka and Nilanjan got the news, a clock started ticking. Because they are both H-1B recipients, they only have 60 days to find new jobs before they risk being sent home. And they can't get just any job – they need new employers in their field willing to sponsor their visa.
+On today's show, we followed two tech workers as they tried to find jobs before their visas…</t>
+  </si>
+  <si>
+    <t>The town that changed economics</t>
+  </si>
+  <si>
+    <t>Innovation is crucial for game-changing advancements in society, whether it's treatments for serious diseases, developments in AI technology, or rocket science.
+Today on the show, we're airing two episodes from our daily economics show The Indicator. First, a new paper suggests that breakthrough innovations are more likely at smaller, younger companies. We talk to an inventor who left a big pharmaceutical company to start afresh, leading to some incredible treatments for serious diseases.
+Then, it's off to Mars — or at least, on the way. Elon Musk's company SpaceX did a first test launch of a rocket meant to go all the way to the red planet. The rocket made it up off of the launch pad and lumbered briefly through the sky before self-destructing over the Gulf of Mexico. Suffice it to say, it's not quite ready. NPR science correspondent Geoff Brumfiel walks us through SpaceX's business plan as we try to figure out if this company has the funding and business acumen to reach its moons…</t>
+  </si>
+  <si>
+    <t>The Spider-Man Problem (update)</t>
+  </si>
+  <si>
+    <t>In the early 90s, when a young economist named Michael Kremer finished his PhD, there had been a few economic studies based on randomized trials. But they were rare. In part because randomized trials – in which you recruit two statistically identical groups, choose one of them to get a treatment, and then compare what happens to each group – are expensive, and they take a lot of time.
+But then, by chance, Michael had the opportunity to run a randomized trial in Busia, Kenya. He helped a nonprofit test whether the aid they were giving to local schools helped the students. That study paved the way for more randomized trials, and for other economists to use the method.
+On today's show, how Busia, Kenya, became the place where economists pioneered a more scientific way to study huge problems, from contaminated water to low graduation rates, to HIV transmission. And how that research changed government programs and aid efforts around the world.
+This episode was produced by James Snee…</t>
+  </si>
+  <si>
+    <t>AI Podcast 3.0: Dial M for Mechanization</t>
+  </si>
+  <si>
+    <t>(Note: This episode originally ran back in 2022.)
+This past weekend, Spider-Man: Across the Spider-Verse had the second largest domestic opening of 2023, netting (or should we say webbing?) over $120 million in its opening weekend in the U.S. and Canada. But the story leading up to this latest Spider-Man movie has been its own epic saga.
+When Marvel licensed the Spider-Man film rights to Sony Pictures in the 1990s, the deal made sense — Marvel didn't make movies yet, and their business was mainly about making comic books and toys. Years later, though, the deal would come back to haunt Marvel, and it would start a long tug of war between Sony and Marvel over who should have creative cinematic control of Marvel's most popular superhero. Today, we break down all of the off-screen drama that has become just as entertaining as the movies themselves.
+This episode was originally produced by Nick Fountain with help from Taylor Washington and Dave Blanchard. It was engineered by Isaac Rodr…</t>
+  </si>
+  <si>
+    <t>AI Podcast 2.0: The host in the machine</t>
+  </si>
+  <si>
+    <t>It's the thrilling conclusion to our three-part series on AI — the world premiere of the first episode of Planet Money written by AI. In Part 1 of this series, we taught AI how to write an original Planet Money script by feeding it real research and interviews. In Part 2, we used AI to clone the voice of our former colleague Robert Smith.
+Now, we've put everything together into a 15-minute Planet Money episode. And we've gathered some of our co-hosts to listen along.
+So, how did the AI do? You'll have to listen to learn what went surprisingly well, where it fell short, and hear reactions from the real-life hosts whose jobs could be at risk of being replaced by the machines.
+(This is part three of a three-part series. Click here for part one and for part two of our series.)
+This episode was produced by Emma Peaslee and Willa Rubin. It was engineered by James Willetts and fact-checked by Sierra Juarez. Keith Romer edited this series and Jess Jiang is our acting executive producer.…</t>
+  </si>
+  <si>
+    <t>AI Podcast 1.0: Rise of the machines</t>
+  </si>
+  <si>
+    <t>In Part 1 of this series, AI proved that it could use real research and real interviews to write an original script for an episode of Planet Money.
+Our next task was to teach the computer how to sound like us. How to read that script aloud like a Planet Money host.
+On today's show, we explore the world of AI-generated voices, which have become so lifelike in recent years that they can credibly imitate specific people. To test the limits of the technology, we attempt to create our own synthetic voice by training a computer on recordings of former Planet Money host Robert Smith. Then we introduce synthetic Robert to his very human namesake.
+There are a lot of ethical, and economic, questions raised by a technology that can duplicate anyone's voice. To help us make sense of it all, we seek the advice of an artist who has embraced AI voice clones: the musician Grimes.
+(This is part two of a three-part series. For part one of our series, click here)
+This episode was produced by Emma Pe…</t>
+  </si>
+  <si>
+    <t>Green energy gridlock</t>
+  </si>
+  <si>
+    <t>We used to think some jobs were safe from automation. Though machines have transformed industries like agriculture and manufacturing, the conventional wisdom was that they could never perform what's called "knowledge work." That the robots could never replace lawyers or accountants — or journalists, like us.
+Well, ever since the release of artificial intelligence tools like ChatGPT, it feels like no job is safe. AI can now write essays, generate computer code, and even pass the bar exam. Will work ever be the same again?
+Here at Planet Money, we are launching a new three-part series to understand what this new AI-powered future looks like. Our goal: to get the machines to make an entire Planet Money show.
+In this first episode, we try to teach the AI how to write a script for us from scratch. Can the AI do research for us, interview our sources, and then stitch everything together in a creative, entertaining way? We're going to find out just how much of our own jobs we can automat…</t>
+  </si>
+  <si>
+    <t>Predictions: Jobs!</t>
+  </si>
+  <si>
+    <t>Lyle Jack wants to build a wind farm on the Pine Ridge Reservation in South Dakota. But to make the project work, he has to connect that wind farm to the electric grid. Which is easier said than done. On today's show - how the green energy revolution may live, or die, by bureaucrats trying to untangle a mess of wires.
+This episode was produced by Willa Rubin. It was edited by Sally Helm, fact-checked by Sierra Juarez, and engineered by Katherine Silva. Jess Jiang is our acting executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>How AI could help rebuild the middle class</t>
+  </si>
+  <si>
+    <t>It's time for another installment of ... Planet Money Predictions! *air horn*
+Last year, we invited two economic forecasters to tell us what they saw coming for jobs, the housing market, and inflation. And now they're back. Which means it's time to find out whose predictions were more on the money, and send the victor to the next round, where they face off against a new forecasting phenom.
+Since our last game, housing and inflation have cooled, but the job market keeps going strong. And the possibility of a recession still looms large. Our forecasters tell us what they see in the economy now, and what they expect in the months ahead.
+This episode was produced by James Sneed. It was engineered by Katherine Silva. It was fact-checked by Sierra Juarez and edited by Molly Messick. Jess Jiang is our acting executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Inflation and the Profit-Price Spiral</t>
+  </si>
+  <si>
+    <t>For the last four decades, technology has been mostly a force for greater inequality and a shrinking middle class. But new empirical evidence suggests that the age of AI could be different. We speak to MIT's David Autor, one of the greatest labor economists in the world, who envisions a future where we use AI to make a wider array of workers much better at a whole range of jobs and help rebuild the middle class.
+This episode was produced by Dave Blanchard and edited by Molly Messick. It was fact-checked by Sierra Juarez and engineered by Katherine Silva. Jess Jiang is Planet Money's acting executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>The Day of Two Noons (Classic)</t>
+  </si>
+  <si>
+    <t>Economists say that inflation is just too much money chasing too few goods.
+But something else can make inflation stick around.
+If you think of the 1970s, the last time the U.S. had really high sustained inflation, a big concern was rising wages. Prices for goods and services were high. Workers expected prices to be even higher next year, so they asked for pay raises to keep up. But then companies had to raise their prices more. And then workers asked for raises again. This the so-called wage-price spiral.
+So when prices started getting high again in 2021, economists and the U.S. Federal Reserve again worried that wage increases would become a big problem. But, it seems like the wage-price spiral hasn't happened. In fact wages, on average, have not kept up with inflation.
+There are now concerns about a totally different kind of spiral: a profit-price spiral. On today's show, why some economists are looking at inflation in a new light.
+This episode was produced by Sam Yellowhorse K…</t>
+  </si>
+  <si>
+    <t>How to fight a squatting goat</t>
+  </si>
+  <si>
+    <t>(Note: this episode originally ran in 2019.)
+In the 1800s, catching your train on time was no easy feat. Every town had its own "local time," based on the position of the sun in the sky. There were 23 local times in Indiana. 38 in Michigan. Sometimes the time changed every few minutes.
+This created tons of confusion, and a few train crashes. But eventually, a high school principal, a scientist, and a railroad bureaucrat did something about it. They introduced time zones in the United States. It took some doing--they had to convince all the major cities to go along with it, get over some objections that the railroads were stepping on "God's time," and figure out how to tell everyone what time it was. But they made it happen, beginning on one day in 1883, and it stuck. It's a story about how railroads created, in all kinds of ways, the world we live in today.
+This episode was originally produced by Alexi Horowitz-Ghazi and edited by Jacob Goldstein. Jess Jiang is Planet Money's Acting…</t>
+  </si>
+  <si>
+    <t>Two Indicators: the influencer industry</t>
+  </si>
+  <si>
+    <t>Back in 2005, Burt Banks inherited a plot of old family land in Delaware. But when it came time to sell it, he ran into a problem: his neighbor had a goat pen, and about half of it crossed over onto his property.
+Burt asked the goats' owner to move the pen, but when neighborly persuasion failed to get the job done, he changed his strategy. He sued her. And that is when things got complicated.
+Protecting private property is one of the fundamental jobs of the American legal system. If you hold a deed saying you own a plot of land, it's your land. End of story. Right?
+But, as Burt would soon learn, the law can get really complicated when it comes to determining who actually owns something. And when goats are involved ... anything can happen.
+This episode was produced by Willa Rubin and Dylan Sloan and edited by Molly Messick. It was fact-checked by Sierra Juarez. Katherine Silva engineered this episode. Jess Jiang is Planet Money's acting executive producer.
+Help support Planet Money…</t>
+  </si>
+  <si>
+    <t>Financial advising while Black</t>
+  </si>
+  <si>
+    <t>When you were little, what did you want to be when you grew up? An astronaut, a doctor or maybe a famous athlete? Today one of the most popular responses to that question is influencer – content creators who grow their following on Tik Tok, Instagram and YouTube and monetize that content to make it their full-time job.
+In a lot of ways influencing can seem like the dream job - the filters, the followers, the free stuff. But on the internet, rarely is anything as it appears. From hate comments and sneaky contracts to prejudice and discrimination, influencers face a number of hurdles in their chosen careers.
+This week we're bringing you two stories from our daily show The Indicator on the promise and perils of the multi-billion dollar influencer industry.
+This episode was produced by Corey Bridges and Janet Lee. It was engineered by Robert Rodriguez and Katherine Silva. It was fact-checked by Sierra Juarez and Dylan Sloan. Emily Kinslow was the podcast coordinator for this series. V…</t>
+  </si>
+  <si>
+    <t>The zoo economy (classic)</t>
+  </si>
+  <si>
+    <t>After a successful career in advertising, Erika Williams decided it was time for a change. She went back to school to get an MBA at the University of Chicago, and eventually, in 2012, she got a job at Wells Fargo as a financial advisor. It was the very job she wanted.
+Erika is Black–and being a Black financial advisor at a big bank is relatively uncommon. Banking was one of the last white collar industries to really hire Black employees. And when Erika gets to her office, she's barely situated before she starts to get a weird feeling. She feels like her coworkers are acting strangely around her.
+"I was just met with a lot of stares. And then the stares just turned to just, I mean, they just pretty much ignored me. And that was my first day, and that was my second day. And it was really every day until I left."
+She wasn't sure whether to call her experience racism...until she learned that there were other Black employees at other Wells Fargo offices feeling the exact same way.On to…</t>
+  </si>
+  <si>
+    <t>The quest for the factory-built house</t>
+  </si>
+  <si>
+    <t>Note: This episode originally aired in September, 2014.
+Zoos follow a fundamental principle: You can't sell or buy the animals. It's unethical and illegal to put a price tag on an elephant's head. But money is really useful — it lets you know who wants something and how much they want it. It lets you get rid of things you don't need and acquire things that you do need. It helps allocate assets where they are most valued. In this case, those assets are alive, and they need a safe home in the right climate.
+So zoos and aquariums are left asking: What do you do in a world where you can't use money?
+This episode was originally produced by Jess Jiang.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Tax Code Switch</t>
+  </si>
+  <si>
+    <t>Imagine if we built cars the same way we build houses. First, a typical buyer would meet with the car designer, and tell them what kind of car they want. Then the designer would draw up plans for the car.
+The buyer would call different car builders in their town and show them the blueprints. And the builders might say, "Yeah, I can build you that car based on this blueprint. It will cost $1 million and it will be ready in a year and a half."
+There are lots of reasons why homes are so expensive in the U.S., zoning and land prices among them. But also, the way we build houses is very slow and very inefficient. So, why don't we build homes the way we build so many other things, by mass producing them in a factory?
+In this episode, the century-old dream of the factory-built house, and the possibility of a prefab future.
+This episode was produced by Emma Peaslee. Molly Messick edited the show, and it was fact-checked by Sierra Juarez. Brian Jarboe mastered the episode. Jess Jiang is our…</t>
+  </si>
+  <si>
+    <t>The life and possible death of low interest rates</t>
+  </si>
+  <si>
+    <t>This past January, researchers uncovered that Black taxpayers are three to five times as likely to be audited as everyone else. One likely reason for this is that the IRS disproportionately audits lower-income earners who claim a tax benefit called the earned income tax credit. And this, says law professor Dorothy Brown, is just one example of the many ways that race is woven through our tax system, its history, and its enforcement.
+Dorothy discovered the hidden relationship between race and the tax system sort of by accident, when she was helping her parents with their tax return. The amount they paid seemed too high. Eventually, her curiosity about that observation spawned a whole area of study.
+This episode is a collaboration with NPR's Code Switch podcast. Host Gene Demby spoke to Dorothy Brown about how race and taxes play out in marriage, housing, and student debt.
+This episode was produced by James Sneed, with help from Olivia Chilkoti. It was edited by Dalia Mortada and Cour…</t>
+  </si>
+  <si>
+    <t>Two innovation market indicators</t>
+  </si>
+  <si>
+    <t>Right now, the economy is running hot. Inflation is high, and central banks are pushing up interest rates to fight it. But before the pandemic, economies around the world were stuck in a different rut: low inflation, low interest rates, low growth.
+In 2013, Larry Summers unearthed an old term from the Great Depression to explain why the economy was in this rut: secular stagnation. The theory resonated with Olivier Blanchard, another leading scholar, because he had made similar observations himself. Larry and Olivier would go on to build a case for why secular stagnation was a defining theory of the economy and why government policies needed to respond to it. They helped reshape many people's understanding of the economy, and suggested that this period of slow growth and low interest rates was here to stay for a long time.
+But today, Larry and Olivier are no longer the duo they used to be. As inflation has spiked worldwide, interest rates have followed suit. Earlier this year, Larry a…</t>
+  </si>
+  <si>
+    <t>Your banking questions, answered</t>
+  </si>
+  <si>
+    <t>Right now, the economy is all over the place. And when things get confusing, we look to basic economic indicators to help explain what's going on. Today, we're bringing you two episodes of our daily show The Indicator that focus on the bond market.
+The market for U.S. treasury bonds is generally safe, predictable and pretty boring. Recently, though, it's been anything but. We look into the fluctuations in bond prices and the yield curve (one of our favorite indicators) to try to help us understand where the economy stands right now.
+These two Indicator episodes were originally produced by Brittany Cronin and Noah Glick. They were fact-checked by Sierra Juarez and engineered by Gilly Moon and Katherine Silva. Kate Concannon edits The Indicator.
+The Planet Money version was produced by Dylan Sloan and edited by Dave Blanchard.
+Music: "Funk Lounge," "A Fulltime Job" and "Velvet Groove."
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts…</t>
+  </si>
+  <si>
+    <t>The battle for Puerto Rico's beaches</t>
+  </si>
+  <si>
+    <t>It's been a month since the collapse of Silicon Valley Bank touched off the worst episode of banking turmoil since 2008. While the financial system appears to have stabilized, we're still reckoning with what happened. Regulators are getting dragged before Congress. The Federal Reserve and the FDIC have promised reports on what went wrong with bank oversight. And judging by our inbox, you, our listeners, have a lot of lingering questions.
+Questions like: Was it a bailout? Where were the regulators? Is it over yet? And what about those other banks that were teetering on the edge?
+Today on the show, some answers for you.
+This episode was produced by Sam Yellowhorse Kesler with help from Willa Rubin. It was engineered by Brian Jarboe. It was fact-checked by Sierra Juarez and edited by Molly Messick. Jess Jiang is our acting executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>The safety net for banks</t>
+  </si>
+  <si>
+    <t>Puerto Rico's beaches are an integral part of life on the island, and by law, they're one of the few places that are truly public. In practice, the sandy stretch of land where the water meets the shore is one of the island's most contested spaces.
+Today we're featuring an episode of the podcast La Brega from WNYC Studios and Futuro Studios, a show about Puerto Rico and the Puerto Rican experience. On the island, a legal definition dating back to the Spanish colonial period dictates what counts as a beach. But climate change, an influx of new residents and a real estate boom are all threatening legal public access to some of Puerto Rico's most cherished spaces. The debate all comes down to one question: what counts as a beach?
+You can listen to the rest of La Brega (in English and Spanish) here. They have two full seasons out, which explore the Puerto Rican experience through history and culture. Check it out.
+This episode was reported by Alana Casanova-Burgess and produced by Ezequi…</t>
+  </si>
+  <si>
+    <t>A Great Recession bank takeover</t>
+  </si>
+  <si>
+    <t>In the first half of March, three banks - Silicon Valley Bank, Signature Bank, and Silvergate - all had relatively classic bank runs and collapsed. Which sparked some major banking stress. As a result, the Federal Reserve got a lot of requests to use one of its oldest and most important tools for soothing such troubles: the discount window.
+The discount window is like a safety net for banks. And recently, a lot of banks have needed it. So, what is the discount window, where did it come from, and how does it work? And, amidst all the recent banking turmoil, has it been working the way it should? In this episode, we crack open the discount window.
+This episode was produced by Emma Peaslee with help from Willa Rubin. It was engineered by Katherine Silva. It was fact-checked by Sierra Juarez and edited by Sally Helm. Jess Jiang is our acting executive producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmon…</t>
+  </si>
+  <si>
+    <t>The battle over Osage headrights</t>
+  </si>
+  <si>
+    <t>Earlier this month, we saw the largest bank collapse since the 2008 financial crisis. For many of us, seeing Silicon Valley Bank's meltdown brought us right back to that time 15 years ago, at the beginning of what would become the Great Recession.
+In early 2009, one or two banks were failing every week. That's when Planet Money reporter Chana Joffe-Walt went inside one of those banks: the Bank of Clark County, in Washington State. Her reporting on the inner workings of a bank collapse and government takeover helps explain exactly what happens when a bank goes under, minute-by-minute.
+This story originally aired in March 2009 on This American Life, from WBEZ Chicago. We're airing it for the first time in full on our podcast.
+This version of the story was produced by Dylan Sloan and edited by Dave Blanchard. It was fact-checked by Sierra Juarez and engineered by Katherine Silva. Jess Jiang is Planet Money's acting executive producer.
+Music: "Butter" "Bassline Motion" and "Fantasmi."…</t>
+  </si>
+  <si>
+    <t>Inside a bank run</t>
+  </si>
+  <si>
+    <t>Richard J. Lonsinger is a member of the Ponca tribe of Oklahoma, who was adopted at a young age into a white family of three. He eventually reconnected with his birth family, but when his birth mother passed away in 2010, he wasn't included in the distribution of her estate. Feeling both hurt and excluded, he asked a judge to re-open her estate, to give him a part of one particular asset: an Osage headright.
+An Osage headright is a share of profits from resources like oil, gas, and coal that have been extracted from the Osage Nation's land. These payments can be sizeable - thousands or even tens of thousands of dollars a year. Historically, they were even larger – in the 1920s the Osage were some of the wealthiest people in the world. But that wealth also made them a target and subject to paternalistic and predatory laws. Over the previous century, hundreds of millions of dollars in oil money have been taken from the Osage people.
+On today's show: the story of how Richard Lonsinger…</t>
+  </si>
+  <si>
+    <t>Planet Money Records Vol. 3: Making a hit</t>
+  </si>
+  <si>
+    <t>Sometimes you hear these stories about an airplane that suddenly nosedives. Everyone onboard thinks this is it, and then the plane levels out and everything is fine. For about 72 hours, people and companies that had deposited millions of dollars at the Silicon Valley Bank — many of whom were in the tech industry — thought they had lost absolutely everything to a bank collapse.
+Two weeks later, the situation at Silicon Valley Bank has leveled off. The FDIC seized the bank and eventually made all of its depositors whole. But to understand what that financial panic felt like, we retrace the Silicon Valley Bank run and eventual collapse. We hear from four people who were part of the bank run — when they realized early rumblings, what it felt like in the full stampede, what hard decisions they faced, and what the aftermath felt like. And along the way, we uncover the lessons you can only learn when you think the entire world is ending.
+This episode was reported by Kenny Malone, prod…</t>
+  </si>
+  <si>
+    <t>How Silicon Valley Bank failed</t>
+  </si>
+  <si>
+    <t>Since we started Planet Money Records and released the 47-year-old song "Inflation," the song has taken off. It recently hit 1 million streams on Spotify. And we now have a full line of merch — including a limited edition vinyl record; a colorful, neon hoodie; and 70s-inspired stickers — n.pr/shopplanetmoney.
+After starting a label and negotiating our first record deal, we're taking the Inflation song out into the world to figure out the hidden economics of the music business. Things get complicated when we try to turn the song into a viral hit. Just sounding good isn't enough and turning a profit in the music business means being creative, patient and knowing the right people.
+This is part three of the Planet Money Records series. Here's part one and part two.
+Listen to "Inflation" on Apple Music, Spotify, YouTube Music, Tidal, Amazon Music &amp; Pandora.
+Listen to our remix, "Inflation [136bpm]," on Spotify, YouTube Music &amp; Amazon Music.
+"Inflation" is on TikTok. (And — if you…</t>
+  </si>
+  <si>
+    <t>Dude, where's my streaming TV show?</t>
+  </si>
+  <si>
+    <t>Silicon Valley Bank was the 16th largest bank in America, the bank of choice for tech startups and big-name venture capitalists. Then, in the span of just a few days, it collapsed. Whispers that SVB might be in trouble spread like wildfire through group texts and Twitter posts. Depositors raced to empty their accounts, withdrawing $42 billion in a single day. Last Friday, after regulators declared that SVB had failed, the FDIC seized the bank.
+As the dust settles on the biggest bank failure — and bank rescue — in recent memory, we're still figuring out what happened. But poor investment choices, weak regulation, and customer panic all played their parts. We'll look into the bank's collapse to understand what it can teach us about the business of banking itself.
+This episode was produced by Willa Rubin, with help from Dave Blanchard. It was edited by Keith Romer, and engineered by Brian Jarboe. Fact-checking by Sierra Juarez. Our acting executive producer is Jess Jiang.
+Music: "I…</t>
+  </si>
+  <si>
+    <t>The value of good teeth</t>
+  </si>
+  <si>
+    <t>Over the past year, dozens of shows have been disappearing from streaming platforms like HBO Max and Showtime. Shows like Minx, Made for Love, FBoy Island, and even big budget hits like Westworld have been removed entirely.
+So why did these platforms, after investing millions of dollars in creating original content, decide not just to cancel those shows, but to make them unavailable altogether?
+We dive into the economics of the television industry looking for answers to a streaming mystery that has affected both fans and creatives. And we find out what happens when the stream runs dry.
+This episode was produced by Willa Rubin with help from Emma Peaslee. It was edited by Keith Romer. Engineering by Josh Newell. Sierra Juarez checked the facts. Jess Jiang is our acting executive producer.
+We want to hear your thoughts on the show! We have a short, anonymous survey we'd love for you to fill out: n.pr/pmsurvey
+Help support Planet Money and get bonus episodes by subscribing to Planet…</t>
+  </si>
+  <si>
+    <t>Seinfeld-onomics</t>
+  </si>
+  <si>
+    <t>As a kid, Ryanne Jones' friend accidentally hit her in the mouth with a hammer, knocking out her two front teeth. Her parents never had enough money for the dental care needed to fix them, so Ryanne lived much of her adult life with a chipped and crooked smile.
+Ryanne spent a while as a single mom working low-wage jobs, but she had higher aspirations: she interviewed dozens of times a year for higher-paying roles that she was more than qualified for. But she never landed any of them. And to her, it really seemed like the only thing standing between her and a better job was her rotting, brown front teeth.
+Our physical appearances can communicate a lot about our financial status. There are some things, such as clothing, that we have more control over. But there are other things that we don't — and they can have serious long-term economic consequences.
+This episode was originally run as part of Marketplace's This is Uncomfortable podcast.
+Reported by: Reema Khrais
+Edited by: Micael…</t>
+  </si>
+  <si>
+    <t>CBOhhhh, that's what they do</t>
+  </si>
+  <si>
+    <t>The 90s sit-com Seinfeld is often called "a show about nothing." Lauded for its observational humor, this quick-witted show focussed on four hapless New Yorkers navigating work, relationships...yada yada yada.
+Jerry, George, Elaine &amp; Kramer set themselves apart from the characters who populated shows like Friends or Cheers, by being the exact opposite of the characters audiences would normally root for. These four New Yorkers were overly analytical, calculating, and above all, selfish.
+In other words, they had all the makings of a fascinating case study in economics.
+Economics professors Linda Ghent and Alan Grant went so far as to write an entire book on the subject, Seinfeld &amp; Economics. The book points readers to economic principles that appear throughout the show, ideas like economic utility, game theory, and the best way to allocate resources in the face of scarcity.
+On today's show, we make the case that Seinfeld is, at its heart, not a show about nothing, but a show about ec…</t>
+  </si>
+  <si>
+    <t>Meow Money Meow Problems</t>
+  </si>
+  <si>
+    <t>If you are a congressperson or a senator and you have an idea for a new piece of legislation, at some point someone will have to tell you how much it costs. But, how do you put a price on something that doesn't exist yet?
+Since 1974, that has been the job of the Congressional Budget Office, or the CBO. The agency plays a critical role in the legislative process: bills can live and die by the cost estimates the CBO produces.
+The economists and budget experts at the CBO, though, are far more than just a bunch of number crunchers. Sometimes, when the job is really at its most fun, they are basically tasked with predicting the future. The CBO has to estimate the cost of unreleased products and imagine markets that don't yet exist — and someone always hates the number they come up with.
+On today's episode, we go inside the CBO to tell the twisting tale behind the pricing of a single piece of massive legislation — when the U.S. decided to finally cover prescription drug insurance for…</t>
+  </si>
+  <si>
+    <t>Hollywood's Black List (Classic)</t>
+  </si>
+  <si>
+    <t>More than 20 years ago, something unusual happened in the small town of Dixfield, Maine. A lady named Barbara Thorpe had left almost all of her money—$200,000—to benefit the cats of her hometown. When Barbara died in 2002, those cats suddenly got very, very rich. And that is when all the trouble began.
+Barbara's gift set off a sprawling legal battle that drew in a crew of crusading cat ladies, and eventually, the town of Dixfield itself. It made national news. But after all these years, no one seemed to know where that money had ended up. Did the Dixfield cat fortune just...vanish?
+In this episode, host Jeff Guo travels to Maine to track down the money. To figure out how Barbara's plans went awry. And to understand something about this strange form of economic immortality called a charitable trust.
+This episode was produced by Willa Rubin with help from Dave Blanchard. It was engineered by Josh Newell. Sally Helm edited the show and Sierra Juarez checked the facts. Jess Jiang is…</t>
+  </si>
+  <si>
+    <t>Jay &amp; Shai's debt ceiling adventure</t>
+  </si>
+  <si>
+    <t>This episode originally ran in 2020.
+In 2005, Franklin Leonard was a junior executive at Leonardo DiCaprio's production company. A big part of his job was to find great scripts. The only thing — most of the 50,000-some scripts registered with the Writers Guild of America every year aren't that great. Franklin was drowning in bad scripts ... So to help find the handful that will become the movies that change our lives, he needed a better way forward.
+Today on the show — how a math-loving movie nerd used a spreadsheet and an anonymous Hotmail address to solve one of Hollywood's most fundamental problems: picking winners from a sea of garbage. And, along the way, he may just have reinvented Hollywood's power structure.
+This episode was produced by James Sneed and Darian Woods, and edited by Bryant Urstadt, Karen Duffin and Robert Smith.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Two Indicators: Inside the Fed, then and now</t>
+  </si>
+  <si>
+    <t>Every year, the U.S. government spends more money than it takes in. In order to fund all that spending, the country takes on debt. Congress has the power to limit how much debt the U.S. takes on. Right now, the debt limit is $31.4 trillion dollars. Once we reach that limit, Congress has a few options so that the government keeps paying its bills: Raise the debt limit, suspend it, or eliminate it entirely.
+That debate and negotiations are back this season. One thing that is in short supply, but very important for these negotiations, is good information. Shai Akabas, of the Bipartisan Policy Center, knows this well. Right now, he and his team are working on figuring out when exactly the U.S. government could run out of money to pay its obligations — what they've dubbed: the "X Date."
+Shai is determined to help prevent the U.S. government from blowing past the X Date without a solution. But this year's debt-ceiling negotiations are not going very well. Which is daunting, because if lawm…</t>
+  </si>
+  <si>
+    <t>Our 2023 valentines</t>
+  </si>
+  <si>
+    <t>A lot of the time, economic policy can seem pretty impersonal — cold, hard, data-driven. But at the heart of the Federal Reserve are people: fallible, complicated people who are just doing their best to steer the economy in the right direction.
+Often, we remember them just for their economic decisions. But today, we're airing two episodes from our daily economics show The Indicator that profile the people inside the Fed. First, we're heading back to the 1970s to revisit Arthur Burns' oft-criticized stint as Fed chair. Next, we have a conversation with Mary Daly, the current president of the San Francisco Fed, about her remarkable path from high school dropout to one of the most important economic voices in the nation.
+These two Indicator episodes were originally produced by Viet Le and Brittany Cronin. They were fact-checked by Sierra Juarez and Dylan Sloan and edited by Kate Concannon. The Planet Money version was produced by Dylan Sloan, engineered by Josh Newell and edited by Da…</t>
+  </si>
+  <si>
+    <t>The ice cream conspiracy</t>
+  </si>
+  <si>
+    <t>Every Valentine's Day, we at Planet Money consider the things that we love, the things that we can't stop talking about, the things that get our hearts racing...in a good way. And we give them valentines!
+This year our valentines go out to:
+ImportYeti, a website that lets you see exactly where U.S. companies are importing goods from.
+Economic data revisions, those tweaks to the data that make things like the jobs numbers even more accurate.
+The office (the place, not the show).
+Audio description, narration designed to make TV and movies more accessible to people who are blind or low-vision, but which offers benefits to the sighted as well.
+This show was produced by Emma Peaslee. It was edited by Keith Romer, and engineered by Robert Rodriguez. Jess Jiang is our acting Executive Producer.
+Help support Planet Money and get bonus episodes by subscribing to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Baby's first market failure</t>
+  </si>
+  <si>
+    <t>Take a look in any supermarket ice cream freezer section and you may see a mystery. There are big containers of the typical ice cream brands: Breyers, Turkey Hill, and Edy's. And there are specialty brands that make gelato, low-fat and vegan ice creams. And then there are the fancy pints: which is mostly Ben &amp; Jerry's and Häagen-Dazs.
+Häagen-Dazs has flavors like vanilla, chocolate, pistachio—the sort of flavors that run smooth. And then Ben &amp; Jerry's specializes in chunky flavors: Cherry Garcia, The Tonight Dough, Chunky Monkey, etc. The two hardly ever cross into the other's turf. Why?
+It's possible they are experiencing something common to natural competition—they are specializing in what works best for them. But, as Christopher Sullivan of the University of Wisconsin-Madison suspects, the two companies may be engaging in what is known as "tacit collusion," where two parties silently agree to... stick to their own territory.
+We try to get to the creamy core of what makes up…</t>
+  </si>
+  <si>
+    <t>Groundhog Day 2023</t>
+  </si>
+  <si>
+    <t>Anyone who has tried shopping for day care knows that it is tough out there.
+For one, it is hard even to get your hands on information about costs, either online or over the phone – day cares will often only share their prices after you have taken a tour of their facilities. Even once you find a place you like, many day cares have waitlists stretching 6 months, 9 months, a year.
+Waitlists are a classic economic sign that something isn't right, that prices are too low. But ask any parent and they will tell you that prices for day cares are actually too high. According to a recent report from the U.S. Treasury, more than 60% of families can't afford the full cost of high quality day care. Meanwhile, day care owners can barely afford to stay open. No one is happy.
+On today's show, we get into the very weird, very broken market for day care. We will try to understand how this market can simultaneously strain parents' budgets and underpay its workers. And we will look at a few possible…</t>
+  </si>
+  <si>
+    <t>To all the econ papers I've loved before</t>
+  </si>
+  <si>
+    <t>It's Groundhog Day, and once again, the eyes of the nation have turned to a small town in Western Pennsylvania. Every February 2nd, the only story anyone can talk about is whether or not Punxsutawney Phil will see his own shadow. If he does: six more weeks of winter. If he doesn't: spring is on its way.
+This year, in a cruel twist of fate reminiscent of the 1993 movie Groundhog Day, two Planet Money hosts have found themselves facing a curse. They'll be trapped in this never-ending groundhog news cycle until they can find a new February 2nd story to tell...something that has nothing to do with one furry prognosticator... something that changed the economy forever.
+So rise and shine campers, and don't forget your booties as we journey through a series of Groundhog Days past to try to find a historical scoop.
+This show was produced by Dave Blanchard and edited by Sally Helm. It was engineered by Robert Rodriguez and Gilly Moon and fact-checked by Sierra Juarez. Planet Money's acting e…</t>
+  </si>
+  <si>
+    <t>The story of "Monopoly" and American capitalism</t>
+  </si>
+  <si>
+    <t>A great economics paper does two things. It takes on a big question, and it finds a smart way to answer that question.
+But some papers go even further. The very best papers have the power to change lives.That was the case for three economists we spoke to: Nancy Qian, Belinda Archibong, and Kyle Greenberg.
+They all stumbled on important economics papers at crucial moments in their careers, and those papers gave them a new way to see the world. On today's show - how economics papers on the Pentecostal church in Ghana, the Vietnam war draft, and the price of butter in Sweden shaped the courses of three lives.
+This episode was produced by Sam Yellowhorse Kesler. It was edited by Keith Romer. Sierra Juarez checked the facts, and it was mastered by Natasha Branch with help from Gilly Moon. Jess Jiang is our acting executive producer.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Charles Ponzi's scheme</t>
+  </si>
+  <si>
+    <t>Monopoly is one of the best-selling board games in history.
+The game's staying power may in part be because of strong American lore — the idea that anyone, with just a little bit of cash, can rise from rags to riches. Mary Pilon, author of The Monopolists: Obsession, Fury, and the Scandal Behind the World's Favorite Board Game.
+But there's another origin story – a very different one that promotes a very different image of capitalism. (And with two sets of starkly different rules.) That story shows how a critique of capitalism grew from a seed of an idea in a rebellious young woman's mind into a game legendary for its celebration of wealth at all costs.
+This episode was made in collaboration with NPR's Throughline. For more about the origin story of Monopoly, listen to their original episode Do Not Pass Go.
+This episode was produced by Emma Peaslee, mastered by Natasha Branch, and edited by Jess Jiang.
+The Throughline episode was produced by Rund Abdelfatah, Ramtin Arablouei, La…</t>
+  </si>
+  <si>
+    <t>Big Rigged (Classic)</t>
+  </si>
+  <si>
+    <t>Some of history's biggest financial scams owe their name to Charles Ponzi. Here's the story of the man behind the eponymous scheme.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Two Indicators: The 2% inflation target</t>
+  </si>
+  <si>
+    <t>Driving a truck used to mean freedom. Now it means a mountain of debt.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Planet Money Movie Club: It's a Wonderful Life</t>
+  </si>
+  <si>
+    <t>If the Fed had a mantra to go along with its mandate, it might well be "two percent." We look into how that became the target inflation rate, why some economists are calling for a change and how the inflation rate becomes unanchored.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>The economics lessons in kids' books</t>
+  </si>
+  <si>
+    <t>Welcome to the Planet Money Movie Club, a regular series from Planet Money+ in which we watch an economics-related movie and discuss! On today's episode, Kenny Malone, Wailin Wong, and Willa Rubin talk about Frank Capra's 1946 classic 'It's A Wonderful Life.' They discuss CPI adjustments, how a copyright lapse helped make the film more popular, and what exactly a 'Building and Loan' is.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>The Rest of the Story, 2022</t>
+  </si>
+  <si>
+    <t>All sorts of lessons (even about economics) can be learned from kids' books. On today's show, we visit an elementary school to try to teach third graders econ using some beloved childrens' classics. And, along the way, we learn a few things ourselves.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Which economic indicator defined 2022?</t>
+  </si>
+  <si>
+    <t>It's that time of year again! Our annual year-end tradition of checking in on previous stories to hear what happened after the microphones stopped running.
+We'll hear from a CEO who was trying to get her company out of Russia amidst the war in Ukraine, check in with an organizer who was trying to turn his community into a city, follow-up on our experiment in polling, and get the latest from our record label — Planet Money Records. Plus, we learn of a romance sparked by a podcast episode!
+Check out the original stories:
+Eagles vs. Chickens
+Escape from Russia
+A tale of two cityhoods
+Planet Money tries election polling
+The $100 million deli
+Planet Money Records Vol. 1: Earnest Jackson
+Planet Money Records Vol. 2: The Negotiation
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>In defense of gift giving</t>
+  </si>
+  <si>
+    <t>2022 was a year of big economic changes. But what economic story most defined the year? Our hosts from Planet Money and The Indicator battle it out over what should be crowned the indicator of the year. Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Two Indicators: The fight over ESG investing</t>
+  </si>
+  <si>
+    <t>Cold economic reasoning says, supposedly, that gifts are inefficient transfers of wealth. But Planet Money host Jeff Guo believes in the economic virtues of gift giving. On today's show, Jeff tries to win over Planet Money's resident Scrooge, Kenny Malone, by going on a quest to find him the perfect gift. Along the way, they're visited by the spirits of three Nobel prize-winning economic theories that can explain why gift-giving is actually good. And by the end, Kenny's heart may just grow three sizes larger. Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>The sports ticket price enigma</t>
+  </si>
+  <si>
+    <t>"ESG" investing – Environmental, Social, Governance – has attracted a lot of attention from investors, and from Republican politicians who call it "woke investing." On today's show, what the fight over ESG reveals about the potential and limitations of sustainable investing.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>Spam call bounty hunter</t>
+  </si>
+  <si>
+    <t>Inflation is making prices go up, except not for...sports tickets? So, we set out on a daylong sporting event marathon to learn why.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>The case of the missing cheese racks</t>
+  </si>
+  <si>
+    <t>Telemarketing calls are not only annoying; in some cases, they are illegal. Congress even gives you the right to sue scofflaw telemarketers for $500 a call. Today, the story of one man who collected a surprising amount of money bringing telemarketers to justice.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
+    <t>When women stopped coding (Classic)</t>
+  </si>
+  <si>
+    <t>Jelle Peterse's company ships cheese all over the world, but they don't always get their cheese racks back. In this episode, we try to fix a supply chain problem. Gouda grief!
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>My Favorite Tax Loophole</t>
+  </si>
+  <si>
+    <t>A lot of computing pioneers were women. For decades, the number of women in computer science was growing. But in 1984, something changed.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney.</t>
+  </si>
+  <si>
+    <t>Messi economics</t>
+  </si>
+  <si>
+    <t>There's a big difference between tax avoidance and tax evasion. But sometimes even avoiding taxes (legally) can feel like you're getting away with something. Today, we share some of our — and your! — favorite loopholes in the U.S. tax code.
+Subscribe to Planet Money+ in Apple Podcasts or at plus.npr.org/planetmoney</t>
+  </si>
+  <si>
     <t>Reggie Watts</t>
   </si>
   <si>
@@ -5874,9 +7082,6 @@
   </si>
   <si>
     <t>Jake Tapper Returns</t>
-  </si>
-  <si>
-    <t>17 min</t>
   </si>
   <si>
     <t>Conan chats with Greg in Kildare about playing the bassoon in a symphony orchestra.</t>
@@ -6296,7 +7501,17 @@
 Penn sits down with Conan to discuss his journey to Hollywood as a child actor, the value of educating yourself, and THAT scene from his Netflix series YOU. Conan shares his love of Gossip Girl and pitches an alternate version as a sketch. Stick around for the end, where Conan and the team try on Tracy Morgan's favorite cologne.</t>
   </si>
   <si>
+    <t>Money Talks: Touring America’s industrial revival</t>
+  </si>
+  <si>
     <t>The Intelligence: higher-for-longer interest rates</t>
+  </si>
+  <si>
+    <t>President Joe Biden’s Inflation Reduction Act promised $370bn for green infrastructure and industry. It has spurred a surge in massive construction efforts such as battery plants and electric-vehicle factories. Our correspondent goes on a road trip, visiting small towns with big new projects under way and gauging the success of Mr Biden’s economic policy so far.
+Hosts: Alice Fulwood, Tom Lee-Devlin and Henry Tricks
+Runtime: 44 min
+This is a free episode of Money Talks. To listen every week, sign up for a free trial of Economist Podcasts+. If you’re already a subscriber to The Economist, you have full access to all our shows as part of your subscription.For more information about how to access Economist Podcasts+, please visit our FAQs page or watch our video explaining how to link your account.
+ Hosted on Acast. See acast.com/privacy for more information.</t>
   </si>
   <si>
     <t>The Intelligence: Asia’s transnational crime gangs</t>
@@ -6335,7 +7550,7 @@
     <t>The Weekend Intelligence: The hope and the heartbreak of IVF</t>
   </si>
   <si>
-    <t>Israeli troops are gearing up to enter Gaza city, bracing for the next round of urban warfare. Our correspondent spends some time with a brigade on the frontlines. How prepared are they for the task ahead? The pandemic is over, so why are consumers still staying home, alone, and withdrawing from social activities (09:16)? And, why Gen-Z isn’t the only group “quiet quitting” (17:40).
+    <t>Israeli troops are gearing up to enter Gaza city, bracing for the next round of urban warfare. Our correspondent spends some time with a brigade on the front-lines. How prepared are they for the task ahead? The pandemic is over, so why are consumers still staying home, alone, and withdrawing from social activities (09:16)? And, why Gen-Z isn’t the only group “quiet quitting” (17:40).
 Sign up for a free trial of Economist Podcasts+
 If you’re already a subscriber to The Economist, you’ll have full access to all our shows as part of your subscription.
 For more information about how to access Economist Podcasts+, please visit our FAQs page or watch our video explaining how to link your account.
@@ -7192,13 +8407,6 @@
   <si>
     <t>Wiping out a tenth of the world? Possible. Wiping out all of humanity? Less likely, but not entirely impossible. We examine how two groups of experts have arrived at these worrying predictions about AI. Education is giving hope to inmates in a maximum security prison in New York (11:17). And, on Britain’s working men’s clubs which have nurtured rock bands for decades (18:00).
 For full access to print, digital and audio editions of The Economist, try a free 30-day digital subscription by going to www.economist.com/intelligenceoffer
- Hosted on Acast. See acast.com/privacy for more information.</t>
-  </si>
-  <si>
-    <t>States, disunited: the controversy around cluster bombs</t>
-  </si>
-  <si>
-    <t>Mark Rutte is stepping down after leading the Netherlands for 13 years. Despite his renowned political survival skills, our correspondent explains why it was migration policy that brought about his downfall. As the NATO summit kicks off, what are the alliance’s plans for defending Europe (9:30)? And a look at the changing face of Britain’s lighthouses (19:00).
  Hosted on Acast. See acast.com/privacy for more information.</t>
   </si>
 </sst>
@@ -8836,7 +10044,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
@@ -8880,7 +10088,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B149" t="s">
         <v>363</v>
@@ -9019,6 +10227,2224 @@
       </c>
       <c r="C161" t="s">
         <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C17" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C20" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C27" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C30" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C32" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C34" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C37" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C48" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C53" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C54" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C55" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C56" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C57" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C60" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C62" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C64" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C70" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C72" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C74" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C78" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C81" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C84" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C85" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C91" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C93" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C95" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C97" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C99" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C27" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C28" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C32" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C33" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C34" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C35" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C36" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C39" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C40" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C44" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C46" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C48" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C51" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C52" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C53" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C54" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C55" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C57" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C58" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C59" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C60" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C61" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C62" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C63" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C64" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C65" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C66" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C69" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C70" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C71" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C72" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C74" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C76" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C77" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C78" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C80" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C81" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C82" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C83" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C84" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C85" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C86" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C89" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C90" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C91" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C98" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -10188,65 +13614,65 @@
         <v>644</v>
       </c>
       <c r="B5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" t="s">
         <v>645</v>
-      </c>
-      <c r="C5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C8" t="s">
-        <v>639</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B10" t="s">
         <v>656</v>
       </c>
       <c r="C10" t="s">
-        <v>655</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
@@ -10265,21 +13691,21 @@
         <v>660</v>
       </c>
       <c r="B12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" t="s">
         <v>661</v>
-      </c>
-      <c r="C12" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B13" t="s">
         <v>664</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14">
@@ -10309,54 +13735,54 @@
         <v>671</v>
       </c>
       <c r="B16" t="s">
+        <v>673</v>
+      </c>
+      <c r="C16" t="s">
         <v>672</v>
-      </c>
-      <c r="C16" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C18" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B19" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B20" t="s">
         <v>681</v>
       </c>
       <c r="C20" t="s">
-        <v>680</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21">
@@ -10375,40 +13801,40 @@
         <v>685</v>
       </c>
       <c r="B22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C22" t="s">
         <v>686</v>
-      </c>
-      <c r="C22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B23" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C23" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C24" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C25" t="s">
         <v>683</v>
@@ -10416,13 +13842,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B26" t="s">
         <v>695</v>
       </c>
       <c r="C26" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27">
@@ -10430,21 +13856,21 @@
         <v>696</v>
       </c>
       <c r="B27" t="s">
+        <v>698</v>
+      </c>
+      <c r="C27" t="s">
         <v>697</v>
-      </c>
-      <c r="C27" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B28" t="s">
         <v>700</v>
       </c>
       <c r="C28" t="s">
-        <v>699</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
@@ -10466,7 +13892,7 @@
         <v>704</v>
       </c>
       <c r="C30" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31">
@@ -10477,7 +13903,7 @@
         <v>706</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32">
@@ -10488,7 +13914,7 @@
         <v>708</v>
       </c>
       <c r="C32" t="s">
-        <v>694</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33">
@@ -10499,7 +13925,7 @@
         <v>710</v>
       </c>
       <c r="C33" t="s">
-        <v>540</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34">
@@ -10510,7 +13936,7 @@
         <v>712</v>
       </c>
       <c r="C34" t="s">
-        <v>669</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35">
@@ -10521,7 +13947,7 @@
         <v>714</v>
       </c>
       <c r="C35" t="s">
-        <v>540</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36">
@@ -10532,7 +13958,7 @@
         <v>716</v>
       </c>
       <c r="C36" t="s">
-        <v>658</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37">
@@ -10543,7 +13969,7 @@
         <v>718</v>
       </c>
       <c r="C37" t="s">
-        <v>432</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38">
@@ -10554,7 +13980,7 @@
         <v>720</v>
       </c>
       <c r="C38" t="s">
-        <v>639</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39">
@@ -10565,7 +13991,7 @@
         <v>722</v>
       </c>
       <c r="C39" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40">
@@ -10587,7 +14013,7 @@
         <v>726</v>
       </c>
       <c r="C41" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42">
@@ -10598,7 +14024,7 @@
         <v>728</v>
       </c>
       <c r="C42" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43">
@@ -10609,7 +14035,7 @@
         <v>730</v>
       </c>
       <c r="C43" t="s">
-        <v>432</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44">
@@ -10620,7 +14046,7 @@
         <v>732</v>
       </c>
       <c r="C44" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45">
@@ -10631,7 +14057,7 @@
         <v>734</v>
       </c>
       <c r="C45" t="s">
-        <v>699</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46">
@@ -10642,7 +14068,7 @@
         <v>736</v>
       </c>
       <c r="C46" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47">
@@ -10653,7 +14079,7 @@
         <v>738</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48">
@@ -10664,7 +14090,7 @@
         <v>740</v>
       </c>
       <c r="C48" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49">
@@ -10675,7 +14101,7 @@
         <v>742</v>
       </c>
       <c r="C49" t="s">
-        <v>610</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
@@ -10686,7 +14112,7 @@
         <v>744</v>
       </c>
       <c r="C50" t="s">
-        <v>683</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51">
@@ -10697,7 +14123,7 @@
         <v>746</v>
       </c>
       <c r="C51" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="52">
@@ -10708,7 +14134,7 @@
         <v>748</v>
       </c>
       <c r="C52" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53">
@@ -10719,7 +14145,7 @@
         <v>750</v>
       </c>
       <c r="C53" t="s">
-        <v>540</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54">
@@ -10730,7 +14156,7 @@
         <v>752</v>
       </c>
       <c r="C54" t="s">
-        <v>663</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55">
@@ -10741,7 +14167,7 @@
         <v>754</v>
       </c>
       <c r="C55" t="s">
-        <v>435</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56">
@@ -10752,7 +14178,7 @@
         <v>756</v>
       </c>
       <c r="C56" t="s">
-        <v>694</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57">
@@ -10763,7 +14189,7 @@
         <v>758</v>
       </c>
       <c r="C57" t="s">
-        <v>531</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58">
@@ -10774,7 +14200,7 @@
         <v>760</v>
       </c>
       <c r="C58" t="s">
-        <v>669</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59">
@@ -10785,7 +14211,7 @@
         <v>762</v>
       </c>
       <c r="C59" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60">
@@ -10796,7 +14222,7 @@
         <v>764</v>
       </c>
       <c r="C60" t="s">
-        <v>467</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61">
@@ -10807,7 +14233,7 @@
         <v>766</v>
       </c>
       <c r="C61" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62">
@@ -10818,7 +14244,7 @@
         <v>768</v>
       </c>
       <c r="C62" t="s">
-        <v>669</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63">
@@ -10829,7 +14255,7 @@
         <v>770</v>
       </c>
       <c r="C63" t="s">
-        <v>490</v>
+        <v>672</v>
       </c>
     </row>
     <row r="64">
@@ -10840,7 +14266,7 @@
         <v>772</v>
       </c>
       <c r="C64" t="s">
-        <v>663</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65">
@@ -10851,7 +14277,7 @@
         <v>774</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66">
@@ -10862,7 +14288,7 @@
         <v>776</v>
       </c>
       <c r="C66" t="s">
-        <v>642</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67">
@@ -10873,7 +14299,7 @@
         <v>778</v>
       </c>
       <c r="C67" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68">
@@ -10884,7 +14310,7 @@
         <v>780</v>
       </c>
       <c r="C68" t="s">
-        <v>487</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69">
@@ -10895,7 +14321,7 @@
         <v>782</v>
       </c>
       <c r="C69" t="s">
-        <v>669</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70">
@@ -10906,7 +14332,7 @@
         <v>784</v>
       </c>
       <c r="C70" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71">
@@ -10917,7 +14343,7 @@
         <v>786</v>
       </c>
       <c r="C71" t="s">
-        <v>583</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72">
@@ -10928,7 +14354,7 @@
         <v>788</v>
       </c>
       <c r="C72" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73">
@@ -10939,7 +14365,7 @@
         <v>790</v>
       </c>
       <c r="C73" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74">
@@ -10950,7 +14376,7 @@
         <v>792</v>
       </c>
       <c r="C74" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75">
@@ -10961,7 +14387,7 @@
         <v>794</v>
       </c>
       <c r="C75" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="76">
@@ -10972,7 +14398,7 @@
         <v>796</v>
       </c>
       <c r="C76" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77">
@@ -10983,7 +14409,7 @@
         <v>798</v>
       </c>
       <c r="C77" t="s">
-        <v>487</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78">
@@ -10994,7 +14420,7 @@
         <v>800</v>
       </c>
       <c r="C78" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79">
@@ -11005,7 +14431,7 @@
         <v>802</v>
       </c>
       <c r="C79" t="s">
-        <v>680</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80">
@@ -11016,7 +14442,7 @@
         <v>804</v>
       </c>
       <c r="C80" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81">
@@ -11027,7 +14453,7 @@
         <v>806</v>
       </c>
       <c r="C81" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82">
@@ -11038,7 +14464,7 @@
         <v>808</v>
       </c>
       <c r="C82" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83">
@@ -11049,7 +14475,7 @@
         <v>810</v>
       </c>
       <c r="C83" t="s">
-        <v>426</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84">
@@ -11060,7 +14486,7 @@
         <v>812</v>
       </c>
       <c r="C84" t="s">
-        <v>699</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85">
@@ -11068,21 +14494,21 @@
         <v>813</v>
       </c>
       <c r="B85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C85" t="s">
-        <v>814</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B86" t="s">
         <v>817</v>
       </c>
       <c r="C86" t="s">
-        <v>642</v>
+        <v>816</v>
       </c>
     </row>
     <row r="87">
@@ -11093,7 +14519,7 @@
         <v>819</v>
       </c>
       <c r="C87" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88">
@@ -11104,7 +14530,7 @@
         <v>821</v>
       </c>
       <c r="C88" t="s">
-        <v>694</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89">
@@ -11112,21 +14538,21 @@
         <v>822</v>
       </c>
       <c r="B89" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C89" t="s">
-        <v>823</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B90" t="s">
         <v>826</v>
       </c>
       <c r="C90" t="s">
-        <v>694</v>
+        <v>825</v>
       </c>
     </row>
     <row r="91">
@@ -11137,7 +14563,7 @@
         <v>828</v>
       </c>
       <c r="C91" t="s">
-        <v>432</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92">
@@ -11148,7 +14574,7 @@
         <v>830</v>
       </c>
       <c r="C92" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93">
@@ -11159,7 +14585,7 @@
         <v>832</v>
       </c>
       <c r="C93" t="s">
-        <v>655</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94">
@@ -11170,7 +14596,7 @@
         <v>834</v>
       </c>
       <c r="C94" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95">
@@ -11181,7 +14607,7 @@
         <v>836</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96">
@@ -11192,7 +14618,7 @@
         <v>838</v>
       </c>
       <c r="C96" t="s">
-        <v>814</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97">
@@ -11203,7 +14629,7 @@
         <v>840</v>
       </c>
       <c r="C97" t="s">
-        <v>663</v>
+        <v>816</v>
       </c>
     </row>
     <row r="98">
@@ -11214,7 +14640,7 @@
         <v>842</v>
       </c>
       <c r="C98" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="99">
@@ -11225,7 +14651,7 @@
         <v>844</v>
       </c>
       <c r="C99" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100">
@@ -11236,7 +14662,7 @@
         <v>846</v>
       </c>
       <c r="C100" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -11311,7 +14737,7 @@
         <v>856</v>
       </c>
       <c r="C6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7">
@@ -11333,7 +14759,7 @@
         <v>861</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9">
@@ -11377,7 +14803,7 @@
         <v>870</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13">
@@ -11674,7 +15100,7 @@
         <v>926</v>
       </c>
       <c r="C39" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40">
@@ -11894,7 +15320,7 @@
         <v>968</v>
       </c>
       <c r="C59" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60">
@@ -12387,7 +15813,7 @@
         <v>1055</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4">
@@ -12398,7 +15824,7 @@
         <v>1057</v>
       </c>
       <c r="C4" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5">
@@ -12409,7 +15835,7 @@
         <v>1059</v>
       </c>
       <c r="C5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6">
@@ -12420,7 +15846,7 @@
         <v>1061</v>
       </c>
       <c r="C6" t="s">
-        <v>814</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7">
@@ -12431,7 +15857,7 @@
         <v>1063</v>
       </c>
       <c r="C7" t="s">
-        <v>639</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8">
@@ -12442,7 +15868,7 @@
         <v>1065</v>
       </c>
       <c r="C8" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9">
@@ -12453,7 +15879,7 @@
         <v>1067</v>
       </c>
       <c r="C9" t="s">
-        <v>912</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10">
@@ -12464,7 +15890,7 @@
         <v>1069</v>
       </c>
       <c r="C10" t="s">
-        <v>642</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11">
@@ -12475,7 +15901,7 @@
         <v>1071</v>
       </c>
       <c r="C11" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12">
@@ -12486,7 +15912,7 @@
         <v>1073</v>
       </c>
       <c r="C12" t="s">
-        <v>540</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13">
@@ -12497,7 +15923,7 @@
         <v>1075</v>
       </c>
       <c r="C13" t="s">
-        <v>639</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
@@ -12508,7 +15934,7 @@
         <v>1077</v>
       </c>
       <c r="C14" t="s">
-        <v>865</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15">
@@ -12519,7 +15945,7 @@
         <v>1079</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>865</v>
       </c>
     </row>
     <row r="16">
@@ -12530,7 +15956,7 @@
         <v>1081</v>
       </c>
       <c r="C16" t="s">
-        <v>639</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17">
@@ -12541,7 +15967,7 @@
         <v>1083</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18">
@@ -12552,7 +15978,7 @@
         <v>1085</v>
       </c>
       <c r="C18" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19">
@@ -12563,7 +15989,7 @@
         <v>1087</v>
       </c>
       <c r="C19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20">
@@ -12574,7 +16000,7 @@
         <v>1089</v>
       </c>
       <c r="C20" t="s">
-        <v>865</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21">
@@ -12585,7 +16011,7 @@
         <v>1091</v>
       </c>
       <c r="C21" t="s">
-        <v>699</v>
+        <v>865</v>
       </c>
     </row>
     <row r="22">
@@ -12596,7 +16022,7 @@
         <v>1093</v>
       </c>
       <c r="C22" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23">
@@ -12607,7 +16033,7 @@
         <v>1095</v>
       </c>
       <c r="C23" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24">
@@ -12615,21 +16041,21 @@
         <v>1096</v>
       </c>
       <c r="B24" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C24" t="s">
-        <v>1097</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B25" t="s">
         <v>1100</v>
       </c>
       <c r="C25" t="s">
-        <v>912</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26">
@@ -12640,7 +16066,7 @@
         <v>1102</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27">
@@ -12651,7 +16077,7 @@
         <v>1104</v>
       </c>
       <c r="C27" t="s">
-        <v>669</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28">
@@ -12662,7 +16088,7 @@
         <v>1106</v>
       </c>
       <c r="C28" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29">
@@ -12673,7 +16099,7 @@
         <v>1108</v>
       </c>
       <c r="C29" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30">
@@ -12684,7 +16110,7 @@
         <v>1110</v>
       </c>
       <c r="C30" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31">
@@ -12695,7 +16121,7 @@
         <v>1112</v>
       </c>
       <c r="C31" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32">
@@ -12706,7 +16132,7 @@
         <v>1114</v>
       </c>
       <c r="C32" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33">
@@ -12717,7 +16143,7 @@
         <v>1116</v>
       </c>
       <c r="C33" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34">
@@ -12728,7 +16154,7 @@
         <v>1118</v>
       </c>
       <c r="C34" t="s">
-        <v>912</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35">
@@ -12750,7 +16176,7 @@
         <v>1122</v>
       </c>
       <c r="C36" t="s">
-        <v>559</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37">
@@ -12761,7 +16187,7 @@
         <v>1124</v>
       </c>
       <c r="C37" t="s">
-        <v>658</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38">
@@ -12772,7 +16198,7 @@
         <v>1126</v>
       </c>
       <c r="C38" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="39">
@@ -12783,7 +16209,7 @@
         <v>1128</v>
       </c>
       <c r="C39" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40">
@@ -12794,7 +16220,7 @@
         <v>1130</v>
       </c>
       <c r="C40" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41">
@@ -12805,7 +16231,7 @@
         <v>1132</v>
       </c>
       <c r="C41" t="s">
-        <v>467</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42">
@@ -12816,7 +16242,7 @@
         <v>1134</v>
       </c>
       <c r="C42" t="s">
-        <v>639</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43">
@@ -12827,7 +16253,7 @@
         <v>1136</v>
       </c>
       <c r="C43" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44">
@@ -12849,7 +16275,7 @@
         <v>1140</v>
       </c>
       <c r="C45" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46">
@@ -12871,7 +16297,7 @@
         <v>1144</v>
       </c>
       <c r="C47" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48">
@@ -12882,7 +16308,7 @@
         <v>1146</v>
       </c>
       <c r="C48" t="s">
-        <v>865</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49">
@@ -12893,7 +16319,7 @@
         <v>1148</v>
       </c>
       <c r="C49" t="s">
-        <v>663</v>
+        <v>865</v>
       </c>
     </row>
     <row r="50">
@@ -12904,7 +16330,7 @@
         <v>1150</v>
       </c>
       <c r="C50" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51">
@@ -12926,7 +16352,7 @@
         <v>1154</v>
       </c>
       <c r="C52" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53">
@@ -12937,7 +16363,7 @@
         <v>1156</v>
       </c>
       <c r="C53" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54">
@@ -12948,7 +16374,7 @@
         <v>1158</v>
       </c>
       <c r="C54" t="s">
-        <v>865</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55">
@@ -12959,7 +16385,7 @@
         <v>1160</v>
       </c>
       <c r="C55" t="s">
-        <v>699</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56">
@@ -12970,7 +16396,7 @@
         <v>1162</v>
       </c>
       <c r="C56" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57">
@@ -12981,7 +16407,7 @@
         <v>1164</v>
       </c>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58">
@@ -12992,7 +16418,7 @@
         <v>1166</v>
       </c>
       <c r="C58" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59">
@@ -13003,7 +16429,7 @@
         <v>1168</v>
       </c>
       <c r="C59" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60">
@@ -13014,7 +16440,7 @@
         <v>1170</v>
       </c>
       <c r="C60" t="s">
-        <v>865</v>
+        <v>661</v>
       </c>
     </row>
     <row r="61">
@@ -13025,7 +16451,7 @@
         <v>1172</v>
       </c>
       <c r="C61" t="s">
-        <v>663</v>
+        <v>865</v>
       </c>
     </row>
     <row r="62">
@@ -13036,7 +16462,7 @@
         <v>1174</v>
       </c>
       <c r="C62" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63">
@@ -13047,7 +16473,7 @@
         <v>1176</v>
       </c>
       <c r="C63" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64">
@@ -13058,7 +16484,7 @@
         <v>1178</v>
       </c>
       <c r="C64" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65">
@@ -13069,7 +16495,7 @@
         <v>1180</v>
       </c>
       <c r="C65" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66">
@@ -13080,7 +16506,7 @@
         <v>1182</v>
       </c>
       <c r="C66" t="s">
-        <v>912</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67">
@@ -13091,7 +16517,7 @@
         <v>1184</v>
       </c>
       <c r="C67" t="s">
-        <v>814</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68">
@@ -13102,7 +16528,7 @@
         <v>1186</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69">
@@ -13113,7 +16539,7 @@
         <v>1188</v>
       </c>
       <c r="C69" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70">
@@ -13124,7 +16550,7 @@
         <v>1190</v>
       </c>
       <c r="C70" t="s">
-        <v>663</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
@@ -13135,7 +16561,7 @@
         <v>1192</v>
       </c>
       <c r="C71" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72">
@@ -13146,7 +16572,7 @@
         <v>1194</v>
       </c>
       <c r="C72" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73">
@@ -13157,7 +16583,7 @@
         <v>1196</v>
       </c>
       <c r="C73" t="s">
-        <v>865</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74">
@@ -13168,7 +16594,7 @@
         <v>1198</v>
       </c>
       <c r="C74" t="s">
-        <v>629</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75">
@@ -13179,7 +16605,7 @@
         <v>1200</v>
       </c>
       <c r="C75" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76">
@@ -13190,7 +16616,7 @@
         <v>1202</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77">
@@ -13201,7 +16627,7 @@
         <v>1204</v>
       </c>
       <c r="C77" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78">
@@ -13212,7 +16638,7 @@
         <v>1206</v>
       </c>
       <c r="C78" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79">
@@ -13223,7 +16649,7 @@
         <v>1208</v>
       </c>
       <c r="C79" t="s">
-        <v>814</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80">
@@ -13234,7 +16660,7 @@
         <v>1210</v>
       </c>
       <c r="C80" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81">
@@ -13245,7 +16671,7 @@
         <v>1212</v>
       </c>
       <c r="C81" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82">
@@ -13256,7 +16682,7 @@
         <v>1214</v>
       </c>
       <c r="C82" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83">
@@ -13267,7 +16693,7 @@
         <v>1216</v>
       </c>
       <c r="C83" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
     </row>
     <row r="84">
@@ -13278,7 +16704,7 @@
         <v>1218</v>
       </c>
       <c r="C84" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85">
@@ -13289,7 +16715,7 @@
         <v>1220</v>
       </c>
       <c r="C85" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86">
@@ -13300,7 +16726,7 @@
         <v>1222</v>
       </c>
       <c r="C86" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87">
@@ -13311,7 +16737,7 @@
         <v>1224</v>
       </c>
       <c r="C87" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88">
@@ -13322,7 +16748,7 @@
         <v>1226</v>
       </c>
       <c r="C88" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89">
@@ -13333,7 +16759,7 @@
         <v>1228</v>
       </c>
       <c r="C89" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90">
@@ -13344,7 +16770,7 @@
         <v>1230</v>
       </c>
       <c r="C90" t="s">
-        <v>461</v>
+        <v>658</v>
       </c>
     </row>
     <row r="91">
@@ -13355,7 +16781,7 @@
         <v>1232</v>
       </c>
       <c r="C91" t="s">
-        <v>699</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92">
@@ -13366,7 +16792,7 @@
         <v>1234</v>
       </c>
       <c r="C92" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93">
@@ -13377,7 +16803,7 @@
         <v>1236</v>
       </c>
       <c r="C93" t="s">
-        <v>912</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94">
@@ -13388,7 +16814,7 @@
         <v>1238</v>
       </c>
       <c r="C94" t="s">
-        <v>639</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95">
@@ -13410,7 +16836,7 @@
         <v>1242</v>
       </c>
       <c r="C96" t="s">
-        <v>814</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97">
@@ -13421,7 +16847,7 @@
         <v>1244</v>
       </c>
       <c r="C97" t="s">
-        <v>639</v>
+        <v>816</v>
       </c>
     </row>
     <row r="98">
@@ -13432,7 +16858,7 @@
         <v>1246</v>
       </c>
       <c r="C98" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99">
@@ -13443,7 +16869,7 @@
         <v>1248</v>
       </c>
       <c r="C99" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100">
@@ -13454,7 +16880,7 @@
         <v>1250</v>
       </c>
       <c r="C100" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -13680,18 +17106,18 @@
         <v>1295</v>
       </c>
       <c r="B20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C20" t="s">
-        <v>1296</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B21" t="s">
         <v>1298</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1299</v>
       </c>
       <c r="C21" t="s">
         <v>583</v>
@@ -13699,10 +17125,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B22" t="s">
         <v>1300</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1301</v>
       </c>
       <c r="C22" t="s">
         <v>574</v>
@@ -13710,10 +17136,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B23" t="s">
         <v>1302</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1303</v>
       </c>
       <c r="C23" t="s">
         <v>414</v>
@@ -13721,10 +17147,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B24" t="s">
         <v>1304</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1305</v>
       </c>
       <c r="C24" t="s">
         <v>610</v>
@@ -13732,10 +17158,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B25" t="s">
         <v>1306</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1307</v>
       </c>
       <c r="C25" t="s">
         <v>1257</v>
@@ -13743,10 +17169,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B26" t="s">
         <v>1308</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1309</v>
       </c>
       <c r="C26" t="s">
         <v>1293</v>
@@ -13754,10 +17180,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B27" t="s">
         <v>1310</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1311</v>
       </c>
       <c r="C27" t="s">
         <v>426</v>
@@ -13765,10 +17191,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B28" t="s">
         <v>1312</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1313</v>
       </c>
       <c r="C28" t="s">
         <v>547</v>
@@ -13776,10 +17202,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B29" t="s">
         <v>1314</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1315</v>
       </c>
       <c r="C29" t="s">
         <v>1286</v>
@@ -13787,10 +17213,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B30" t="s">
         <v>1316</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1317</v>
       </c>
       <c r="C30" t="s">
         <v>1257</v>
@@ -13798,10 +17224,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B31" t="s">
         <v>1318</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1319</v>
       </c>
       <c r="C31" t="s">
         <v>411</v>
@@ -13809,10 +17235,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B32" t="s">
         <v>1320</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1321</v>
       </c>
       <c r="C32" t="s">
         <v>414</v>
@@ -13820,13 +17246,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B33" t="s">
         <v>1323</v>
       </c>
       <c r="C33" t="s">
-        <v>1296</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="34">
@@ -14387,7 +17813,7 @@
         <v>1429</v>
       </c>
       <c r="C84" t="s">
-        <v>1296</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="85">
@@ -14572,6 +17998,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C22" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C24" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -14592,61 +18454,61 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1462</v>
+        <v>1533</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1463</v>
+        <v>1534</v>
       </c>
       <c r="B3" t="s">
-        <v>1464</v>
+        <v>1535</v>
       </c>
       <c r="C3" t="s">
-        <v>1286</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1465</v>
+        <v>1536</v>
       </c>
       <c r="B4" t="s">
-        <v>1466</v>
+        <v>1537</v>
       </c>
       <c r="C4" t="s">
-        <v>1097</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1467</v>
+        <v>1538</v>
       </c>
       <c r="B5" t="s">
-        <v>1468</v>
+        <v>1539</v>
       </c>
       <c r="C5" t="s">
-        <v>1262</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1469</v>
+        <v>1540</v>
       </c>
       <c r="B6" t="s">
-        <v>1470</v>
+        <v>1541</v>
       </c>
       <c r="C6" t="s">
-        <v>1365</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1471</v>
+        <v>1542</v>
       </c>
       <c r="B7" t="s">
-        <v>1472</v>
+        <v>1543</v>
       </c>
       <c r="C7" t="s">
         <v>666</v>
@@ -14654,505 +18516,505 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1473</v>
+        <v>1544</v>
       </c>
       <c r="B8" t="s">
-        <v>1474</v>
+        <v>1545</v>
       </c>
       <c r="C8" t="s">
-        <v>923</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1475</v>
+        <v>1546</v>
       </c>
       <c r="B9" t="s">
-        <v>1476</v>
+        <v>1547</v>
       </c>
       <c r="C9" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1477</v>
+        <v>1548</v>
       </c>
       <c r="B10" t="s">
-        <v>1478</v>
+        <v>1549</v>
       </c>
       <c r="C10" t="s">
-        <v>583</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1479</v>
+        <v>1550</v>
       </c>
       <c r="B11" t="s">
-        <v>1480</v>
+        <v>1551</v>
       </c>
       <c r="C11" t="s">
-        <v>639</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1481</v>
+        <v>1552</v>
       </c>
       <c r="B12" t="s">
-        <v>1482</v>
+        <v>1553</v>
       </c>
       <c r="C12" t="s">
-        <v>1350</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1483</v>
+        <v>1554</v>
       </c>
       <c r="B13" t="s">
-        <v>1484</v>
+        <v>1555</v>
       </c>
       <c r="C13" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1485</v>
+        <v>1556</v>
       </c>
       <c r="B14" t="s">
-        <v>1487</v>
+        <v>1557</v>
       </c>
       <c r="C14" t="s">
-        <v>1486</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1488</v>
+        <v>1558</v>
       </c>
       <c r="B15" t="s">
-        <v>1489</v>
+        <v>1559</v>
       </c>
       <c r="C15" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1490</v>
+        <v>1560</v>
       </c>
       <c r="B16" t="s">
-        <v>1491</v>
+        <v>1561</v>
       </c>
       <c r="C16" t="s">
-        <v>1365</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1492</v>
+        <v>1562</v>
       </c>
       <c r="B17" t="s">
-        <v>1493</v>
+        <v>1563</v>
       </c>
       <c r="C17" t="s">
-        <v>865</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1494</v>
+        <v>1564</v>
       </c>
       <c r="B18" t="s">
-        <v>1495</v>
+        <v>1565</v>
       </c>
       <c r="C18" t="s">
-        <v>1262</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1496</v>
+        <v>1566</v>
       </c>
       <c r="B19" t="s">
-        <v>1497</v>
+        <v>1567</v>
       </c>
       <c r="C19" t="s">
-        <v>865</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1498</v>
+        <v>1568</v>
       </c>
       <c r="B20" t="s">
-        <v>1499</v>
+        <v>1569</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1500</v>
+        <v>1570</v>
       </c>
       <c r="B21" t="s">
-        <v>1501</v>
+        <v>1571</v>
       </c>
       <c r="C21" t="s">
-        <v>912</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1502</v>
+        <v>1572</v>
       </c>
       <c r="B22" t="s">
-        <v>1504</v>
+        <v>1573</v>
       </c>
       <c r="C22" t="s">
-        <v>1503</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1505</v>
+        <v>1574</v>
       </c>
       <c r="B23" t="s">
-        <v>1506</v>
+        <v>1575</v>
       </c>
       <c r="C23" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1507</v>
+        <v>1576</v>
       </c>
       <c r="B24" t="s">
-        <v>1508</v>
+        <v>1577</v>
       </c>
       <c r="C24" t="s">
-        <v>1329</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1509</v>
+        <v>1578</v>
       </c>
       <c r="B25" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="C25" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1511</v>
+        <v>1580</v>
       </c>
       <c r="B26" t="s">
-        <v>1512</v>
+        <v>1581</v>
       </c>
       <c r="C26" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1513</v>
+        <v>1582</v>
       </c>
       <c r="B27" t="s">
-        <v>1514</v>
+        <v>1583</v>
       </c>
       <c r="C27" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1515</v>
+        <v>1584</v>
       </c>
       <c r="B28" t="s">
-        <v>1516</v>
+        <v>1585</v>
       </c>
       <c r="C28" t="s">
-        <v>1329</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1517</v>
+        <v>1586</v>
       </c>
       <c r="B29" t="s">
-        <v>1518</v>
+        <v>1587</v>
       </c>
       <c r="C29" t="s">
-        <v>814</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1519</v>
+        <v>1588</v>
       </c>
       <c r="B30" t="s">
-        <v>1520</v>
+        <v>1589</v>
       </c>
       <c r="C30" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1521</v>
+        <v>1590</v>
       </c>
       <c r="B31" t="s">
-        <v>1522</v>
+        <v>1591</v>
       </c>
       <c r="C31" t="s">
-        <v>1376</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1523</v>
+        <v>1592</v>
       </c>
       <c r="B32" t="s">
-        <v>1524</v>
+        <v>1593</v>
       </c>
       <c r="C32" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1525</v>
+        <v>1594</v>
       </c>
       <c r="B33" t="s">
-        <v>1526</v>
+        <v>1595</v>
       </c>
       <c r="C33" t="s">
-        <v>1376</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1527</v>
+        <v>1596</v>
       </c>
       <c r="B34" t="s">
-        <v>1528</v>
+        <v>1597</v>
       </c>
       <c r="C34" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1529</v>
+        <v>1598</v>
       </c>
       <c r="B35" t="s">
-        <v>1530</v>
+        <v>1599</v>
       </c>
       <c r="C35" t="s">
-        <v>1376</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1531</v>
+        <v>1600</v>
       </c>
       <c r="B36" t="s">
-        <v>1532</v>
+        <v>1601</v>
       </c>
       <c r="C36" t="s">
-        <v>1097</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1533</v>
+        <v>1602</v>
       </c>
       <c r="B37" t="s">
-        <v>1534</v>
+        <v>1603</v>
       </c>
       <c r="C37" t="s">
-        <v>961</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1535</v>
+        <v>1604</v>
       </c>
       <c r="B38" t="s">
-        <v>1536</v>
+        <v>1605</v>
       </c>
       <c r="C38" t="s">
-        <v>1257</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1537</v>
+        <v>1606</v>
       </c>
       <c r="B39" t="s">
-        <v>1539</v>
+        <v>1607</v>
       </c>
       <c r="C39" t="s">
-        <v>1538</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1540</v>
+        <v>1608</v>
       </c>
       <c r="B40" t="s">
-        <v>1541</v>
+        <v>1609</v>
       </c>
       <c r="C40" t="s">
-        <v>552</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1542</v>
+        <v>1610</v>
       </c>
       <c r="B41" t="s">
-        <v>1543</v>
+        <v>1611</v>
       </c>
       <c r="C41" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1544</v>
+        <v>1612</v>
       </c>
       <c r="B42" t="s">
-        <v>1545</v>
+        <v>1613</v>
       </c>
       <c r="C42" t="s">
-        <v>1365</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1546</v>
+        <v>1614</v>
       </c>
       <c r="B43" t="s">
-        <v>1547</v>
+        <v>1615</v>
       </c>
       <c r="C43" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1548</v>
+        <v>1616</v>
       </c>
       <c r="B44" t="s">
-        <v>1549</v>
+        <v>1617</v>
       </c>
       <c r="C44" t="s">
-        <v>1296</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1550</v>
+        <v>1618</v>
       </c>
       <c r="B45" t="s">
-        <v>1551</v>
+        <v>1619</v>
       </c>
       <c r="C45" t="s">
-        <v>1097</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1552</v>
+        <v>1620</v>
       </c>
       <c r="B46" t="s">
-        <v>1553</v>
+        <v>1621</v>
       </c>
       <c r="C46" t="s">
-        <v>1503</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1554</v>
+        <v>1622</v>
       </c>
       <c r="B47" t="s">
-        <v>1555</v>
+        <v>1623</v>
       </c>
       <c r="C47" t="s">
-        <v>1286</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1556</v>
+        <v>1624</v>
       </c>
       <c r="B48" t="s">
-        <v>1557</v>
+        <v>1625</v>
       </c>
       <c r="C48" t="s">
-        <v>865</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1558</v>
+        <v>1626</v>
       </c>
       <c r="B49" t="s">
-        <v>1559</v>
+        <v>1627</v>
       </c>
       <c r="C49" t="s">
-        <v>1257</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1560</v>
+        <v>1628</v>
       </c>
       <c r="B50" t="s">
-        <v>1561</v>
+        <v>1629</v>
       </c>
       <c r="C50" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1562</v>
+        <v>1630</v>
       </c>
       <c r="B51" t="s">
-        <v>1563</v>
+        <v>1631</v>
       </c>
       <c r="C51" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1564</v>
+        <v>1632</v>
       </c>
       <c r="B52" t="s">
-        <v>1565</v>
+        <v>1633</v>
       </c>
       <c r="C52" t="s">
-        <v>1257</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1566</v>
+        <v>1634</v>
       </c>
       <c r="B53" t="s">
-        <v>1567</v>
+        <v>1635</v>
       </c>
       <c r="C53" t="s">
         <v>865</v>
@@ -15160,1628 +19022,519 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1568</v>
+        <v>1636</v>
       </c>
       <c r="B54" t="s">
-        <v>1569</v>
+        <v>1637</v>
       </c>
       <c r="C54" t="s">
-        <v>639</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1570</v>
+        <v>1638</v>
       </c>
       <c r="B55" t="s">
-        <v>1571</v>
+        <v>1639</v>
       </c>
       <c r="C55" t="s">
-        <v>552</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1572</v>
+        <v>1640</v>
       </c>
       <c r="B56" t="s">
-        <v>1573</v>
+        <v>1641</v>
       </c>
       <c r="C56" t="s">
-        <v>655</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1574</v>
+        <v>1642</v>
       </c>
       <c r="B57" t="s">
-        <v>1575</v>
+        <v>1643</v>
       </c>
       <c r="C57" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1576</v>
+        <v>1644</v>
       </c>
       <c r="B58" t="s">
-        <v>1577</v>
+        <v>1645</v>
       </c>
       <c r="C58" t="s">
-        <v>1257</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1578</v>
+        <v>1646</v>
       </c>
       <c r="B59" t="s">
-        <v>1579</v>
+        <v>1647</v>
       </c>
       <c r="C59" t="s">
-        <v>1097</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1580</v>
+        <v>1648</v>
       </c>
       <c r="B60" t="s">
-        <v>1581</v>
+        <v>1649</v>
       </c>
       <c r="C60" t="s">
-        <v>680</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1582</v>
+        <v>1650</v>
       </c>
       <c r="B61" t="s">
-        <v>1583</v>
+        <v>1651</v>
       </c>
       <c r="C61" t="s">
-        <v>1262</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1584</v>
+        <v>1652</v>
       </c>
       <c r="B62" t="s">
-        <v>1585</v>
+        <v>1653</v>
       </c>
       <c r="C62" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1586</v>
+        <v>1654</v>
       </c>
       <c r="B63" t="s">
-        <v>1587</v>
+        <v>1655</v>
       </c>
       <c r="C63" t="s">
-        <v>1286</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1588</v>
+        <v>1656</v>
       </c>
       <c r="B64" t="s">
-        <v>1589</v>
+        <v>1657</v>
       </c>
       <c r="C64" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1590</v>
+        <v>1658</v>
       </c>
       <c r="B65" t="s">
-        <v>1591</v>
+        <v>1659</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1592</v>
+        <v>1660</v>
       </c>
       <c r="B66" t="s">
-        <v>1593</v>
+        <v>1661</v>
       </c>
       <c r="C66" t="s">
-        <v>1097</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1594</v>
+        <v>1662</v>
       </c>
       <c r="B67" t="s">
-        <v>1595</v>
+        <v>1663</v>
       </c>
       <c r="C67" t="s">
-        <v>1262</v>
+        <v>661</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1596</v>
+        <v>1664</v>
       </c>
       <c r="B68" t="s">
-        <v>1597</v>
+        <v>1665</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1598</v>
+        <v>1666</v>
       </c>
       <c r="B69" t="s">
-        <v>1599</v>
+        <v>1667</v>
       </c>
       <c r="C69" t="s">
-        <v>1365</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1600</v>
+        <v>1668</v>
       </c>
       <c r="B70" t="s">
-        <v>1601</v>
+        <v>1669</v>
       </c>
       <c r="C70" t="s">
-        <v>655</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1602</v>
+        <v>1670</v>
       </c>
       <c r="B71" t="s">
-        <v>1603</v>
+        <v>1671</v>
       </c>
       <c r="C71" t="s">
-        <v>1365</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1604</v>
+        <v>1672</v>
       </c>
       <c r="B72" t="s">
-        <v>1605</v>
+        <v>1673</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>865</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1606</v>
+        <v>1674</v>
       </c>
       <c r="B73" t="s">
-        <v>1607</v>
+        <v>1675</v>
       </c>
       <c r="C73" t="s">
-        <v>1262</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1608</v>
+        <v>1676</v>
       </c>
       <c r="B74" t="s">
-        <v>1609</v>
+        <v>1677</v>
       </c>
       <c r="C74" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1610</v>
+        <v>1678</v>
       </c>
       <c r="B75" t="s">
-        <v>1611</v>
+        <v>1679</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1612</v>
+        <v>1680</v>
       </c>
       <c r="B76" t="s">
-        <v>1613</v>
+        <v>1681</v>
       </c>
       <c r="C76" t="s">
-        <v>1538</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1614</v>
+        <v>1682</v>
       </c>
       <c r="B77" t="s">
-        <v>1615</v>
+        <v>1683</v>
       </c>
       <c r="C77" t="s">
-        <v>583</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1616</v>
+        <v>1684</v>
       </c>
       <c r="B78" t="s">
-        <v>1617</v>
+        <v>1685</v>
       </c>
       <c r="C78" t="s">
-        <v>865</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1618</v>
+        <v>1686</v>
       </c>
       <c r="B79" t="s">
-        <v>1619</v>
+        <v>1687</v>
       </c>
       <c r="C79" t="s">
-        <v>1365</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1620</v>
+        <v>1688</v>
       </c>
       <c r="B80" t="s">
-        <v>1621</v>
+        <v>1689</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1622</v>
+        <v>1690</v>
       </c>
       <c r="B81" t="s">
-        <v>1623</v>
+        <v>1691</v>
       </c>
       <c r="C81" t="s">
-        <v>865</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1624</v>
+        <v>1692</v>
       </c>
       <c r="B82" t="s">
-        <v>1625</v>
+        <v>1693</v>
       </c>
       <c r="C82" t="s">
-        <v>1503</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1626</v>
+        <v>1694</v>
       </c>
       <c r="B83" t="s">
-        <v>1627</v>
+        <v>1695</v>
       </c>
       <c r="C83" t="s">
-        <v>1097</v>
+        <v>661</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1628</v>
+        <v>1696</v>
       </c>
       <c r="B84" t="s">
-        <v>1629</v>
+        <v>1697</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1630</v>
+        <v>1698</v>
       </c>
       <c r="B85" t="s">
-        <v>1631</v>
+        <v>1699</v>
       </c>
       <c r="C85" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1632</v>
+        <v>1700</v>
       </c>
       <c r="B86" t="s">
-        <v>1633</v>
+        <v>1701</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1634</v>
+        <v>1702</v>
       </c>
       <c r="B87" t="s">
-        <v>1635</v>
+        <v>1703</v>
       </c>
       <c r="C87" t="s">
-        <v>1538</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1636</v>
+        <v>1704</v>
       </c>
       <c r="B88" t="s">
-        <v>1637</v>
+        <v>1705</v>
       </c>
       <c r="C88" t="s">
-        <v>1262</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1638</v>
+        <v>1706</v>
       </c>
       <c r="B89" t="s">
-        <v>1639</v>
+        <v>1707</v>
       </c>
       <c r="C89" t="s">
-        <v>1538</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1640</v>
+        <v>1708</v>
       </c>
       <c r="B90" t="s">
-        <v>1641</v>
+        <v>1709</v>
       </c>
       <c r="C90" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1642</v>
+        <v>1710</v>
       </c>
       <c r="B91" t="s">
-        <v>1643</v>
+        <v>1711</v>
       </c>
       <c r="C91" t="s">
-        <v>912</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1644</v>
+        <v>1712</v>
       </c>
       <c r="B92" t="s">
-        <v>1645</v>
+        <v>1713</v>
       </c>
       <c r="C92" t="s">
-        <v>1257</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1646</v>
+        <v>1714</v>
       </c>
       <c r="B93" t="s">
-        <v>1647</v>
+        <v>1715</v>
       </c>
       <c r="C93" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1648</v>
+        <v>1716</v>
       </c>
       <c r="B94" t="s">
-        <v>1649</v>
+        <v>1717</v>
       </c>
       <c r="C94" t="s">
-        <v>1278</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1650</v>
+        <v>1718</v>
       </c>
       <c r="B95" t="s">
-        <v>1651</v>
+        <v>1719</v>
       </c>
       <c r="C95" t="s">
-        <v>540</v>
+        <v>658</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1652</v>
+        <v>1720</v>
       </c>
       <c r="B96" t="s">
-        <v>1653</v>
+        <v>1721</v>
       </c>
       <c r="C96" t="s">
-        <v>1275</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1654</v>
+        <v>1722</v>
       </c>
       <c r="B97" t="s">
-        <v>1655</v>
+        <v>1723</v>
       </c>
       <c r="C97" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1656</v>
+        <v>1724</v>
       </c>
       <c r="B98" t="s">
-        <v>1657</v>
+        <v>1725</v>
       </c>
       <c r="C98" t="s">
-        <v>1267</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1658</v>
+        <v>1726</v>
       </c>
       <c r="B99" t="s">
-        <v>1659</v>
+        <v>1727</v>
       </c>
       <c r="C99" t="s">
-        <v>655</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1660</v>
+        <v>1728</v>
       </c>
       <c r="B100" t="s">
-        <v>1661</v>
+        <v>1729</v>
       </c>
       <c r="C100" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C10" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C11" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C12" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C19" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C21" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C24" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C25" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C26" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C27" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C28" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C29" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C30" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C31" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C32" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C33" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C34" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C35" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C36" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C37" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C38" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C39" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C41" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C42" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C44" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C45" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C46" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C47" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C48" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C49" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C50" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C51" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C52" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C53" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C54" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C56" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C57" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C58" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C59" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C60" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C61" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C62" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C63" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C64" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C65" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C66" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C67" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C68" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C69" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C70" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C71" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C72" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C73" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C74" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C75" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C76" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C77" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C78" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C79" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C80" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C81" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C82" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C83" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C84" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C85" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C86" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C87" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C88" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C89" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C90" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C91" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C92" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C93" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C94" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C95" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C96" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C97" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C98" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C99" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C100" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/selenium-scraper/output.xlsx
+++ b/selenium-scraper/output.xlsx
@@ -39,7 +39,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRsIRoSCDf9z7Nz7mRdmaRiQJ3obsPPD4NVH3XwX5S6zPQISHw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDEQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDEQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Daily</t>
@@ -48,7 +48,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTjZt805JMihjChbsRmtabBwt86kFvGcdEdzg2Fg-rP_hPUo6We</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS81NG5BR2NJbA?sa=X&amp;ved=0CDIQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS81NG5BR2NJbA?sa=X&amp;ved=0CDIQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Dateline NBC</t>
@@ -57,7 +57,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQJ36WL9MOyebS0jX3DVPcib5FBanzh2LMhOisp4KC79gnlVlE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CDMQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CDMQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Front Burner</t>
@@ -66,7 +66,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRjpkNpLjD9ZArJ21ChivYR6dAuxkWJnCwJRTT5g1lKv0r_I2s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZnJvbnRidXJuZXIueG1s?sa=X&amp;ved=0CDQQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZnJvbnRidXJuZXIueG1s?sa=X&amp;ved=0CDQQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>SmartLess</t>
@@ -75,7 +75,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTfZhOivQnalj2VkmUKTPpWr21gIccs7dJZL3gLbbnGn70Tugc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CDUQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CDUQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>This American Life</t>
@@ -84,7 +84,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRjQL2U1_KuAjPambMQJ_IrNNlLBgTorCY6Z4oVXHsbiHiXS30s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CDYQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CDYQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Les Pires Moments de l'Histoire</t>
@@ -93,7 +93,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcS5CdeAg4etnJz4lUL2HJygXg9A8t4bI_q62EmJZpVuEMQo04_c</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CDcQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CDcQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Planet Money</t>
@@ -102,7 +102,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSl9IqyvZ8Bkh8VxHvIdYGNEknYTYgNbFaTr17nKO60IWq2YZjS</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CDgQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CDgQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Conan O’Brien Needs A Friend</t>
@@ -111,7 +111,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRjDk1NRD4OiBn4oIGtGcBMe5ATIlgeZXfRlVTu14pKk7dzUsjX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CDkQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CDkQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Economist Podcasts</t>
@@ -120,7 +120,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTYK5Ymy5OwEFRn06zfAOTDJ8_mzCsGT2G-VqJkcj6GyoRoSCzA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYWNhc3QuY29tL3RoZWVjb25vbWlzdGFsbGF1ZGlv?sa=X&amp;ved=0CDoQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYWNhc3QuY29tL3RoZWVjb25vbWlzdGFsbGF1ZGlv?sa=X&amp;ved=0CDoQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Behind the Bastards</t>
@@ -129,7 +129,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSv4MtGLXqcUw7gnetojTlfVeMQAl00_g8RtiILyLqLck4eGDlf</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDsQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CDsQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>TED Talks Daily</t>
@@ -138,7 +138,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQvWRhYcJbWw4w6a9CFskUnb0-McmhM1QTyfq0omvEuVZyrA6Y</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CDwQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CDwQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The World at Six</t>
@@ -147,7 +147,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTIbIVOuuXaMpZY6nXCDr5F8rb9JHbe3DD4Wg6HNKPebqMYguFr</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvdzYueG1s?sa=X&amp;ved=0CD0Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvdzYueG1s?sa=X&amp;ved=0CD0Qjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Huberman Lab</t>
@@ -156,7 +156,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQvN3x-B_kb4p-hCjCere_kvoUCBeAfAt_TFJUkqXqZCEzwvZU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CD4Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CD4Qjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>CANADALAND</t>
@@ -165,7 +165,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQlt2Vp1I67Eey6Ys0B9gGCIBGRzNdUFKdTRcu1-QX_9UAfdAE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzMGNlYWUzM2ZlMzc0MDAxMjI4MjhjNg?sa=X&amp;ved=0CD8Qjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzMGNlYWUzM2ZlMzc0MDAxMjI4MjhjNg?sa=X&amp;ved=0CD8Qjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Today, Explained</t>
@@ -174,7 +174,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTnhNn5zq2UTzFQYTnVsSUOAj52_sLgqJf45qh_bOisNHHu81k</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RvZGF5LWV4cGxhaW5lZA?sa=X&amp;ved=0CEAQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RvZGF5LWV4cGxhaW5lZA?sa=X&amp;ved=0CEAQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Canadian True Crime</t>
@@ -183,7 +183,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSeNN7MpzxuiIzJztTswCVbUrfWuGaP6NnLq2oPpKY3PK2Yyyfi</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CEEQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CEEQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>La Poche Bleue</t>
@@ -192,7 +192,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTvQ9cbma0uLnJlqUZj2tcBifzzNFfnapgQ5WeN184SHIxPSYHY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvNzFmOTFiMjItMGY1NC00OGYyLTliZDctYWE1YzAwMWY1ZmFhLzRmYmQzODJiLTMyMjItNDRlNy05OGZiLWFjMzAwMTM2M2FjNi8xNTZmNTk0Yy1hNzIxLTQ2ZjgtYTA4MS1hYzMwMDEzNjNhZDQvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEIQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvNzFmOTFiMjItMGY1NC00OGYyLTliZDctYWE1YzAwMWY1ZmFhLzRmYmQzODJiLTMyMjItNDRlNy05OGZiLWFjMzAwMTM2M2FjNi8xNTZmNTk0Yy1hNzIxLTQ2ZjgtYTA4MS1hYzMwMDEzNjNhZDQvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEIQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>32 Thoughts: The Podcast</t>
@@ -201,7 +201,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5ltKCZkfJMSd6EKIh-lAHfMEVmaXx4fI8udjghw7e35zdXY0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9mWXFGcjVoXw?sa=X&amp;ved=0CEMQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9mWXFGcjVoXw?sa=X&amp;ved=0CEMQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Big Story</t>
@@ -210,154 +210,154 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTVCjcDz6oeyc4lHvxNYnLT7AzClEjRR8HTXaVAr4tRxYAzE98</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9Pa2F4NDRibw?sa=X&amp;ved=0CEQQjs4CKAFqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9Pa2F4NDRibw?sa=X&amp;ved=0CEQQjs4CKAFqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQayqj3ATkQO3j3azMgU3v8vloQJ0ezuibPL7PjiQmpX48i7Kvo</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEkQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CEoQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CEsQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CEwQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CE0Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CE4Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CE8Qjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFAQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2E5MTAxOGE0LWVhNGYtNDEzMC1iZjU1LWFlMjcwMTgwYzMyNy80NDcxMGVjYy0xMGJiLTQ4ZDEtOTNjNy1hZTI3MDE4MGMzM2UvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CEkQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RjYXN0ZmVlZHMubmJjbmV3cy5jb20vZGF0ZWxpbmU?sa=X&amp;ved=0CEoQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CEsQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CEwQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CE0Qjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CE4Qjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2UzNzM2ZGYxLTBmM2UtNDFmMy1hMDA5LTJhYjNkNmRkZGM1Mg?sa=X&amp;ved=0CE8Qjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTczYzk5OGUtNmU2MC00MzJmLTg2MTAtYWUyMTAxNDBjNWIxL2U1ZjkxMjA4LWNjN2UtNDcyNi1hMzEyLWFlMjgwMTQwYWQxMS9kNjRmNzU2ZC02ZDVlLTRmYWUtYjI0Zi1hZTI4MDE0MGFkMzYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFAQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Under the Influence with Terry O'Reilly</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly91bmRlcnRoZWluZmx1ZW5jZS5hcG9zdHJvcGhlcG9kY2FzdHMuY2EvZmVlZA?sa=X&amp;ved=0CFEQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly91bmRlcnRoZWluZmx1ZW5jZS5hcG9zdHJvcGhlcG9kY2FzdHMuY2EvZmVlZA?sa=X&amp;ved=0CFEQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Freakonomics Radio</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ZOGxGYk9UNA?sa=X&amp;ved=0CFIQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ZOGxGYk9UNA?sa=X&amp;ved=0CFIQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Lex Fridman Podcast</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CFMQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CFMQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Radiolab</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL3JhZGlvbGFi?sa=X&amp;ved=0CFQQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL3JhZGlvbGFi?sa=X&amp;ved=0CFQQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>2 Bears, 1 Cave with Tom Segura &amp; Bert Kreischer</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CFUQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CFUQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Revisionist History</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmV2aXNpb25pc3RoaXN0b3J5?sa=X&amp;ved=0CFYQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmV2aXNpb25pc3RoaXN0b3J5?sa=X&amp;ved=0CFYQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Ologies with Alie Ward</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CFcQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CFcQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Ideas</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvaWRlYXMueG1s?sa=X&amp;ved=0CFgQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvaWRlYXMueG1s?sa=X&amp;ved=0CFgQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Darknet Diaries</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CFkQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CFkQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Casefile True Crime</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5NDA4NzIucnNz?sa=X&amp;ved=0CFoQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5NDA4NzIucnNz?sa=X&amp;ved=0CFoQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Ezra Klein Show</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS84MkZJMzVQeA?sa=X&amp;ved=0CFsQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS84MkZJMzVQeA?sa=X&amp;ved=0CFsQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>فنجان مع عبدالرحمن أبومالح</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTBhYTM2MGMtZDlmYS00YzY4LTk3NDMtYWFjODAwM2MxZDk3L2ExYmI1NTVlLWE1NzItNDIxMS1hZWJlLWFhZDQwMGI5NjRiMS9mNjlhMDZlMS1kOWE5LTRkMzMtYWE2My1hYWQ0MDBiOTY0YmYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFwQjs4CKAJqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZTBhYTM2MGMtZDlmYS00YzY4LTk3NDMtYWFjODAwM2MxZDk3L2ExYmI1NTVlLWE1NzItNDIxMS1hZWJlLWFhZDQwMGI5NjRiMS9mNjlhMDZlMS1kOWE5LTRkMzMtYWE2My1hYWQ0MDBiOTY0YmYvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CFwQjs4CKAJqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Maintenance Phase</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CGEQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CGEQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>We Can Do Hard Things</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vd2NkaHQ?sa=X&amp;ved=0CGIQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vd2NkaHQ?sa=X&amp;ved=0CGIQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>StarTalk Radio</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS80VDM5X2pBag?sa=X&amp;ved=0CGMQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS80VDM5X2pBag?sa=X&amp;ved=0CGMQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Science Vs</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CGQQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CGQQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Mindset Mentor</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CGUQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CGYQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CGcQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CGUQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CGYQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CGcQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Diary Of A CEO with Steven Bartlett</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CGgQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CGgQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Art of Manliness</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9henkzM0c4Xw?sa=X&amp;ved=0CGkQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9henkzM0c4Xw?sa=X&amp;ved=0CGkQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Life Kit</t>
@@ -366,7 +366,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcT6MZvbfnorhcfDfaYvuGPdRoNR9q5cksKA5r1HSTKXOWU1BOYX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CGoQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CGoQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Ramsey Show</t>
@@ -375,7 +375,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsoDpE2a7nGGM92r2xKEYJ3E1cdHUzSpveFsNRyDO-l4LRsKSX</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CGsQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CGsQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>7 Good Minutes</t>
@@ -384,7 +384,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSVTPAyrcDAearNg0xnrtlIGv3np014iTawe3tul0qFaijuYQA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CGwQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CGwQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The School of Greatness</t>
@@ -393,7 +393,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSSnxZB6Rsy7G_nfPokcO7MgSKtZt_kIeE6dK3MlfydQw5Qw-U</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CG0Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CG0Qjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Sans Filtre Podcast</t>
@@ -402,7 +402,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRZIS6DvNPQpz_AAJn3WfU16bmikrJRz-WIS66favPWmvlj8ww</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS94bHR4c2s5Rw?sa=X&amp;ved=0CG4Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS94bHR4c2s5Rw?sa=X&amp;ved=0CG4Qjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Duolingo French Podcast</t>
@@ -411,7 +411,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcR6olwUkpYecy_cE0mrPBIyAn_V6FWzjnp3iJ19YGMXw_hxgFr8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mcnBvZGNhc3QubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CG8Qjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mcnBvZGNhc3QubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CG8Qjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Where Should We Begin? with Esther Perel</t>
@@ -420,7 +420,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSZVUvVSa8NcK3i098meMWUffu06qNQ_W_t8LIYfYP22Uj_H0ud</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0CHAQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0CHAQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Drôlement inspirant</t>
@@ -429,7 +429,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQMbSXepG3NyIIRkG8KvqF1Dcurz0INZLe0Br44H5GFgGNI7rm7</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CHEQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CHEQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>Speak Better English with Harry</t>
@@ -438,7 +438,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcT-oy9XyC4QDbQKjPpBtgFKLQ_RhZk1zec3GE4C94OMX5Eurac</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS80NDI1NDMucnNz?sa=X&amp;ved=0CHIQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS80NDI1NDMucnNz?sa=X&amp;ved=0CHIQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>VOA Learning English Podcast - VOA Learning English</t>
@@ -447,7 +447,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQYYowmuD9n5cd9NDVjOB7s56wYBHjAHW-OeXPXcXOrCPvtoyKJ</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZWFybmluZ2VuZ2xpc2gudm9hbmV3cy5jb20vcG9kY2FzdC8_em9uZUlkPTE2ODk?sa=X&amp;ved=0CHMQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZWFybmluZ2VuZ2xpc2gudm9hbmV3cy5jb20vcG9kY2FzdC8_em9uZUlkPTE2ODk?sa=X&amp;ved=0CHMQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>All Ears English Podcast</t>
@@ -456,7 +456,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSCamMpOOraqRqQuKauYtoYAGS3KwvvkMez3Oq7CAQfpqRLHZk</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vYWxsZWFyc2VuZ2xpc2g?sa=X&amp;ved=0CHQQjs4CKANqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vYWxsZWFyc2VuZ2xpc2g?sa=X&amp;ved=0CHQQjs4CKANqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>All-In with Chamath, Jason, Sacks &amp; Friedberg</t>
@@ -465,13 +465,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSpCGpcwaxhoub04Dn4Lz-qpA8mcOTdNJFPphtB3BEgI6ijTZe_</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CHkQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CHkQjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQmrWCZTfSvtUuVI5Tuk08MR7TeikwgrzYPfZhN_Q34SjPYRFi7</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CHoQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDI4OS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CHoQjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>On Purpose with Jay Shetty</t>
@@ -480,7 +480,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTu2mP3ppWuVxptsPZyrLAsEuu4dvcu05fVqdxXgcov1NIthN8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CHsQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CHsQjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>The Tim Ferriss Show</t>
@@ -489,37 +489,37 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTfmVd8QV1OQTPXDbiPVTORVWlnAO7jslfZLOlF9MSDW-kodns</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RpbS1mZXJyaXNzLXNob3c?sa=X&amp;ved=0CHwQjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RpbS1mZXJyaXNzLXNob3c?sa=X&amp;ved=0CHwQjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT2-oXPgTiz0UgcyaRuQfwDm7dy1dct8k47x8Fs4o_14i4O8p_s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CH0Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNzE3MDMucnNz?sa=X&amp;ved=0CH0Qjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSaGTGsPno4Jqgil6P2mBlbggtOBOiwkRxuQ6-2NSCsEF4wGJST</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CH4Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CH8Qjs4CKARqFwoTCOCk9fHtuoIDFQAAAAAdAAAAABAC</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIABEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9vcGVuLmZpcnN0b3J5Lm1lL3Jzcy91c2VyL2NqemR4emY3dmJ6dmowNzU4NzJrYW5vaWI?sa=X&amp;ved=0CH4Qjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CH8Qjs4CKARqFwoTCJjsoPbzuoIDFQAAAAAdAAAAABAD</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIABEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQEqGuBiqSCTDRUqEb9PAWDKHCQW4Y_RB1DE3KfkuCcohzXzS8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CIEBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vUk00MDMxNjQ5MDIw?sa=X&amp;ved=0CIEBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTf_i3TiDDeuEiuNUdeHdjXcap5mwJ5AmPMGgkMC3Ar23KaM8s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CIIBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0CIIBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Indicator from Planet Money</t>
@@ -528,7 +528,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRsFT2qLgsPp33JSPgNoGms5pWHwCKO5inOjdMiEQc4-WxSM08</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMyNS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIMBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMyNS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIMBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Canadian Investor</t>
@@ -537,7 +537,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQo4IW3vt7UnNlu_jg8IWU0G6phduty8d_H1akDfz_rVT8U394</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZDc1ZDJmZjQtYTRkZC00YTE5LWJjYjEtYWQzNTAxM2RmYzgzLzMzYTllNzBmLTU1YjEtNGY3OS04NmE5LWFkMzUwMTNlOTY3Mi80YWQwYThiYy1mNWRkLTRjNjMtYjZhZi1hZDM1MDEzZTk2ODAvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CIQBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZDc1ZDJmZjQtYTRkZC00YTE5LWJjYjEtYWQzNTAxM2RmYzgzLzMzYTllNzBmLTU1YjEtNGY3OS04NmE5LWFkMzUwMTNlOTY3Mi80YWQwYThiYy1mNWRkLTRjNjMtYjZhZi1hZDM1MDEzZTk2ODAvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CIQBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Jocko Podcast</t>
@@ -546,7 +546,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRP_ucEBbkznDfTGiSa8ml679nyvKiO09kiJpVMEIK7RcvxHECL</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tLzY0YTg5Zjg4LWEyNDUtNDA5OC04ZDhkLTQ5NjMyNWVjNGY3NA?sa=X&amp;ved=0CIUBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tLzY0YTg5Zjg4LWEyNDUtNDA5OC04ZDhkLTQ5NjMyNWVjNGY3NA?sa=X&amp;ved=0CIUBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>How I Built This with Guy Raz</t>
@@ -555,7 +555,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcT-F2U-kXQma7v3jy8KvKMpKVvdYDx4bOKUO2uwrEt0-oa47bI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMxMy9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIYBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMxMy9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CIYBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>We Regret To Inform You: The Rejection Podcast</t>
@@ -564,7 +564,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZAp4PnoLiJMq3r94Pp663TvfTz5S_UKo8zCfCGbmWwCoYRx8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzU3OWY5YTc0LTViOWYtNDUwOC1iNjg3LTE1ODczZGFkNmQxMQ?sa=X&amp;ved=0CIcBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzU3OWY5YTc0LTViOWYtNDUwOC1iNjg3LTE1ODczZGFkNmQxMQ?sa=X&amp;ved=0CIcBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>We Study Billionaires - The Investor’s Podcast Network</t>
@@ -573,7 +573,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQYHVcazkreKTBKdsIBt5hTxAOFfJ_17LeZVpyFLxxg3bDQrouj</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RoZS1pbnZlc3RvcnMtcG9kY2FzdA?sa=X&amp;ved=0CIgBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3RoZS1pbnZlc3RvcnMtcG9kY2FzdA?sa=X&amp;ved=0CIgBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Motley Fool Money</t>
@@ -582,7 +582,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcR9bQRXmqIk4-GFtmd5BWk4RApT4kU20HVRrJg7_9o5pAptHG8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mb29sLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIkBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mb29sLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIkBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>THE ED MYLETT SHOW</t>
@@ -591,7 +591,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQTfjESLmT9jHuhnlCSypbPDAHyZAbzbzya1cZyhFE9pFkHlaA</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9KMlpERlhvSQ?sa=X&amp;ved=0CIoBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9KMlpERlhvSQ?sa=X&amp;ved=0CIoBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Prof G Pod with Scott Galloway</t>
@@ -600,7 +600,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRZWd33vmGTD4UJcjZNFFRV87X9CgvDkj2zyr9Xb6nq1ahu51nc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vV1dPNjY1NTg2OTIzNg?sa=X&amp;ved=0CIsBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vV1dPNjY1NTg2OTIzNg?sa=X&amp;ved=0CIsBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Rational Reminder Podcast</t>
@@ -609,7 +609,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQY8Q7Qme12WzOkp7njNvj2rUxCPb8dOJbNhY0Jc40K8O5iRps</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yYXRpb25hbHJlbWluZGVyLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIwBEI7OAigEahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yYXRpb25hbHJlbWluZGVyLmxpYnN5bi5jb20vcnNz?sa=X&amp;ved=0CIwBEI7OAigEahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Morbid</t>
@@ -618,7 +618,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSE25ePzLSmlWrYNZGS6z_5M2QjPkLAla7ciGDowtkCZCBQ3ts</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5OTcyMjAucnNz?sa=X&amp;ved=0CJEBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzQ5OTcyMjAucnNz?sa=X&amp;ved=0CJEBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Office Ladies</t>
@@ -627,16 +627,16 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBSJmZNjtN2fg-ZXuGqQ549ZUFOxw9zfQu9ZAOY26YjawilOc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9QeEVXX2lwSw?sa=X&amp;ved=0CJIBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CJMBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9QeEVXX2lwSw?sa=X&amp;ved=0CJIBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kSG9vaFZOSA?sa=X&amp;ved=0CJMBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRAZQaGlaVMOduPaX_5uVPNFYjSBpo88CScQs1ojspNXqRhPBc</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CJQBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly8yYmVhcnMxY2F2ZS5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CJQBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Debaters</t>
@@ -645,34 +645,34 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSNrO952e8eFWXNGTVyxDtX5q9GD3d0q3WZOD_opgWrvjI7GrM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZGViYXRlcnMueG1s?sa=X&amp;ved=0CJUBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CJYBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CJcBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CJgBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvZGViYXRlcnMueG1s?sa=X&amp;ved=0CJUBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3NtYXJ0bGVzcw?sa=X&amp;ved=0CJYBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYzYTBhNDQ2MTU3ZTE4MDAxMTZiZWYwNQ?sa=X&amp;ved=0CJcBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9GTzZreFlHag?sa=X&amp;ved=0CJgBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Les Grosses Têtes</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cucnRsLmZyL3BvZGNhc3QvbGVzLWdyb3NzZXMtdGV0ZXMueG1s?sa=X&amp;ved=0CJkBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cucnRsLmZyL3BvZGNhc3QvbGVzLWdyb3NzZXMtdGV0ZXMueG1s?sa=X&amp;ved=0CJkBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Bad Friends</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9PbzlMWDVGSQ?sa=X&amp;ved=0CJoBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9PbzlMWDVGSQ?sa=X&amp;ved=0CJoBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Monday Morning Podcast</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvODg1YWNlODMtMDI3YS00N2FkLWFkNjctYWNhNzAwMmYxZGY4L2NhYTkyYmIxLTczY2MtNGFiYy04YjZkLWFjYTgwMDVkMGQyMy80NzFmYzQ0NC0xMzc4LTQyNjgtODZlYS1hY2E4MDA1ZDBkM2IvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CJsBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvODg1YWNlODMtMDI3YS00N2FkLWFkNjctYWNhNzAwMmYxZGY4L2NhYTkyYmIxLTczY2MtNGFiYy04YjZkLWFjYTgwMDVkMGQyMy80NzFmYzQ0NC0xMzc4LTQyNjgtODZlYS1hY2E4MDA1ZDBkM2IvcG9kY2FzdC5yc3M?sa=X&amp;ved=0CJsBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Armchair Expert with Dax Shepard</t>
@@ -681,7 +681,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSaBfNdNt6vW9VGhrCsForS1L9nogdEUO2uKyFbgIYKRdfsrk0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNDEyMy9yc3M?sa=X&amp;ved=0CJwBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNDEyMy9yc3M?sa=X&amp;ved=0CJwBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>This Past Weekend w/ Theo Von</t>
@@ -690,7 +690,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQJUv2cJnTwJhCde5x2iTR2pPy5XqGn1NLBIKkz6dojvxrbmu8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNjQwNS9yc3M?sa=X&amp;ved=0CJ0BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3Muc2ltcGxlY2FzdC5jb20vcG9kY2FzdHMvNjQwNS9yc3M?sa=X&amp;ved=0CJ0BEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>My Brother, My Brother And Me</t>
@@ -699,7 +699,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRSiekbNygVIBzORsZ4AtOXa5Gf5EvOb796KgOo56OCnrp8Pz8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS93alF2WXRkbA?sa=X&amp;ved=0CJ4BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS93alF2WXRkbA?sa=X&amp;ved=0CJ4BEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Last Podcast On The Left</t>
@@ -708,7 +708,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgDss0_NDGwTEtbTQfIgflOMsOWAryHoum0bQ9Trdry7HMQw0m</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kQ1hNSXBKeg?sa=X&amp;ved=0CJ8BEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9kQ1hNSXBKeg?sa=X&amp;ved=0CJ8BEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Fly on the Wall with Dana Carvey and David Spade</t>
@@ -717,7 +717,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjKYspDyKViU1RfevzJ4L2vxNJxXYbQJlKCtHORDR2LwdqdFY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZmx5LW9uLXRoZS13YWxs?sa=X&amp;ved=0CKABEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZmx5LW9uLXRoZS13YWxs?sa=X&amp;ved=0CKABEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Nadie Sabe Nada</t>
@@ -726,7 +726,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcQr_uwoAzpQBf5wAn_9V5jADZ-DKsp7o3mUuDdLqD40EQiq3uw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mYXBpLXRvcC5wcmlzYXNkLmNvbS9wb2RjYXN0L3BsYXlzZXIvbmFkaWVfc2FiZV9uYWRhL2l0dW5lc3RmcC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKEBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mYXBpLXRvcC5wcmlzYXNkLmNvbS9wb2RjYXN0L3BsYXlzZXIvbmFkaWVfc2FiZV9uYWRhL2l0dW5lc3RmcC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKEBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Jokes In Hindi</t>
@@ -735,7 +735,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSEJ_pkRJZn0mxYcMR2Z8LqvJHkqKpfuEwDM1ukWGigKzoKw8s-</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy8zYTc3ZjczOC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CKIBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy8zYTc3ZjczOC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CKIBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>A Piada do Dia</t>
@@ -744,7 +744,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcS6hi09LgAFq05kbG637WJ-gT71ohx6MWvWHXRSBIq1idyP5SSm</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tL2EzNzMzZjE4LWZlYzktNDUwOS05MTk3LWZmZDhjNDM0MTdlZQ?sa=X&amp;ved=0CKMBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5yZWRjaXJjbGUuY29tL2EzNzMzZjE4LWZlYzktNDUwOS05MTk3LWZmZDhjNDM0MTdlZQ?sa=X&amp;ved=0CKMBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Wait Wait... Don't Tell Me!</t>
@@ -753,13 +753,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQ5nfp_HPdtVsgPTrHAsLMRlPeJAbyYMxnj2xe2sDy7y87qloo</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM0NDA5ODUzOS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKQBEI7OAigFahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM0NDA5ODUzOS9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKQBEI7OAigFahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSfD4UaounFa36jK9J4lGtMB31AxDcQH81mhPUFPZyXP6necHM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CKkBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cudGhpc2FtZXJpY2FubGlmZS5vcmcvcG9kY2FzdC9yc3MueG1s?sa=X&amp;ved=0CKkBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>99% Invisible</t>
@@ -768,7 +768,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSoBnUkR9-ZlpSg0UHRIcVk9-e0RreQqFCVzzkohMUR-0_muMno</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9CcWJzeFZmTw?sa=X&amp;ved=0CKoBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9CcWJzeFZmTw?sa=X&amp;ved=0CKoBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Fresh Air</t>
@@ -777,16 +777,16 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSvadpfP2DBC56HWMEhNZX6tb8vP9mA8DNHls74qKd3kXKvLjI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM4MTQ0NDkwOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKsBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CKwBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzM4MTQ0NDkwOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CKsBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLmF1c2hhLmNvL29tWFlFZFV4Z0dKRQ?sa=X&amp;ved=0CKwBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Q with Tom Power</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvcXBvZGNhc3QueG1s?sa=X&amp;ved=0CK0BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvcXBvZGNhc3QueG1s?sa=X&amp;ved=0CK0BEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Myths and Legends</t>
@@ -795,25 +795,25 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR2gducdpG-mZVa41IjU0SmsPvTOm4kI38DilMAmKWYTHEHuJk0</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwOTQ2MjYucnNz?sa=X&amp;ved=0CK4BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwOTQ2MjYucnNz?sa=X&amp;ved=0CK4BEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Moth</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnRoZW1vdGgub3JnL3RoZW1vdGhwb2RjYXN0?sa=X&amp;ved=0CK8BEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnRoZW1vdGgub3JnL3RoZW1vdGhwb2RjYXN0?sa=X&amp;ved=0CK8BEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOGQzMzVjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLABEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOGQzMzVjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLABEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Avec son Sam</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9iYWxhZG9xdWViZWMuY2EvYXZlY3NvbnNhbXBvZGNhc3QvcnNz?sa=X&amp;ved=0CLEBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9iYWxhZG9xdWViZWMuY2EvYXZlY3NvbnNhbXBvZGNhc3QvcnNz?sa=X&amp;ved=0CLEBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Magnus Archives</t>
@@ -822,7 +822,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTOnCexkbwapn5Rzo8pTHLvyuraLc2PvhOmFtYUDDbSDfa0FhM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2I2MDg1YmNkLTM1NDItNGE0My1iNmE4LTAyMWUzZmQyNTFiOA?sa=X&amp;ved=0CLIBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2I2MDg1YmNkLTM1NDItNGE0My1iNmE4LTAyMWUzZmQyNTFiOA?sa=X&amp;ved=0CLIBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>A Hot Dog Is a Sandwich</t>
@@ -831,7 +831,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5os3kO_5MA54N1OdIDySOY8g6eUx8Z4bLlkP7Q27US-dpJ-E</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaG90LWRvZw?sa=X&amp;ved=0CLMBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaG90LWRvZw?sa=X&amp;ved=0CLMBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Bald and the Beautiful with Trixie and Katya</t>
@@ -840,7 +840,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTVf_jwqiER5W_7WEpgXtTWpnQsHS4LDbNwjswqeUgUAEwUm9-w</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNjk1OTY4OTU4NA?sa=X&amp;ved=0CLQBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNjk1OTY4OTU4NA?sa=X&amp;ved=0CLQBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The New Yorker Radio Hour</t>
@@ -849,7 +849,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcS6i6mNNxBpP-bw-gdg8hx6LN5TX4Oyn3-cheGaziOznKfU62Pj</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL25ld3lvcmtlcnJhZGlvaG91cg?sa=X&amp;ved=0CLUBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLndueWMub3JnL25ld3lvcmtlcnJhZGlvaG91cg?sa=X&amp;ved=0CLUBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Little Stories for Tiny People: Anytime and bedtime stories for kids</t>
@@ -858,7 +858,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRtra2nAriI_UUZ0njfAaEfNdoRiffoidejd9ijG_cmC_DXxJ8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cubGl0dGxlc3Rvcmllc3RpbnlwZW9wbGUuY29tL3BvZGNhc3QueG1s?sa=X&amp;ved=0CLYBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cubGl0dGxlc3Rvcmllc3RpbnlwZW9wbGUuY29tL3BvZGNhc3QueG1s?sa=X&amp;ved=0CLYBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Let's Not Meet: A True Horror Podcast</t>
@@ -867,7 +867,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQa3LSdkpCNBd01_L_YXDRI5BgB0JOb-YH8VOtFbHdZn9zcFo8</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwMzc1ODIucnNz?sa=X&amp;ved=0CLcBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hdWRpb2Jvb20uY29tL2NoYW5uZWxzLzUwMzc1ODIucnNz?sa=X&amp;ved=0CLcBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Joe Rogan Experience Experience</t>
@@ -876,7 +876,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsaByGyu7GuvmOXBFBHgDnBZQ5yxXIN0fZjwNW4fn4SnQgW1sM</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9qcmVlcG9kY2FzdC5wb2RiZWFuLmNvbS9mZWVkLnhtbA?sa=X&amp;ved=0CLgBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9qcmVlcG9kY2FzdC5wb2RiZWFuLmNvbS9mZWVkLnhtbA?sa=X&amp;ved=0CLgBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Stories of Mahabharata</t>
@@ -885,7 +885,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTZBQI5V6RzUZ1Mm24yRbj-RbDZ-nNxdlkqolDmqZuSfQG2uRhJ</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxYTU0OTVmZDIwZmI2MDAxOTdjODJmZA?sa=X&amp;ved=0CLkBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxYTU0OTVmZDIwZmI2MDAxOTdjODJmZA?sa=X&amp;ved=0CLkBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Le Petit Prince</t>
@@ -894,7 +894,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTn6q2_evzT9QNG9PMF8O7HYkDtbY00rtHPg9ookK0G8vfTx9M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9lZjEzMDcwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLoBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9lZjEzMDcwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLoBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Alessandro Barbero Podcast - La Storia</t>
@@ -903,7 +903,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTDYaWZyhxr2OUHVV8zoPfuAF1u4FHnahDL3ynxqP5FKPq3mU49</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNDg2MDUyNy9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CLsBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNDg2MDUyNy9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CLsBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Rintik Sedu</t>
@@ -912,37 +912,37 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTjqVuvFEx14WQ4l1DtvgFrBPe2eYRAY0CDF30KI8JMymfvnyI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOTRlYWMwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLwBEI7OAigGahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9iOTRlYWMwL3BvZGNhc3QvcnNz?sa=X&amp;ved=0CLwBEI7OAigGahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiIrnAB0ib0cvmizw-YeHo7tUXIUPZTM-8dSQFv85z6wtUPFeT</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CMEBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9sZXhmcmlkbWFuLmNvbS9mZWVkL3BvZGNhc3Qv?sa=X&amp;ved=0CMEBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Distorsion</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9kaXN0b3JzaW9ucG9kY2FzdC5jb20vcG9kY2FzdHMueG1s?sa=X&amp;ved=0CMIBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9kaXN0b3JzaW9ucG9kY2FzdC5jb20vcG9kY2FzdHMueG1s?sa=X&amp;ved=0CMIBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSUemYfblAl1vXufDXFscnhjmgpRk89fO-MHGGtERiUggpM1mE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CMMBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vZGFya25ldGRpYXJpZXM?sa=X&amp;ved=0CMMBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSEL3C2OjylEP-9zU8HlV4f47Q8F1H5p4ZMtdzAQUlxXlwZ78WR</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CMQBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbGxpbmNoYW1hdGhqYXNvbi5saWJzeW4uY29tL3Jzcw?sa=X&amp;ved=0CMQBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Roz &amp; Mocha</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS92X0JWYnU2dg?sa=X&amp;ved=0CMUBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS92X0JWYnU2dg?sa=X&amp;ved=0CMUBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Waveform: The MKBHD Podcast</t>
@@ -951,7 +951,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTf-9sNvJYKUKzelCETNNFiC1QQxVrlMQufTtgY3qvqeLeh_xs</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNDQxODM2NDA0NQ?sa=X&amp;ved=0CMYBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vU1RVNDQxODM2NDA0NQ?sa=X&amp;ved=0CMYBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Pivot</t>
@@ -960,7 +960,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSDz8YiQ5B3yIvFMLJG8qAgnYvWseoiDhudtOSVAhCXT_iOqDX9</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcGl2b3Q?sa=X&amp;ved=0CMcBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcGl2b3Q?sa=X&amp;ved=0CMcBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Hard Fork</t>
@@ -969,7 +969,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSJ2VUCC2f2ZrmFmFYQh4ymm1WM1M2WbQKLp3J07OOPYqm0bRab</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9sMmk5WW5UZA?sa=X&amp;ved=0CMgBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9sMmk5WW5UZA?sa=X&amp;ved=0CMgBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Vergecast</t>
@@ -978,7 +978,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRgeaiUpHH6TzifX__lDsX7o25yqnZ3JC8mp92qTfX7nWHL_CPl</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vdmVyZ2VjYXN0?sa=X&amp;ved=0CMkBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vdmVyZ2VjYXN0?sa=X&amp;ved=0CMkBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>This Week in Tech (Audio)</t>
@@ -987,7 +987,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcQlXtaMDRfwvLEvYHbCQVdO9LIdlceIwPG7GOUsTN9qGNPJpmUV</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50d2l0LnR2L3R3aXQueG1s?sa=X&amp;ved=0CMoBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50d2l0LnR2L3R3aXQueG1s?sa=X&amp;ved=0CMoBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Spark</t>
@@ -996,7 +996,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRK14hh8d8dP_AKXiIogts1kVDx7494oyxFZACu7MAhngliPmI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvc3BhcmsueG1s?sa=X&amp;ved=0CMsBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuY2JjLmNhL3BvZGNhc3RpbmcvaW5jbHVkZXMvc3BhcmsueG1s?sa=X&amp;ved=0CMsBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Acquired</t>
@@ -1005,7 +1005,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQNaetRQ37fiF6NSln-MEiMpyDPNUjGfnFWbkNtfrM-R2c1cNUk</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50cmFuc2lzdG9yLmZtL2FjcXVpcmVk?sa=X&amp;ved=0CMwBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy50cmFuc2lzdG9yLmZtL2FjcXVpcmVk?sa=X&amp;ved=0CMwBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Gaana Music</t>
@@ -1014,7 +1014,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSVdQcprzJ5G2PTM4d5aK3LOXJMWsMotxKW9U7VXhWxTjNLUpI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5odWJob3BwZXIuY29tLzcwMjQ4YWUyOTczZGMzZWIwOGU3MjZjMTFhZjc3NWFlLnJzcw?sa=X&amp;ved=0CM0BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5odWJob3BwZXIuY29tLzcwMjQ4YWUyOTczZGMzZWIwOGU3MjZjMTFhZjc3NWFlLnJzcw?sa=X&amp;ved=0CM0BEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Новости со Стасом</t>
@@ -1023,7 +1023,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQIh-x7xe-pG1qE3QHO1CVMN3ipAdSKCGCjj6i0Qcz2yQWMFS5s</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RzYXN0LnJ1L2ZlZWQvcG9kY2FzdC8?sa=X&amp;ved=0CM4BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wb2RzYXN0LnJ1L2ZlZWQvcG9kY2FzdC8?sa=X&amp;ved=0CM4BEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Elon Musk Podcast</t>
@@ -1032,7 +1032,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSw5XYRWOoHvhT7GMmdCSFMtQgXOyxjlCqEmVt7FhCjbn888os</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9kYTMyOTZkNC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CM8BEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9kYTMyOTZkNC9wb2RjYXN0L3Jzcw?sa=X&amp;ved=0CM8BEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Nature Podcast</t>
@@ -1041,7 +1041,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRHaAFgl3zP5pI9MS3R2GmdYLxXlcNSFsU-J4ksV-NWNGaWNdg</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzAxODVjZWE1LTllM2ItNGI4Mi1hODg3LTI2ZjkxZjkyNzY1Zg?sa=X&amp;ved=0CNABEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzAxODVjZWE1LTllM2ItNGI4Mi1hODg3LTI2ZjkxZjkyNzY1Zg?sa=X&amp;ved=0CNABEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Иммигранткаст</t>
@@ -1050,7 +1050,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYZouLghJ42fMIUw28y1v433MS4ic2dBA0UwJw_5pv1BMWn2M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvMjY4Mzg3Ny9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNEBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvMjY4Mzg3Ny9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNEBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Naked Science</t>
@@ -1059,7 +1059,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcS_IyinV33axMKenCd3ckqk9wbnpoPw5edZDSe3U9YLXZkB0ONz</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9zeU92Q2xfbg?sa=X&amp;ved=0CNIBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9zeU92Q2xfbg?sa=X&amp;ved=0CNIBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Decoder with Nilay Patel</t>
@@ -1068,7 +1068,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcR0d0eDeXTGrcjJCmc_cuiHzNkCS3aYsQVm4yEoTol_fGu2qnwb</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmVjb2RlZGVjb2Rl?sa=X&amp;ved=0CNMBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vcmVjb2RlZGVjb2Rl?sa=X&amp;ved=0CNMBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Запуск завтра</t>
@@ -1077,46 +1077,46 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcTDw47JBDyUHYCWApGqtw4zGJG7Zj1rDqzVoOrXr5qMcUnWmpY</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly96YXB1c2t6YXZ0cmEubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CNQBEI7OAigHahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly96YXB1c2t6YXZ0cmEubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0CNQBEI7OAigHahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcSj_sj9v4ZJWSTPnheykXuT9p8uV91s4WDbB9FiRjBM1Tgix2M</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CNkBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CNoBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vaHViZXJtYW5sYWI?sa=X&amp;ved=0CNkBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5ucHIub3JnLzUxMDMzOC9wb2RjYXN0LnhtbA?sa=X&amp;ved=0CNoBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRiGZTi8LguxQXLTzkM0OXc0grjGFXxgCbTITrgOQXZxAiamK4L</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CNsBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNwBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
-  </si>
-  <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CN0BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL29uLXB1cnBvc2Utd2l0aC1qYXktc2hldHR5?sa=X&amp;ved=0CNsBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cuc3ByZWFrZXIuY29tL3Nob3cvNTcwMTE1Ni9lcGlzb2Rlcy9mZWVk?sa=X&amp;ved=0CNwBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5idXp6c3Byb3V0LmNvbS8xNDExMTI2LnJzcw?sa=X&amp;ved=0CN0BEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTdfXN6UB_opbj_Mb_F6k65FyGOlJvJJ8PDz1vtWqBmQ4Ui9CSn</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CN4BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5tZWdhcGhvbmUuZm0vc2NpZW5jZXZz?sa=X&amp;ved=0CN4BEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTHD1NmlvX1UP7rqjXvmZk27cji0AmmsASp7v7iripFJAklglI</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CN8BEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9ycEtRRXdlbA?sa=X&amp;ved=0CN8BEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcTblyadYoRzQ03KDmRxWIpT0KyOsz6JuyeoS64C8Lr9gfbAcsE</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0COABEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9BQXZ1cDlaeg?sa=X&amp;ved=0COABEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Nothing much happens: bedtime stories to help you sleep</t>
@@ -1125,7 +1125,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR87wEwWxAU7spytG73MqqJh41XLgZpo3IuyJ4lWUcRSvkwKjU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZmRjMmFkMTMtZDE5OS00ZTk3LWIyZGItYTU5MzAwY2I2Y2MyLzQ2MTJiMTM4LTE5OGMtNDRlZi05OGYzLWE5YWQwMGY2MTU5Mi9iMmRhOWQ4OS1mMjU1LTQ1OTMtOGRlNy1hOWFkMDBmNjE1OWMvcG9kY2FzdC5yc3M?sa=X&amp;ved=0COEBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly93d3cub21ueWNvbnRlbnQuY29tL2QvcGxheWxpc3QvZmRjMmFkMTMtZDE5OS00ZTk3LWIyZGItYTU5MzAwY2I2Y2MyLzQ2MTJiMTM4LTE5OGMtNDRlZi05OGYzLWE5YWQwMGY2MTU5Mi9iMmRhOWQ4OS1mMjU1LTQ1OTMtOGRlNy1hOWFkMDBmNjE1OWMvcG9kY2FzdC5yc3M?sa=X&amp;ved=0COEBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Get Sleepy: Sleep meditation and stories</t>
@@ -1134,13 +1134,13 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRn0BHIDUd73SkWWF8jFQxvgZtgTpbayCyR2FIXfMLK4bnocyPa</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9JWHhCQnZLeg?sa=X&amp;ved=0COIBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9JWHhCQnZLeg?sa=X&amp;ved=0COIBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcQzqvSll0hNOHa_E2GwbItRTr2cV4WKdoQKU-uRG5FUHNJ-y2TU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0COMBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2VzdGhlci5hdWRpYmxlLmxpYnN5bnByby5jb20vcnNz?sa=X&amp;ved=0COMBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>The Peter Attia Drive</t>
@@ -1149,7 +1149,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSV7yOBCmGuKgGsQMuumgQsUCbzoFXDW-ArdUsR6bu4Y0j3Das</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wZXRlcmF0dGlhZHJpdmUubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0COQBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9wZXRlcmF0dGlhZHJpdmUubGlic3luLmNvbS9yc3M?sa=X&amp;ved=0COQBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Sex With Emily</t>
@@ -1158,7 +1158,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlHtLb_RHSJE3w6AHwmCTi5EXVCEgE7C0ShoSsGVZh5jNshKAx</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxNTRhZWRiZDJiMDBjMDAxMzE1NThiMQ?sa=X&amp;ved=0COUBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzLzYxNTRhZWRiZDJiMDBjMDAxMzE1NThiMQ?sa=X&amp;ved=0COUBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Ten Percent Happier with Dan Harris</t>
@@ -1167,7 +1167,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcS34rdkkaNIoasAjwIWabbYKW1GW1jEGZmM4M9JVhSlWfQ9jdg</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3Rlbi1wZXJjZW50LWhhcHBpZXI?sa=X&amp;ved=0COYBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9yc3MuYXJ0MTkuY29tL3Rlbi1wZXJjZW50LWhhcHBpZXI?sa=X&amp;ved=0COYBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Sawbones: A Marital Tour of Misguided Medicine</t>
@@ -1176,7 +1176,7 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSz4oIwALqstbCfcPMucKRiv2OPTSzPzHZALhJA9WUQYqIJqbw</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS95MUxGX3NuMg?sa=X&amp;ved=0COcBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS95MUxGX3NuMg?sa=X&amp;ved=0COcBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Feel Better, Live More with Dr Rangan Chatterjee</t>
@@ -1185,7 +1185,7 @@
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRRuDRAJjV7HNcB5qioOG0fypM3FXf-Uufku9PQ258hvn-KxLS5</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2JlZWU4OGY2LTIzMDktNDAzNC1hZWQxLTk0OWRjNTdmOTc3OQ?sa=X&amp;ved=0COgBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5hY2FzdC5jb20vcHVibGljL3Nob3dzL2JlZWU4OGY2LTIzMDktNDAzNC1hZWQxLTk0OWRjNTdmOTc3OQ?sa=X&amp;ved=0COgBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Sleep With Me</t>
@@ -1194,7 +1194,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRkhO6xdxuK_UiulUdPF0lbMO3IWTbHxgyL0HolsPvWBUJC4PNL</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLnNsZWVwd2l0aG1lcG9kY2FzdC5jb20v?sa=X&amp;ved=0COkBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkLnNsZWVwd2l0aG1lcG9kY2FzdC5jb20v?sa=X&amp;ved=0COkBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>XXX Academy</t>
@@ -1203,7 +1203,7 @@
     <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcSM0VsXI5NZekKUeZA3dvOMBa6puw-mYdxqfQo52vvVwgmfd9-B</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9mOTEyYWJjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0COoBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy9mOTEyYWJjL3BvZGNhc3QvcnNz?sa=X&amp;ved=0COoBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Психология с Александрой Яковлевой</t>
@@ -1212,7 +1212,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcTM2BWw8l96X-7XFw-l8zAeYlyDblZLED7G8ZyElJI8wZXRIpU</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9NaWZfRTB0MQ?sa=X&amp;ved=0COsBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9NaWZfRTB0MQ?sa=X&amp;ved=0COsBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>Не учи меня жить</t>
@@ -1221,7 +1221,7 @@
     <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcRv2IkiOK9-XYJjDrM1Cuclu-ohsz8xllGGuQiTudymY7JyKS16</t>
   </si>
   <si>
-    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnNvdW5kY2xvdWQuY29tL3VzZXJzL3NvdW5kY2xvdWQ6dXNlcnM6NjkzMTczMDg0L3NvdW5kcy5yc3M?sa=X&amp;ved=0COwBEI7OAigIahcKEwjgpPXx7bqCAxUAAAAAHQAAAAAQAg</t>
+    <t>https://podcasts.google.com/feed/aHR0cDovL2ZlZWRzLnNvdW5kY2xvdWQuY29tL3VzZXJzL3NvdW5kY2xvdWQ6dXNlcnM6NjkzMTczMDg0L3NvdW5kcy5yc3M?sa=X&amp;ved=0COwBEI7OAigIahcKEwiY7KD287qCAxUAAAAAHQAAAAAQAw</t>
   </si>
   <si>
     <t>episodeTitle</t>
